--- a/output/res_load/q_mvar.xlsx
+++ b/output/res_load/q_mvar.xlsx
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.004253567229340121</v>
+        <v>-0.002126783614670061</v>
       </c>
       <c r="C2" t="n">
         <v>0.0002405732765687318</v>
@@ -584,7 +584,7 @@
         <v>0.0003207643687583091</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.003342088537338666</v>
+        <v>-0.001671044268669333</v>
       </c>
       <c r="J2" t="n">
         <v>0.0002405732765687318</v>
@@ -602,13 +602,13 @@
         <v>0.0004811465531374637</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.00394974099867297</v>
+        <v>-0.001974870499336485</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.003038262306671515</v>
+        <v>-0.001519131153335757</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.002734436076004363</v>
+        <v>-0.001367218038002182</v>
       </c>
       <c r="R2" t="n">
         <v>0.0002405732765687318</v>
@@ -668,7 +668,7 @@
         <v>0.00088210201408535</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.006836090190010909</v>
+        <v>-0.003418045095005455</v>
       </c>
       <c r="AL2" t="n">
         <v>0.001363248567222814</v>
@@ -680,7 +680,7 @@
         <v>0.001443439659412391</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.007899481997345938</v>
+        <v>-0.003949740998672969</v>
       </c>
       <c r="AP2" t="n">
         <v>0.0007217198297061955</v>
@@ -691,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.004149087431339019</v>
+        <v>-0.00207454371566951</v>
       </c>
       <c r="C3" t="n">
         <v>0.0002247161726350281</v>
@@ -712,7 +712,7 @@
         <v>0.0002996215635133708</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.003259997267480658</v>
+        <v>-0.001629998633740329</v>
       </c>
       <c r="J3" t="n">
         <v>0.0002247161726350281</v>
@@ -730,13 +730,13 @@
         <v>0.0004494323452700562</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.003852724043386232</v>
+        <v>-0.001926362021693116</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.00296363387952787</v>
+        <v>-0.001481816939763935</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.002667270491575083</v>
+        <v>-0.001333635245787541</v>
       </c>
       <c r="R3" t="n">
         <v>0.0002247161726350281</v>
@@ -796,7 +796,7 @@
         <v>0.0008239592996617695</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.006668176228937708</v>
+        <v>-0.003334088114468854</v>
       </c>
       <c r="AL3" t="n">
         <v>0.001273391644931826</v>
@@ -808,7 +808,7 @@
         <v>0.001348297035810168</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.007705448086772464</v>
+        <v>-0.003852724043386232</v>
       </c>
       <c r="AP3" t="n">
         <v>0.0006741485179050842</v>
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.004232907127243952</v>
+        <v>-0.002116453563621976</v>
       </c>
       <c r="C4" t="n">
         <v>0.0002228175948782114</v>
@@ -840,7 +840,7 @@
         <v>0.0002970901265042818</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.00332585559997739</v>
+        <v>-0.001662927799988695</v>
       </c>
       <c r="J4" t="n">
         <v>0.0002228175948782114</v>
@@ -858,13 +858,13 @@
         <v>0.0004456351897564227</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.003930556618155098</v>
+        <v>-0.001965278309077549</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.003023505090888536</v>
+        <v>-0.001511752545444268</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.002721154581799683</v>
+        <v>-0.001360577290899841</v>
       </c>
       <c r="R4" t="n">
         <v>0.0002228175948782114</v>
@@ -924,7 +924,7 @@
         <v>0.0008169978478867749</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.006802886454499207</v>
+        <v>-0.003401443227249603</v>
       </c>
       <c r="AL4" t="n">
         <v>0.001262633037643198</v>
@@ -936,7 +936,7 @@
         <v>0.001336905569269268</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.007861113236310195</v>
+        <v>-0.003930556618155097</v>
       </c>
       <c r="AP4" t="n">
         <v>0.000668452784634634</v>
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.004338605731794665</v>
+        <v>-0.002169302865897332</v>
       </c>
       <c r="C5" t="n">
         <v>0.0002195123686417676</v>
@@ -968,7 +968,7 @@
         <v>0.0002926831581890234</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.00340890450355295</v>
+        <v>-0.001704452251776475</v>
       </c>
       <c r="J5" t="n">
         <v>0.0002195123686417676</v>
@@ -986,13 +986,13 @@
         <v>0.0004390247372835351</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.00402870532238076</v>
+        <v>-0.00201435266119038</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.003099004094139045</v>
+        <v>-0.001549502047069523</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.002789103684725141</v>
+        <v>-0.00139455184236257</v>
       </c>
       <c r="R5" t="n">
         <v>0.0002195123686417676</v>
@@ -1052,7 +1052,7 @@
         <v>0.0008048786850198143</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.006972759211812852</v>
+        <v>-0.003486379605906426</v>
       </c>
       <c r="AL5" t="n">
         <v>0.00124390342230335</v>
@@ -1064,7 +1064,7 @@
         <v>0.001317074211850605</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.008057410644761519</v>
+        <v>-0.00402870532238076</v>
       </c>
       <c r="AP5" t="n">
         <v>0.0006585371059253027</v>
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.004332338575934764</v>
+        <v>-0.002166169287967382</v>
       </c>
       <c r="C6" t="n">
         <v>0.0002153604840716283</v>
@@ -1096,7 +1096,7 @@
         <v>0.0002871473120955044</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.003403980309663029</v>
+        <v>-0.001701990154831514</v>
       </c>
       <c r="J6" t="n">
         <v>0.0002153604840716283</v>
@@ -1114,13 +1114,13 @@
         <v>0.0004307209681432566</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.004022885820510852</v>
+        <v>-0.002011442910255426</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.003094527554239117</v>
+        <v>-0.001547263777119558</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.002785074798815206</v>
+        <v>-0.001392537399407603</v>
       </c>
       <c r="R6" t="n">
         <v>0.0002153604840716283</v>
@@ -1180,7 +1180,7 @@
         <v>0.0007896551082626371</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0.006962686997038013</v>
+        <v>-0.003481343498519006</v>
       </c>
       <c r="AL6" t="n">
         <v>0.001220376076405894</v>
@@ -1192,7 +1192,7 @@
         <v>0.00129216290442977</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.008045771641021705</v>
+        <v>-0.004022885820510852</v>
       </c>
       <c r="AP6" t="n">
         <v>0.000646081452214885</v>
@@ -1203,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.004331689488279018</v>
+        <v>-0.002165844744139509</v>
       </c>
       <c r="C7" t="n">
         <v>0.000213633029734321</v>
@@ -1224,7 +1224,7 @@
         <v>0.0002848440396457614</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.003403470312219229</v>
+        <v>-0.001701735156109615</v>
       </c>
       <c r="J7" t="n">
         <v>0.000213633029734321</v>
@@ -1242,13 +1242,13 @@
         <v>0.0004272660594686421</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.004022283096259089</v>
+        <v>-0.002011141548129545</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.003094063920199299</v>
+        <v>-0.001547031960099649</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.002784657528179369</v>
+        <v>-0.001392328764089685</v>
       </c>
       <c r="R7" t="n">
         <v>0.000213633029734321</v>
@@ -1308,7 +1308,7 @@
         <v>0.0007833211090258437</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.006961643820448424</v>
+        <v>-0.003480821910224212</v>
       </c>
       <c r="AL7" t="n">
         <v>0.001210587168494486</v>
@@ -1320,7 +1320,7 @@
         <v>0.001281798178405926</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.008044566192518178</v>
+        <v>-0.004022283096259089</v>
       </c>
       <c r="AP7" t="n">
         <v>0.0006408990892029631</v>
@@ -1331,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.004575037005853952</v>
+        <v>-0.002287518502926976</v>
       </c>
       <c r="C8" t="n">
         <v>0.0002025991722902893</v>
@@ -1352,7 +1352,7 @@
         <v>0.0002701322297203857</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.003594671933170962</v>
+        <v>-0.001797335966585481</v>
       </c>
       <c r="J8" t="n">
         <v>0.0002025991722902893</v>
@@ -1370,13 +1370,13 @@
         <v>0.0004051983445805785</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.004248248648292957</v>
+        <v>-0.002124124324146479</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.003267883575609966</v>
+        <v>-0.001633941787804983</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.002941095218048969</v>
+        <v>-0.001470547609024485</v>
       </c>
       <c r="R8" t="n">
         <v>0.0002025991722902893</v>
@@ -1436,7 +1436,7 @@
         <v>0.0007428636317310607</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0.007352738045122424</v>
+        <v>-0.003676369022561212</v>
       </c>
       <c r="AL8" t="n">
         <v>0.001148061976311639</v>
@@ -1448,7 +1448,7 @@
         <v>0.001215595033741736</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.008496497296585913</v>
+        <v>-0.004248248648292956</v>
       </c>
       <c r="AP8" t="n">
         <v>0.0006077975168708678</v>
@@ -1459,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.004851455998339735</v>
+        <v>-0.002425727999169867</v>
       </c>
       <c r="C9" t="n">
         <v>0.0001653505869456896</v>
@@ -1480,7 +1480,7 @@
         <v>0.0002204674492609195</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.003811858284409791</v>
+        <v>-0.001905929142204896</v>
       </c>
       <c r="J9" t="n">
         <v>0.0001653505869456896</v>
@@ -1498,13 +1498,13 @@
         <v>0.0003307011738913793</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.004504923427029754</v>
+        <v>-0.002252461713514877</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.00346532571309981</v>
+        <v>-0.001732662856549905</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.003118793141789829</v>
+        <v>-0.001559396570894915</v>
       </c>
       <c r="R9" t="n">
         <v>0.0001653505869456896</v>
@@ -1564,7 +1564,7 @@
         <v>0.0006062854854675286</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0.007796982854474573</v>
+        <v>-0.003898491427237286</v>
       </c>
       <c r="AL9" t="n">
         <v>0.000936986659358908</v>
@@ -1576,7 +1576,7 @@
         <v>0.0009921035216741377</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.009009846854059507</v>
+        <v>-0.004504923427029754</v>
       </c>
       <c r="AP9" t="n">
         <v>0.0004960517608370689</v>
@@ -1587,7 +1587,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.004934643885829792</v>
+        <v>-0.002467321942914896</v>
       </c>
       <c r="C10" t="n">
         <v>0.0001161982769874611</v>
@@ -1608,7 +1608,7 @@
         <v>0.0001549310359832815</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.003877220196009121</v>
+        <v>-0.001938610098004561</v>
       </c>
       <c r="J10" t="n">
         <v>0.0001161982769874611</v>
@@ -1626,13 +1626,13 @@
         <v>0.0002323965539749222</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.004582169322556236</v>
+        <v>-0.002291084661278118</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.003524745632735565</v>
+        <v>-0.001762372816367783</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.003172271069462009</v>
+        <v>-0.001586135534731005</v>
       </c>
       <c r="R10" t="n">
         <v>0.0001161982769874611</v>
@@ -1692,7 +1692,7 @@
         <v>0.0004260603489540241</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.007930677673655023</v>
+        <v>-0.003965338836827511</v>
       </c>
       <c r="AL10" t="n">
         <v>0.0006584569029289463</v>
@@ -1704,7 +1704,7 @@
         <v>0.0006971896619247666</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.00916433864511247</v>
+        <v>-0.004582169322556235</v>
       </c>
       <c r="AP10" t="n">
         <v>0.0003485948309623833</v>
@@ -1715,7 +1715,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.004940518745048943</v>
+        <v>-0.002470259372524472</v>
       </c>
       <c r="C11" t="n">
         <v>8.79201487648287e-05</v>
@@ -1736,7 +1736,7 @@
         <v>0.0001172268650197716</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.00388183615682417</v>
+        <v>-0.001940918078412085</v>
       </c>
       <c r="J11" t="n">
         <v>8.79201487648287e-05</v>
@@ -1754,13 +1754,13 @@
         <v>0.0001758402975296574</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.004587624548974019</v>
+        <v>-0.00229381227448701</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.003528941960749245</v>
+        <v>-0.001764470980374622</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.003176047764674321</v>
+        <v>-0.00158802388233716</v>
       </c>
       <c r="R11" t="n">
         <v>8.79201487648287e-05</v>
@@ -1820,7 +1820,7 @@
         <v>0.0003223738788043719</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0.007940119411685802</v>
+        <v>-0.003970059705842901</v>
       </c>
       <c r="AL11" t="n">
         <v>0.0004982141763340294</v>
@@ -1832,7 +1832,7 @@
         <v>0.0005275208925889722</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.009175249097948037</v>
+        <v>-0.004587624548974018</v>
       </c>
       <c r="AP11" t="n">
         <v>0.0002637604462944861</v>
@@ -1843,7 +1843,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.004841216849326741</v>
+        <v>-0.002420608424663371</v>
       </c>
       <c r="C12" t="n">
         <v>7.388355051506641e-05</v>
@@ -1864,7 +1864,7 @@
         <v>9.851140068675521e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.003803813238756725</v>
+        <v>-0.001901906619378362</v>
       </c>
       <c r="J12" t="n">
         <v>7.388355051506641e-05</v>
@@ -1882,13 +1882,13 @@
         <v>0.0001477671010301328</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.004495415645803403</v>
+        <v>-0.002247707822901701</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.003458012035233386</v>
+        <v>-0.001729006017616693</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.003112210831710047</v>
+        <v>-0.001556105415855024</v>
       </c>
       <c r="R12" t="n">
         <v>7.388355051506641e-05</v>
@@ -1948,7 +1948,7 @@
         <v>0.0002709063518885768</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.007780527079275119</v>
+        <v>-0.00389026353963756</v>
       </c>
       <c r="AL12" t="n">
         <v>0.0004186734529187096</v>
@@ -1960,7 +1960,7 @@
         <v>0.0004433013030903984</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.008990831291606804</v>
+        <v>-0.004495415645803402</v>
       </c>
       <c r="AP12" t="n">
         <v>0.0002216506515451992</v>
@@ -1971,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.004550960409262052</v>
+        <v>-0.002275480204631026</v>
       </c>
       <c r="C13" t="n">
         <v>8.252636627930109e-05</v>
@@ -1992,7 +1992,7 @@
         <v>0.0001100351550390681</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.003575754607277326</v>
+        <v>-0.001787877303638663</v>
       </c>
       <c r="J13" t="n">
         <v>8.252636627930109e-05</v>
@@ -2010,13 +2010,13 @@
         <v>0.0001650527325586022</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.004225891808600477</v>
+        <v>-0.002112945904300239</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.003250686006615751</v>
+        <v>-0.001625343003307875</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.002925617405954176</v>
+        <v>-0.001462808702977088</v>
       </c>
       <c r="R13" t="n">
         <v>8.252636627930109e-05</v>
@@ -2076,7 +2076,7 @@
         <v>0.0003025966763574373</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.00731404351488544</v>
+        <v>-0.00365702175744272</v>
       </c>
       <c r="AL13" t="n">
         <v>0.0004676494089160395</v>
@@ -2088,7 +2088,7 @@
         <v>0.0004951581976758065</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.008451783617200953</v>
+        <v>-0.004225891808600476</v>
       </c>
       <c r="AP13" t="n">
         <v>0.0002475790988379032</v>
@@ -2099,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.004462455724159807</v>
+        <v>-0.002231227862079904</v>
       </c>
       <c r="C14" t="n">
         <v>0.0001025960393782976</v>
@@ -2120,7 +2120,7 @@
         <v>0.0001367947191710634</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.003506215211839848</v>
+        <v>-0.001753107605919924</v>
       </c>
       <c r="J14" t="n">
         <v>0.0001025960393782976</v>
@@ -2138,13 +2138,13 @@
         <v>0.0002051920787565951</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.004143708886719822</v>
+        <v>-0.002071854443359911</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.003187468374399862</v>
+        <v>-0.001593734187199931</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.002868721536959876</v>
+        <v>-0.001434360768479938</v>
       </c>
       <c r="R14" t="n">
         <v>0.0001025960393782976</v>
@@ -2204,7 +2204,7 @@
         <v>0.0003761854777204244</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.007171803842399691</v>
+        <v>-0.003585901921199845</v>
       </c>
       <c r="AL14" t="n">
         <v>0.0005813775564770196</v>
@@ -2216,7 +2216,7 @@
         <v>0.0006155762362697854</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.008287417773439642</v>
+        <v>-0.004143708886719821</v>
       </c>
       <c r="AP14" t="n">
         <v>0.0003077881181348927</v>
@@ -2227,7 +2227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.004405050696290472</v>
+        <v>-0.002202525348145236</v>
       </c>
       <c r="C15" t="n">
         <v>0.0001241041409767747</v>
@@ -2248,7 +2248,7 @@
         <v>0.0001654721879690329</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.003461111261371084</v>
+        <v>-0.001730555630685542</v>
       </c>
       <c r="J15" t="n">
         <v>0.0001241041409767747</v>
@@ -2266,13 +2266,13 @@
         <v>0.0002482082819535494</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.00409040421798401</v>
+        <v>-0.002045202108992005</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.003146464783064622</v>
+        <v>-0.001573232391532311</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.00283181830475816</v>
+        <v>-0.00141590915237908</v>
       </c>
       <c r="R15" t="n">
         <v>0.0001241041409767747</v>
@@ -2332,7 +2332,7 @@
         <v>0.0004550485169148405</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0.007079545761895401</v>
+        <v>-0.0035397728809477</v>
       </c>
       <c r="AL15" t="n">
         <v>0.00070325679886839</v>
@@ -2344,7 +2344,7 @@
         <v>0.0007446248458606482</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.008180808435968018</v>
+        <v>-0.004090404217984009</v>
       </c>
       <c r="AP15" t="n">
         <v>0.0003723124229303241</v>
@@ -2355,7 +2355,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.004406096049025058</v>
+        <v>-0.002203048024512529</v>
       </c>
       <c r="C16" t="n">
         <v>0.0001423494938702855</v>
@@ -2376,7 +2376,7 @@
         <v>0.0001897993251603807</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.003461932609948259</v>
+        <v>-0.00173096630497413</v>
       </c>
       <c r="J16" t="n">
         <v>0.0001423494938702855</v>
@@ -2394,13 +2394,13 @@
         <v>0.000284698987740571</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.004091374902666126</v>
+        <v>-0.002045687451333063</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.003147211463589327</v>
+        <v>-0.001573605731794663</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.002832490317230394</v>
+        <v>-0.001416245158615197</v>
       </c>
       <c r="R16" t="n">
         <v>0.0001423494938702855</v>
@@ -2460,7 +2460,7 @@
         <v>0.0005219481441910467</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0.007081225793075987</v>
+        <v>-0.003540612896537993</v>
       </c>
       <c r="AL16" t="n">
         <v>0.0008066471319316178</v>
@@ -2472,7 +2472,7 @@
         <v>0.0008540969632217128</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.00818274980533225</v>
+        <v>-0.004091374902666125</v>
       </c>
       <c r="AP16" t="n">
         <v>0.0004270484816108564</v>
@@ -2483,7 +2483,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.004549332192182413</v>
+        <v>-0.002274666096091206</v>
       </c>
       <c r="C17" t="n">
         <v>0.0001599600184626519</v>
@@ -2504,7 +2504,7 @@
         <v>0.0002132800246168692</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.00357447529385761</v>
+        <v>-0.001787237646928805</v>
       </c>
       <c r="J17" t="n">
         <v>0.0001599600184626519</v>
@@ -2522,13 +2522,13 @@
         <v>0.0003199200369253039</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.004224379892740813</v>
+        <v>-0.002112189946370407</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.003249522994416009</v>
+        <v>-0.001624761497208005</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.002924570694974408</v>
+        <v>-0.001462285347487204</v>
       </c>
       <c r="R17" t="n">
         <v>0.0001599600184626519</v>
@@ -2588,7 +2588,7 @@
         <v>0.0005865200676963904</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.007311426737436021</v>
+        <v>-0.003655713368718011</v>
       </c>
       <c r="AL17" t="n">
         <v>0.0009064401046216943</v>
@@ -2600,7 +2600,7 @@
         <v>0.0009597601107759115</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.008448759785481624</v>
+        <v>-0.004224379892740812</v>
       </c>
       <c r="AP17" t="n">
         <v>0.0004798800553879557</v>
@@ -2611,7 +2611,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.004768909675008206</v>
+        <v>-0.002384454837504103</v>
       </c>
       <c r="C18" t="n">
         <v>0.0001671612284913888</v>
@@ -2632,7 +2632,7 @@
         <v>0.0002228816379885183</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.003747000458935018</v>
+        <v>-0.001873500229467509</v>
       </c>
       <c r="J18" t="n">
         <v>0.0001671612284913888</v>
@@ -2650,13 +2650,13 @@
         <v>0.0003343224569827775</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.004428273269650477</v>
+        <v>-0.002214136634825239</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.003406364053577289</v>
+        <v>-0.001703182026788645</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.00306572764821956</v>
+        <v>-0.00153286382410978</v>
       </c>
       <c r="R18" t="n">
         <v>0.0001671612284913888</v>
@@ -2716,7 +2716,7 @@
         <v>0.0006129245044684254</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.007664319120548902</v>
+        <v>-0.003832159560274451</v>
       </c>
       <c r="AL18" t="n">
         <v>0.0009472469614512031</v>
@@ -2728,7 +2728,7 @@
         <v>0.001002967370948332</v>
       </c>
       <c r="AO18" t="n">
-        <v>-0.008856546539300953</v>
+        <v>-0.004428273269650476</v>
       </c>
       <c r="AP18" t="n">
         <v>0.0005014836854741662</v>
@@ -2739,7 +2739,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.004896737613183584</v>
+        <v>-0.002448368806591792</v>
       </c>
       <c r="C19" t="n">
         <v>0.0001843652353865567</v>
@@ -2760,7 +2760,7 @@
         <v>0.0002458203138487423</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.003847436696072816</v>
+        <v>-0.001923718348036408</v>
       </c>
       <c r="J19" t="n">
         <v>0.0001843652353865567</v>
@@ -2778,13 +2778,13 @@
         <v>0.0003687304707731135</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.004546970640813328</v>
+        <v>-0.002273485320406664</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.003497669723702559</v>
+        <v>-0.00174883486185128</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.003147902751332303</v>
+        <v>-0.001573951375666152</v>
       </c>
       <c r="R19" t="n">
         <v>0.0001843652353865567</v>
@@ -2844,7 +2844,7 @@
         <v>0.0006760058630840413</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.007869756878330759</v>
+        <v>-0.00393487843916538</v>
       </c>
       <c r="AL19" t="n">
         <v>0.001044736333857155</v>
@@ -2856,7 +2856,7 @@
         <v>0.00110619141231934</v>
       </c>
       <c r="AO19" t="n">
-        <v>-0.009093941281626654</v>
+        <v>-0.004546970640813327</v>
       </c>
       <c r="AP19" t="n">
         <v>0.0005530957061596702</v>
@@ -2867,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.004966405280114871</v>
+        <v>-0.002483202640057435</v>
       </c>
       <c r="C20" t="n">
         <v>0.0002056255462782942</v>
@@ -2888,7 +2888,7 @@
         <v>0.0002741673950377256</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.003902175577233111</v>
+        <v>-0.001951087788616556</v>
       </c>
       <c r="J20" t="n">
         <v>0.0002056255462782942</v>
@@ -2906,13 +2906,13 @@
         <v>0.0004112510925565884</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.004611662045820951</v>
+        <v>-0.002305831022910476</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.003547432342939192</v>
+        <v>-0.001773716171469596</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.003192689108645274</v>
+        <v>-0.001596344554322637</v>
       </c>
       <c r="R20" t="n">
         <v>0.0002056255462782942</v>
@@ -2972,7 +2972,7 @@
         <v>0.0007539603363537453</v>
       </c>
       <c r="AK20" t="n">
-        <v>-0.007981722771613183</v>
+        <v>-0.003990861385806592</v>
       </c>
       <c r="AL20" t="n">
         <v>0.001165211428910334</v>
@@ -2984,7 +2984,7 @@
         <v>0.001233753277669765</v>
       </c>
       <c r="AO20" t="n">
-        <v>-0.0092233240916419</v>
+        <v>-0.00461166204582095</v>
       </c>
       <c r="AP20" t="n">
         <v>0.0006168766388348825</v>
@@ -2995,7 +2995,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.004939259675387837</v>
+        <v>-0.002469629837693919</v>
       </c>
       <c r="C21" t="n">
         <v>0.0002293337229653471</v>
@@ -3016,7 +3016,7 @@
         <v>0.0003057782972871294</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.003880846887804729</v>
+        <v>-0.001940423443902365</v>
       </c>
       <c r="J21" t="n">
         <v>0.0002293337229653471</v>
@@ -3034,13 +3034,13 @@
         <v>0.0004586674459306941</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.004586455412860136</v>
+        <v>-0.002293227706430068</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.003528042625277027</v>
+        <v>-0.001764021312638513</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.003175238362749324</v>
+        <v>-0.001587619181374662</v>
       </c>
       <c r="R21" t="n">
         <v>0.0002293337229653471</v>
@@ -3100,7 +3100,7 @@
         <v>0.0008408903175396058</v>
       </c>
       <c r="AK21" t="n">
-        <v>-0.00793809590687331</v>
+        <v>-0.003969047953436655</v>
       </c>
       <c r="AL21" t="n">
         <v>0.0012995577634703</v>
@@ -3112,7 +3112,7 @@
         <v>0.001376002337792082</v>
       </c>
       <c r="AO21" t="n">
-        <v>-0.009172910825720269</v>
+        <v>-0.004586455412860135</v>
       </c>
       <c r="AP21" t="n">
         <v>0.0006880011688960411</v>
@@ -3123,7 +3123,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.004786830562710012</v>
+        <v>-0.002393415281355006</v>
       </c>
       <c r="C22" t="n">
         <v>0.0002527153612888489</v>
@@ -3144,7 +3144,7 @@
         <v>0.0003369538150517984</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.003761081156415008</v>
+        <v>-0.001880540578207504</v>
       </c>
       <c r="J22" t="n">
         <v>0.0002527153612888489</v>
@@ -3162,13 +3162,13 @@
         <v>0.0005054307225776977</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.004444914093945011</v>
+        <v>-0.002222457046972505</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.003419164687650008</v>
+        <v>-0.001709582343825004</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.003077248218885007</v>
+        <v>-0.001538624109442504</v>
       </c>
       <c r="R22" t="n">
         <v>0.0002527153612888489</v>
@@ -3228,7 +3228,7 @@
         <v>0.0009266229913924457</v>
       </c>
       <c r="AK22" t="n">
-        <v>-0.007693120547212519</v>
+        <v>-0.003846560273606259</v>
       </c>
       <c r="AL22" t="n">
         <v>0.001432053713970143</v>
@@ -3240,7 +3240,7 @@
         <v>0.001516292167733093</v>
       </c>
       <c r="AO22" t="n">
-        <v>-0.008889828187890022</v>
+        <v>-0.004444914093945011</v>
       </c>
       <c r="AP22" t="n">
         <v>0.0007581460838665464</v>
@@ -3251,7 +3251,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.004613253147374664</v>
+        <v>-0.002306626573687332</v>
       </c>
       <c r="C23" t="n">
         <v>0.0002632717570627046</v>
@@ -3272,7 +3272,7 @@
         <v>0.0003510290094169394</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.003624698901508664</v>
+        <v>-0.001812349450754332</v>
       </c>
       <c r="J23" t="n">
         <v>0.0002632717570627046</v>
@@ -3290,13 +3290,13 @@
         <v>0.0005265435141254091</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.004283735065419331</v>
+        <v>-0.002141867532709665</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.003295180819553331</v>
+        <v>-0.001647590409776665</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.002965662737597998</v>
+        <v>-0.001482831368798999</v>
       </c>
       <c r="R23" t="n">
         <v>0.0002632717570627046</v>
@@ -3356,7 +3356,7 @@
         <v>0.0009653297758965833</v>
       </c>
       <c r="AK23" t="n">
-        <v>-0.007414156843994995</v>
+        <v>-0.003707078421997498</v>
       </c>
       <c r="AL23" t="n">
         <v>0.001491873290021993</v>
@@ -3368,7 +3368,7 @@
         <v>0.001579630542376227</v>
       </c>
       <c r="AO23" t="n">
-        <v>-0.00856747013083866</v>
+        <v>-0.00428373506541933</v>
       </c>
       <c r="AP23" t="n">
         <v>0.0007898152711881137</v>
@@ -3379,7 +3379,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.004633977901941448</v>
+        <v>-0.002316988950970724</v>
       </c>
       <c r="C24" t="n">
         <v>0.000266163501419243</v>
@@ -3400,7 +3400,7 @@
         <v>0.0003548846685589907</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.003640982637239708</v>
+        <v>-0.001820491318619854</v>
       </c>
       <c r="J24" t="n">
         <v>0.000266163501419243</v>
@@ -3418,13 +3418,13 @@
         <v>0.000532327002838486</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.004302979480374202</v>
+        <v>-0.002151489740187101</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.003309984215672461</v>
+        <v>-0.001654992107836231</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.002978985794105216</v>
+        <v>-0.001489492897052608</v>
       </c>
       <c r="R24" t="n">
         <v>0.000266163501419243</v>
@@ -3484,7 +3484,7 @@
         <v>0.0009759328385372244</v>
       </c>
       <c r="AK24" t="n">
-        <v>-0.007447464485263041</v>
+        <v>-0.00372373224263152</v>
       </c>
       <c r="AL24" t="n">
         <v>0.00150825984137571</v>
@@ -3496,7 +3496,7 @@
         <v>0.001596981008515458</v>
       </c>
       <c r="AO24" t="n">
-        <v>-0.008605958960748401</v>
+        <v>-0.004302979480374201</v>
       </c>
       <c r="AP24" t="n">
         <v>0.000798490504257729</v>
@@ -3507,7 +3507,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.004513629973518438</v>
+        <v>-0.002256814986759219</v>
       </c>
       <c r="C25" t="n">
         <v>0.000260165798980634</v>
@@ -3528,7 +3528,7 @@
         <v>0.0003468877319741787</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.00354642355062163</v>
+        <v>-0.001773211775310815</v>
       </c>
       <c r="J25" t="n">
         <v>0.000260165798980634</v>
@@ -3546,13 +3546,13 @@
         <v>0.000520331597961268</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.004191227832552836</v>
+        <v>-0.002095613916276418</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.003224021409656026</v>
+        <v>-0.001612010704828013</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.002901619268690424</v>
+        <v>-0.001450809634345212</v>
       </c>
       <c r="R25" t="n">
         <v>0.000260165798980634</v>
@@ -3612,7 +3612,7 @@
         <v>0.0009539412629289912</v>
       </c>
       <c r="AK25" t="n">
-        <v>-0.007254048171726061</v>
+        <v>-0.003627024085863031</v>
       </c>
       <c r="AL25" t="n">
         <v>0.001474272860890259</v>
@@ -3624,7 +3624,7 @@
         <v>0.001560994793883804</v>
       </c>
       <c r="AO25" t="n">
-        <v>-0.008382455665105671</v>
+        <v>-0.004191227832552835</v>
       </c>
       <c r="AP25" t="n">
         <v>0.0007804973969419019</v>
@@ -3635,7 +3635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.004586756961006553</v>
+        <v>-0.002293378480503276</v>
       </c>
       <c r="C26" t="n">
         <v>0.0002457029225865249</v>
@@ -3656,7 +3656,7 @@
         <v>0.0003276038967820332</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.003603880469362291</v>
+        <v>-0.001801940234681145</v>
       </c>
       <c r="J26" t="n">
         <v>0.0002457029225865249</v>
@@ -3674,13 +3674,13 @@
         <v>0.0004914058451730498</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.004259131463791799</v>
+        <v>-0.0021295657318959</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.003276254972147537</v>
+        <v>-0.001638127486073769</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.002948629474932784</v>
+        <v>-0.001474314737466392</v>
       </c>
       <c r="R26" t="n">
         <v>0.0002457029225865249</v>
@@ -3740,7 +3740,7 @@
         <v>0.0009009107161505913</v>
       </c>
       <c r="AK26" t="n">
-        <v>-0.00737157368733196</v>
+        <v>-0.00368578684366598</v>
       </c>
       <c r="AL26" t="n">
         <v>0.001392316561323641</v>
@@ -3752,7 +3752,7 @@
         <v>0.001474217535519149</v>
       </c>
       <c r="AO26" t="n">
-        <v>-0.008518262927583597</v>
+        <v>-0.004259131463791799</v>
       </c>
       <c r="AP26" t="n">
         <v>0.0007371087677595747</v>
@@ -3763,7 +3763,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.004590038859310265</v>
+        <v>-0.002295019429655132</v>
       </c>
       <c r="C27" t="n">
         <v>0.0002303407505252826</v>
@@ -3784,7 +3784,7 @@
         <v>0.0003071210007003768</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.003606459103743779</v>
+        <v>-0.00180322955187189</v>
       </c>
       <c r="J27" t="n">
         <v>0.0002303407505252826</v>
@@ -3802,13 +3802,13 @@
         <v>0.0004606815010505651</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.004262178940788103</v>
+        <v>-0.002131089470394051</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.003278599185221617</v>
+        <v>-0.001639299592610808</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.002950739266699456</v>
+        <v>-0.001475369633349728</v>
       </c>
       <c r="R27" t="n">
         <v>0.0002303407505252826</v>
@@ -3868,7 +3868,7 @@
         <v>0.0008445827519260359</v>
       </c>
       <c r="AK27" t="n">
-        <v>-0.007376848166748639</v>
+        <v>-0.00368842408337432</v>
       </c>
       <c r="AL27" t="n">
         <v>0.001305264252976601</v>
@@ -3880,7 +3880,7 @@
         <v>0.001382044503151695</v>
       </c>
       <c r="AO27" t="n">
-        <v>-0.008524357881576204</v>
+        <v>-0.004262178940788102</v>
       </c>
       <c r="AP27" t="n">
         <v>0.0006910222515758476</v>
@@ -3891,7 +3891,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.004849651847171265</v>
+        <v>-0.002424825923585633</v>
       </c>
       <c r="C28" t="n">
         <v>0.000227211451860783</v>
@@ -3912,7 +3912,7 @@
         <v>0.000302948602481044</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.003810440737063137</v>
+        <v>-0.001905220368531568</v>
       </c>
       <c r="J28" t="n">
         <v>0.000227211451860783</v>
@@ -3930,13 +3930,13 @@
         <v>0.0004544229037215661</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.004503248143801889</v>
+        <v>-0.002251624071900945</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.003464037033693761</v>
+        <v>-0.00173201851684688</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.003117633330324385</v>
+        <v>-0.001558816665162192</v>
       </c>
       <c r="R28" t="n">
         <v>0.000227211451860783</v>
@@ -3996,7 +3996,7 @@
         <v>0.0008331086568228711</v>
       </c>
       <c r="AK28" t="n">
-        <v>-0.007794083325810963</v>
+        <v>-0.003897041662905481</v>
       </c>
       <c r="AL28" t="n">
         <v>0.001287531560544437</v>
@@ -4008,7 +4008,7 @@
         <v>0.001363268711164698</v>
       </c>
       <c r="AO28" t="n">
-        <v>-0.009006496287603779</v>
+        <v>-0.004503248143801889</v>
       </c>
       <c r="AP28" t="n">
         <v>0.000681634355582349</v>
@@ -4019,7 +4019,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.004682454770857289</v>
+        <v>-0.002341227385428644</v>
       </c>
       <c r="C29" t="n">
         <v>0.0002210806976851616</v>
@@ -4040,7 +4040,7 @@
         <v>0.0002947742635802155</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.003679071605673584</v>
+        <v>-0.001839535802836792</v>
       </c>
       <c r="J29" t="n">
         <v>0.0002210806976851616</v>
@@ -4058,13 +4058,13 @@
         <v>0.0004421613953703232</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.004347993715796054</v>
+        <v>-0.002173996857898027</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.003344610550612348</v>
+        <v>-0.001672305275306174</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.003010149495551114</v>
+        <v>-0.001505074747775557</v>
       </c>
       <c r="R29" t="n">
         <v>0.0002210806976851616</v>
@@ -4124,7 +4124,7 @@
         <v>0.0008106292248455924</v>
       </c>
       <c r="AK29" t="n">
-        <v>-0.007525373738877785</v>
+        <v>-0.003762686869438892</v>
       </c>
       <c r="AL29" t="n">
         <v>0.001252790620215916</v>
@@ -4136,7 +4136,7 @@
         <v>0.001326484186110969</v>
       </c>
       <c r="AO29" t="n">
-        <v>-0.008695987431592108</v>
+        <v>-0.004347993715796054</v>
       </c>
       <c r="AP29" t="n">
         <v>0.0006632420930554847</v>
@@ -4147,7 +4147,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.004725546882658585</v>
+        <v>-0.002362773441329292</v>
       </c>
       <c r="C30" t="n">
         <v>0.0002195973788544315</v>
@@ -4168,7 +4168,7 @@
         <v>0.0002927965051392421</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.003712929693517459</v>
+        <v>-0.001856464846758729</v>
       </c>
       <c r="J30" t="n">
         <v>0.0002195973788544315</v>
@@ -4186,13 +4186,13 @@
         <v>0.0004391947577088631</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.004388007819611544</v>
+        <v>-0.002194003909805772</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.003375390630470417</v>
+        <v>-0.001687695315235209</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.003037851567423376</v>
+        <v>-0.001518925783711688</v>
       </c>
       <c r="R30" t="n">
         <v>0.0002195973788544315</v>
@@ -4252,7 +4252,7 @@
         <v>0.0008051903891329156</v>
       </c>
       <c r="AK30" t="n">
-        <v>-0.007594628918558439</v>
+        <v>-0.00379731445927922</v>
       </c>
       <c r="AL30" t="n">
         <v>0.001244385146841779</v>
@@ -4264,7 +4264,7 @@
         <v>0.001317584273126589</v>
       </c>
       <c r="AO30" t="n">
-        <v>-0.008776015639223086</v>
+        <v>-0.004388007819611543</v>
       </c>
       <c r="AP30" t="n">
         <v>0.0006587921365632946</v>
@@ -4275,7 +4275,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.004741174591872633</v>
+        <v>-0.002370587295936317</v>
       </c>
       <c r="C31" t="n">
         <v>0.0002094360327021597</v>
@@ -4296,7 +4296,7 @@
         <v>0.0002792480436028797</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.003725208607899926</v>
+        <v>-0.001862604303949963</v>
       </c>
       <c r="J31" t="n">
         <v>0.0002094360327021597</v>
@@ -4314,13 +4314,13 @@
         <v>0.0004188720654043195</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.004402519263881731</v>
+        <v>-0.002201259631940866</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.003386553279909023</v>
+        <v>-0.001693276639954512</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.003047897951918121</v>
+        <v>-0.001523948975959061</v>
       </c>
       <c r="R31" t="n">
         <v>0.0002094360327021597</v>
@@ -4380,7 +4380,7 @@
         <v>0.0007679321199079189</v>
       </c>
       <c r="AK31" t="n">
-        <v>-0.007619744879795302</v>
+        <v>-0.003809872439897651</v>
       </c>
       <c r="AL31" t="n">
         <v>0.001186804185312238</v>
@@ -4392,7 +4392,7 @@
         <v>0.001256616196212958</v>
       </c>
       <c r="AO31" t="n">
-        <v>-0.008805038527763461</v>
+        <v>-0.00440251926388173</v>
       </c>
       <c r="AP31" t="n">
         <v>0.0006283080981064792</v>
@@ -4403,7 +4403,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.004926928580768769</v>
+        <v>-0.002463464290384384</v>
       </c>
       <c r="C32" t="n">
         <v>0.0002008402182774829</v>
@@ -4424,7 +4424,7 @@
         <v>0.0002677869577033105</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.003871158170604032</v>
+        <v>-0.001935579085302016</v>
       </c>
       <c r="J32" t="n">
         <v>0.0002008402182774829</v>
@@ -4442,13 +4442,13 @@
         <v>0.0004016804365549658</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.004575005110713856</v>
+        <v>-0.002287502555356928</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.003519234700549119</v>
+        <v>-0.00175961735027456</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.003167311230494208</v>
+        <v>-0.001583655615247104</v>
       </c>
       <c r="R32" t="n">
         <v>0.0002008402182774829</v>
@@ -4508,7 +4508,7 @@
         <v>0.0007364141336841038</v>
       </c>
       <c r="AK32" t="n">
-        <v>-0.00791827807623552</v>
+        <v>-0.00395913903811776</v>
       </c>
       <c r="AL32" t="n">
         <v>0.00113809457023907</v>
@@ -4520,7 +4520,7 @@
         <v>0.001205041309664897</v>
       </c>
       <c r="AO32" t="n">
-        <v>-0.009150010221427711</v>
+        <v>-0.004575005110713856</v>
       </c>
       <c r="AP32" t="n">
         <v>0.0006025206548324486</v>
@@ -4531,7 +4531,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.005213099927194685</v>
+        <v>-0.002606549963597343</v>
       </c>
       <c r="C33" t="n">
         <v>0.0001744129280787823</v>
@@ -4552,7 +4552,7 @@
         <v>0.0002325505707717098</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.004096007085652966</v>
+        <v>-0.002048003542826483</v>
       </c>
       <c r="J33" t="n">
         <v>0.0001744129280787823</v>
@@ -4570,13 +4570,13 @@
         <v>0.0003488258561575646</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.00484073564668078</v>
+        <v>-0.00242036782334039</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.00372364280513906</v>
+        <v>-0.00186182140256953</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.003351278524625154</v>
+        <v>-0.001675639262312577</v>
       </c>
       <c r="R33" t="n">
         <v>0.0001744129280787823</v>
@@ -4636,7 +4636,7 @@
         <v>0.0006395140696222018</v>
       </c>
       <c r="AK33" t="n">
-        <v>-0.008378196311562886</v>
+        <v>-0.004189098155781443</v>
       </c>
       <c r="AL33" t="n">
         <v>0.0009883399257797666</v>
@@ -4648,7 +4648,7 @@
         <v>0.001046477568472694</v>
       </c>
       <c r="AO33" t="n">
-        <v>-0.009681471293361558</v>
+        <v>-0.004840735646680779</v>
       </c>
       <c r="AP33" t="n">
         <v>0.000523238784236347</v>
@@ -4659,7 +4659,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.005502294396690269</v>
+        <v>-0.002751147198345134</v>
       </c>
       <c r="C34" t="n">
         <v>0.0001378503622208381</v>
@@ -4680,7 +4680,7 @@
         <v>0.0001838004829611175</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.004323231311685211</v>
+        <v>-0.002161615655842605</v>
       </c>
       <c r="J34" t="n">
         <v>0.0001378503622208381</v>
@@ -4698,13 +4698,13 @@
         <v>0.0002757007244416762</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.00510927336835525</v>
+        <v>-0.002554636684177625</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.003930210283350191</v>
+        <v>-0.001965105141675096</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.003537189255015173</v>
+        <v>-0.001768594627507586</v>
       </c>
       <c r="R34" t="n">
         <v>0.0001378503622208381</v>
@@ -4764,7 +4764,7 @@
         <v>0.000505451328143073</v>
       </c>
       <c r="AK34" t="n">
-        <v>-0.008842973137537931</v>
+        <v>-0.004421486568768966</v>
       </c>
       <c r="AL34" t="n">
         <v>0.0007811520525847492</v>
@@ -4776,7 +4776,7 @@
         <v>0.0008271021733250285</v>
       </c>
       <c r="AO34" t="n">
-        <v>-0.0102185467367105</v>
+        <v>-0.005109273368355249</v>
       </c>
       <c r="AP34" t="n">
         <v>0.0004135510866625143</v>
@@ -4787,7 +4787,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.005326831394529732</v>
+        <v>-0.002663415697264866</v>
       </c>
       <c r="C35" t="n">
         <v>0.0001054958294646153</v>
@@ -4808,7 +4808,7 @@
         <v>0.0001406611059528204</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.004185367524273361</v>
+        <v>-0.00209268376213668</v>
       </c>
       <c r="J35" t="n">
         <v>0.0001054958294646153</v>
@@ -4826,13 +4826,13 @@
         <v>0.0002109916589292305</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.004946343437777608</v>
+        <v>-0.002473171718888804</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.003804879567521237</v>
+        <v>-0.001902439783760618</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.003424391610769113</v>
+        <v>-0.001712195805384556</v>
       </c>
       <c r="R35" t="n">
         <v>0.0001054958294646153</v>
@@ -4892,7 +4892,7 @@
         <v>0.0003868180413702559</v>
       </c>
       <c r="AK35" t="n">
-        <v>-0.008560979026922783</v>
+        <v>-0.004280489513461392</v>
       </c>
       <c r="AL35" t="n">
         <v>0.0005978097002994866</v>
@@ -4904,7 +4904,7 @@
         <v>0.0006329749767876915</v>
       </c>
       <c r="AO35" t="n">
-        <v>-0.009892686875555216</v>
+        <v>-0.004946343437777608</v>
       </c>
       <c r="AP35" t="n">
         <v>0.0003164874883938458</v>
@@ -4915,7 +4915,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.005081476095306631</v>
+        <v>-0.002540738047653316</v>
       </c>
       <c r="C36" t="n">
         <v>8.418050827001342e-05</v>
@@ -4936,7 +4936,7 @@
         <v>0.0001122406776933512</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.003992588360598067</v>
+        <v>-0.001996294180299034</v>
       </c>
       <c r="J36" t="n">
         <v>8.418050827001342e-05</v>
@@ -4954,13 +4954,13 @@
         <v>0.0001683610165400268</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.004718513517070443</v>
+        <v>-0.002359256758535222</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.003629625782361878</v>
+        <v>-0.001814812891180939</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.003266663204125691</v>
+        <v>-0.001633331602062846</v>
       </c>
       <c r="R36" t="n">
         <v>8.418050827001342e-05</v>
@@ -5020,7 +5020,7 @@
         <v>0.0003086618636567159</v>
       </c>
       <c r="AK36" t="n">
-        <v>-0.008166658010314227</v>
+        <v>-0.004083329005157114</v>
       </c>
       <c r="AL36" t="n">
         <v>0.0004770228801967428</v>
@@ -5032,7 +5032,7 @@
         <v>0.0005050830496200805</v>
       </c>
       <c r="AO36" t="n">
-        <v>-0.009437027034140885</v>
+        <v>-0.004718513517070443</v>
       </c>
       <c r="AP36" t="n">
         <v>0.0002525415248100403</v>
@@ -5043,7 +5043,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.004851124137704128</v>
+        <v>-0.002425562068852064</v>
       </c>
       <c r="C37" t="n">
         <v>8.682309236870351e-05</v>
@@ -5064,7 +5064,7 @@
         <v>0.0001157641231582714</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.003811597536767529</v>
+        <v>-0.001905798768383764</v>
       </c>
       <c r="J37" t="n">
         <v>8.682309236870351e-05</v>
@@ -5082,13 +5082,13 @@
         <v>0.000173646184737407</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.004504615270725262</v>
+        <v>-0.002252307635362631</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.003465088669788662</v>
+        <v>-0.001732544334894331</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.003118579802809796</v>
+        <v>-0.001559289901404898</v>
       </c>
       <c r="R37" t="n">
         <v>8.682309236870351e-05</v>
@@ -5148,7 +5148,7 @@
         <v>0.0003183513386852462</v>
       </c>
       <c r="AK37" t="n">
-        <v>-0.007796449507024491</v>
+        <v>-0.003898224753512245</v>
       </c>
       <c r="AL37" t="n">
         <v>0.0004919975234226533</v>
@@ -5160,7 +5160,7 @@
         <v>0.000520938554212221</v>
       </c>
       <c r="AO37" t="n">
-        <v>-0.009009230541450522</v>
+        <v>-0.004504615270725261</v>
       </c>
       <c r="AP37" t="n">
         <v>0.0002604692771061105</v>
@@ -5171,7 +5171,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.004838935410801677</v>
+        <v>-0.002419467705400839</v>
       </c>
       <c r="C38" t="n">
         <v>0.0001016902283858118</v>
@@ -5192,7 +5192,7 @@
         <v>0.0001355869711810824</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.003802020679915604</v>
+        <v>-0.001901010339957802</v>
       </c>
       <c r="J38" t="n">
         <v>0.0001016902283858118</v>
@@ -5210,13 +5210,13 @@
         <v>0.0002033804567716236</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.004493297167172987</v>
+        <v>-0.002246648583586493</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.003456382436286912</v>
+        <v>-0.001728191218143456</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.003110744192658221</v>
+        <v>-0.00155537209632911</v>
       </c>
       <c r="R38" t="n">
         <v>0.0001016902283858118</v>
@@ -5276,7 +5276,7 @@
         <v>0.0003728641707479766</v>
       </c>
       <c r="AK38" t="n">
-        <v>-0.007776860481645552</v>
+        <v>-0.003888430240822776</v>
       </c>
       <c r="AL38" t="n">
         <v>0.0005762446275196003</v>
@@ -5288,7 +5288,7 @@
         <v>0.0006101413703148707</v>
       </c>
       <c r="AO38" t="n">
-        <v>-0.008986594334345973</v>
+        <v>-0.004493297167172987</v>
       </c>
       <c r="AP38" t="n">
         <v>0.0003050706851574353</v>
@@ -5299,7 +5299,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.004796889974547666</v>
+        <v>-0.002398444987273833</v>
       </c>
       <c r="C39" t="n">
         <v>0.0001201257696468714</v>
@@ -5320,7 +5320,7 @@
         <v>0.0001601676928624952</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.003768984980001737</v>
+        <v>-0.001884492490000869</v>
       </c>
       <c r="J39" t="n">
         <v>0.0001201257696468714</v>
@@ -5338,13 +5338,13 @@
         <v>0.0002402515392937428</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.00445425497636569</v>
+        <v>-0.002227127488182845</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.003426349981819761</v>
+        <v>-0.001713174990909881</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.003083714983637785</v>
+        <v>-0.001541857491818892</v>
       </c>
       <c r="R39" t="n">
         <v>0.0001201257696468714</v>
@@ -5404,7 +5404,7 @@
         <v>0.0004404611553718618</v>
       </c>
       <c r="AK39" t="n">
-        <v>-0.007709287459094463</v>
+        <v>-0.003854643729547231</v>
       </c>
       <c r="AL39" t="n">
         <v>0.0006807126946656048</v>
@@ -5416,7 +5416,7 @@
         <v>0.0007207546178812284</v>
       </c>
       <c r="AO39" t="n">
-        <v>-0.008908509952731378</v>
+        <v>-0.004454254976365689</v>
       </c>
       <c r="AP39" t="n">
         <v>0.0003603773089406142</v>
@@ -5427,7 +5427,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.004688112192739209</v>
+        <v>-0.002344056096369605</v>
       </c>
       <c r="C40" t="n">
         <v>0.0001434019494711339</v>
@@ -5448,7 +5448,7 @@
         <v>0.0001912025992948452</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.003683516722866522</v>
+        <v>-0.001841758361433261</v>
       </c>
       <c r="J40" t="n">
         <v>0.0001434019494711339</v>
@@ -5466,13 +5466,13 @@
         <v>0.0002868038989422678</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.004353247036114981</v>
+        <v>-0.00217662351805749</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.003348651566242292</v>
+        <v>-0.001674325783121146</v>
       </c>
       <c r="Q40" t="n">
-        <v>-0.003013786409618063</v>
+        <v>-0.001506893204809032</v>
       </c>
       <c r="R40" t="n">
         <v>0.0001434019494711339</v>
@@ -5532,7 +5532,7 @@
         <v>0.0005258071480608242</v>
       </c>
       <c r="AK40" t="n">
-        <v>-0.007534466024045158</v>
+        <v>-0.003767233012022579</v>
       </c>
       <c r="AL40" t="n">
         <v>0.000812611047003092</v>
@@ -5544,7 +5544,7 @@
         <v>0.0008604116968268032</v>
       </c>
       <c r="AO40" t="n">
-        <v>-0.00870649407222996</v>
+        <v>-0.00435324703611498</v>
       </c>
       <c r="AP40" t="n">
         <v>0.0004302058484134016</v>
@@ -5555,7 +5555,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.004916471581039572</v>
+        <v>-0.002458235790519786</v>
       </c>
       <c r="C41" t="n">
         <v>0.0001577831093157597</v>
@@ -5576,7 +5576,7 @@
         <v>0.0002103774790876797</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.003862941956531092</v>
+        <v>-0.001931470978265546</v>
       </c>
       <c r="J41" t="n">
         <v>0.0001577831093157597</v>
@@ -5594,13 +5594,13 @@
         <v>0.0003155662186315195</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.004565295039536746</v>
+        <v>-0.002282647519768373</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.003511765415028265</v>
+        <v>-0.001755882707514133</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.003160588873525439</v>
+        <v>-0.001580294436762719</v>
       </c>
       <c r="R41" t="n">
         <v>0.0001577831093157597</v>
@@ -5660,7 +5660,7 @@
         <v>0.0005785380674911191</v>
       </c>
       <c r="AK41" t="n">
-        <v>-0.007901472183813598</v>
+        <v>-0.003950736091906799</v>
       </c>
       <c r="AL41" t="n">
         <v>0.0008941042861226387</v>
@@ -5672,7 +5672,7 @@
         <v>0.0009466986558945584</v>
       </c>
       <c r="AO41" t="n">
-        <v>-0.009130590079073492</v>
+        <v>-0.004565295039536746</v>
       </c>
       <c r="AP41" t="n">
         <v>0.0004733493279472792</v>
@@ -5683,7 +5683,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.005145807287786845</v>
+        <v>-0.002572903643893423</v>
       </c>
       <c r="C42" t="n">
         <v>0.0001691931153505269</v>
@@ -5704,7 +5704,7 @@
         <v>0.0002255908204673692</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.004043134297546806</v>
+        <v>-0.002021567148773403</v>
       </c>
       <c r="J42" t="n">
         <v>0.0001691931153505269</v>
@@ -5722,13 +5722,13 @@
         <v>0.0003383862307010538</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.004778249624373499</v>
+        <v>-0.00238912481218675</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.00367557663413346</v>
+        <v>-0.00183778831706673</v>
       </c>
       <c r="Q42" t="n">
-        <v>-0.003308018970720114</v>
+        <v>-0.001654009485360057</v>
       </c>
       <c r="R42" t="n">
         <v>0.0001691931153505269</v>
@@ -5788,7 +5788,7 @@
         <v>0.0006203747562852651</v>
       </c>
       <c r="AK42" t="n">
-        <v>-0.008270047426800285</v>
+        <v>-0.004135023713400143</v>
       </c>
       <c r="AL42" t="n">
         <v>0.0009587609869863191</v>
@@ -5800,7 +5800,7 @@
         <v>0.001015158692103161</v>
       </c>
       <c r="AO42" t="n">
-        <v>-0.009556499248746997</v>
+        <v>-0.004778249624373498</v>
       </c>
       <c r="AP42" t="n">
         <v>0.0005075793460515806</v>
@@ -5811,7 +5811,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.005115328525764057</v>
+        <v>-0.002557664262882029</v>
       </c>
       <c r="C43" t="n">
         <v>0.0001837714599160721</v>
@@ -5832,7 +5832,7 @@
         <v>0.0002450286132214295</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.004019186698814616</v>
+        <v>-0.002009593349407308</v>
       </c>
       <c r="J43" t="n">
         <v>0.0001837714599160721</v>
@@ -5850,13 +5850,13 @@
         <v>0.0003675429198321442</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.00474994791678091</v>
+        <v>-0.002374973958390455</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.003653806089831469</v>
+        <v>-0.001826903044915734</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.003288425480848322</v>
+        <v>-0.001644212740424161</v>
       </c>
       <c r="R43" t="n">
         <v>0.0001837714599160721</v>
@@ -5916,7 +5916,7 @@
         <v>0.000673828686358931</v>
       </c>
       <c r="AK43" t="n">
-        <v>-0.008221063702120805</v>
+        <v>-0.004110531851060402</v>
       </c>
       <c r="AL43" t="n">
         <v>0.001041371606191075</v>
@@ -5928,7 +5928,7 @@
         <v>0.001102628759496433</v>
       </c>
       <c r="AO43" t="n">
-        <v>-0.009499895833561818</v>
+        <v>-0.004749947916780909</v>
       </c>
       <c r="AP43" t="n">
         <v>0.0005513143797482163</v>
@@ -5939,7 +5939,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.00497279380403981</v>
+        <v>-0.002486396902019905</v>
       </c>
       <c r="C44" t="n">
         <v>0.0001974551689649008</v>
@@ -5960,7 +5960,7 @@
         <v>0.0002632735586198677</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.003907195131745565</v>
+        <v>-0.001953597565872782</v>
       </c>
       <c r="J44" t="n">
         <v>0.0001974551689649008</v>
@@ -5978,13 +5978,13 @@
         <v>0.0003949103379298015</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.004617594246608395</v>
+        <v>-0.002308797123304198</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.00355199557431415</v>
+        <v>-0.001775997787157075</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.003196796016882735</v>
+        <v>-0.001598398008441367</v>
       </c>
       <c r="R44" t="n">
         <v>0.0001974551689649008</v>
@@ -6044,7 +6044,7 @@
         <v>0.0007240022862046361</v>
       </c>
       <c r="AK44" t="n">
-        <v>-0.007991990042206836</v>
+        <v>-0.003995995021103418</v>
       </c>
       <c r="AL44" t="n">
         <v>0.001118912624134438</v>
@@ -6056,7 +6056,7 @@
         <v>0.001184731013789404</v>
       </c>
       <c r="AO44" t="n">
-        <v>-0.009235188493216789</v>
+        <v>-0.004617594246608394</v>
       </c>
       <c r="AP44" t="n">
         <v>0.0005923655068947022</v>
@@ -6067,7 +6067,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.004847294512267654</v>
+        <v>-0.002423647256133827</v>
       </c>
       <c r="C45" t="n">
         <v>0.0002181288707844604</v>
@@ -6088,7 +6088,7 @@
         <v>0.0002908384943792805</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.003808588545353156</v>
+        <v>-0.001904294272676578</v>
       </c>
       <c r="J45" t="n">
         <v>0.0002181288707844604</v>
@@ -6106,13 +6106,13 @@
         <v>0.0004362577415689208</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.004501059189962821</v>
+        <v>-0.002250529594981411</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.003462353223048323</v>
+        <v>-0.001731176611524162</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.003116117900743491</v>
+        <v>-0.001558058950371746</v>
       </c>
       <c r="R45" t="n">
         <v>0.0002181288707844604</v>
@@ -6172,7 +6172,7 @@
         <v>0.0007998058595430213</v>
       </c>
       <c r="AK45" t="n">
-        <v>-0.007790294751858729</v>
+        <v>-0.003895147375929364</v>
       </c>
       <c r="AL45" t="n">
         <v>0.001236063601111942</v>
@@ -6184,7 +6184,7 @@
         <v>0.001308773224706762</v>
       </c>
       <c r="AO45" t="n">
-        <v>-0.009002118379925643</v>
+        <v>-0.004501059189962821</v>
       </c>
       <c r="AP45" t="n">
         <v>0.0006543866123533811</v>
@@ -6195,7 +6195,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.004647688607528727</v>
+        <v>-0.002323844303764364</v>
       </c>
       <c r="C46" t="n">
         <v>0.0002411778338073403</v>
@@ -6216,7 +6216,7 @@
         <v>0.0003215704450764537</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.003651755334486857</v>
+        <v>-0.001825877667243429</v>
       </c>
       <c r="J46" t="n">
         <v>0.0002411778338073403</v>
@@ -6234,13 +6234,13 @@
         <v>0.0004823556676146806</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.004315710849848105</v>
+        <v>-0.002157855424924052</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.003319777576806233</v>
+        <v>-0.001659888788403117</v>
       </c>
       <c r="Q46" t="n">
-        <v>-0.00298779981912561</v>
+        <v>-0.001493899909562805</v>
       </c>
       <c r="R46" t="n">
         <v>0.0002411778338073403</v>
@@ -6300,7 +6300,7 @@
         <v>0.0008843187239602477</v>
       </c>
       <c r="AK46" t="n">
-        <v>-0.007469499547814026</v>
+        <v>-0.003734749773907013</v>
       </c>
       <c r="AL46" t="n">
         <v>0.001366674391574928</v>
@@ -6312,7 +6312,7 @@
         <v>0.001447067002844042</v>
       </c>
       <c r="AO46" t="n">
-        <v>-0.008631421699696207</v>
+        <v>-0.004315710849848104</v>
       </c>
       <c r="AP46" t="n">
         <v>0.0007235335014220208</v>
@@ -6323,7 +6323,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.004683305008718922</v>
+        <v>-0.002341652504359461</v>
       </c>
       <c r="C47" t="n">
         <v>0.0002561351702375109</v>
@@ -6344,7 +6344,7 @@
         <v>0.0003415135603166812</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.003679739649707724</v>
+        <v>-0.001839869824853862</v>
       </c>
       <c r="J47" t="n">
         <v>0.0002561351702375109</v>
@@ -6362,13 +6362,13 @@
         <v>0.0005122703404750218</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.004348783222381856</v>
+        <v>-0.002174391611190928</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.003345217863370658</v>
+        <v>-0.001672608931685329</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.003010696077033592</v>
+        <v>-0.001505348038516796</v>
       </c>
       <c r="R47" t="n">
         <v>0.0002561351702375109</v>
@@ -6428,7 +6428,7 @@
         <v>0.0009391622908708732</v>
       </c>
       <c r="AK47" t="n">
-        <v>-0.007526740192583981</v>
+        <v>-0.003763370096291991</v>
       </c>
       <c r="AL47" t="n">
         <v>0.001451432631345895</v>
@@ -6440,7 +6440,7 @@
         <v>0.001536811021425065</v>
       </c>
       <c r="AO47" t="n">
-        <v>-0.008697566444763712</v>
+        <v>-0.004348783222381856</v>
       </c>
       <c r="AP47" t="n">
         <v>0.0007684055107125326</v>
@@ -6451,7 +6451,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.004661889828599583</v>
+        <v>-0.002330944914299791</v>
       </c>
       <c r="C48" t="n">
         <v>0.0002590658686718915</v>
@@ -6472,7 +6472,7 @@
         <v>0.0003454211582291888</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.003662913436756814</v>
+        <v>-0.001831456718378407</v>
       </c>
       <c r="J48" t="n">
         <v>0.0002590658686718915</v>
@@ -6490,13 +6490,13 @@
         <v>0.0005181317373437831</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.004328897697985327</v>
+        <v>-0.002164448848992663</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.003329921306142559</v>
+        <v>-0.001664960653071279</v>
       </c>
       <c r="Q48" t="n">
-        <v>-0.002996929175528303</v>
+        <v>-0.001498464587764152</v>
       </c>
       <c r="R48" t="n">
         <v>0.0002590658686718915</v>
@@ -6556,7 +6556,7 @@
         <v>0.0009499081851302689</v>
       </c>
       <c r="AK48" t="n">
-        <v>-0.007492322938820757</v>
+        <v>-0.003746161469410379</v>
       </c>
       <c r="AL48" t="n">
         <v>0.001468039922474052</v>
@@ -6568,7 +6568,7 @@
         <v>0.001554395212031349</v>
       </c>
       <c r="AO48" t="n">
-        <v>-0.008657795395970653</v>
+        <v>-0.004328897697985327</v>
       </c>
       <c r="AP48" t="n">
         <v>0.0007771976060156746</v>
@@ -6579,7 +6579,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.004620991270954728</v>
+        <v>-0.002310495635477364</v>
       </c>
       <c r="C49" t="n">
         <v>0.0002550965909162399</v>
@@ -6600,7 +6600,7 @@
         <v>0.0003401287878883199</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.003630778855750143</v>
+        <v>-0.001815389427875071</v>
       </c>
       <c r="J49" t="n">
         <v>0.0002550965909162399</v>
@@ -6618,13 +6618,13 @@
         <v>0.0005101931818324799</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.004290920465886533</v>
+        <v>-0.002145460232943267</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.003300708050681948</v>
+        <v>-0.001650354025340974</v>
       </c>
       <c r="Q49" t="n">
-        <v>-0.002970637245613754</v>
+        <v>-0.001485318622806877</v>
       </c>
       <c r="R49" t="n">
         <v>0.0002550965909162399</v>
@@ -6684,7 +6684,7 @@
         <v>0.0009353541666928797</v>
       </c>
       <c r="AK49" t="n">
-        <v>-0.007426593114034384</v>
+        <v>-0.003713296557017192</v>
       </c>
       <c r="AL49" t="n">
         <v>0.00144554734852536</v>
@@ -6696,7 +6696,7 @@
         <v>0.00153057954549744</v>
       </c>
       <c r="AO49" t="n">
-        <v>-0.008581840931773065</v>
+        <v>-0.004290920465886533</v>
       </c>
       <c r="AP49" t="n">
         <v>0.0007652897727487198</v>
@@ -6707,7 +6707,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00459198339397631</v>
+        <v>-0.002295991696988155</v>
       </c>
       <c r="C50" t="n">
         <v>0.000239337059073378</v>
@@ -6728,7 +6728,7 @@
         <v>0.000319116078764504</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.003607986952409957</v>
+        <v>-0.001803993476204978</v>
       </c>
       <c r="J50" t="n">
         <v>0.000239337059073378</v>
@@ -6746,13 +6746,13 @@
         <v>0.000478674118146756</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.00426398458012086</v>
+        <v>-0.00213199229006043</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.003279988138554507</v>
+        <v>-0.001639994069277253</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.002951989324699056</v>
+        <v>-0.001475994662349528</v>
       </c>
       <c r="R50" t="n">
         <v>0.000239337059073378</v>
@@ -6812,7 +6812,7 @@
         <v>0.0008775692166023859</v>
       </c>
       <c r="AK50" t="n">
-        <v>-0.00737997331174764</v>
+        <v>-0.00368998665587382</v>
       </c>
       <c r="AL50" t="n">
         <v>0.001356243334749142</v>
@@ -6824,7 +6824,7 @@
         <v>0.001436022354440268</v>
       </c>
       <c r="AO50" t="n">
-        <v>-0.008527969160241717</v>
+        <v>-0.004263984580120859</v>
       </c>
       <c r="AP50" t="n">
         <v>0.0007180111772201339</v>
@@ -6835,7 +6835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.004619547007515904</v>
+        <v>-0.002309773503757952</v>
       </c>
       <c r="C51" t="n">
         <v>0.000229948629966025</v>
@@ -6856,7 +6856,7 @@
         <v>0.0003065981732880333</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.003629644077333925</v>
+        <v>-0.001814822038666963</v>
       </c>
       <c r="J51" t="n">
         <v>0.000229948629966025</v>
@@ -6874,13 +6874,13 @@
         <v>0.00045989725993205</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.004289579364121912</v>
+        <v>-0.002144789682060956</v>
       </c>
       <c r="P51" t="n">
-        <v>-0.003299676433939931</v>
+        <v>-0.001649838216969966</v>
       </c>
       <c r="Q51" t="n">
-        <v>-0.002969708790545939</v>
+        <v>-0.001484854395272969</v>
       </c>
       <c r="R51" t="n">
         <v>0.000229948629966025</v>
@@ -6940,7 +6940,7 @@
         <v>0.0008431449765420915</v>
       </c>
       <c r="AK51" t="n">
-        <v>-0.007424271976364847</v>
+        <v>-0.003712135988182424</v>
       </c>
       <c r="AL51" t="n">
         <v>0.001303042236474142</v>
@@ -6952,7 +6952,7 @@
         <v>0.00137969177979615</v>
       </c>
       <c r="AO51" t="n">
-        <v>-0.008579158728243823</v>
+        <v>-0.004289579364121911</v>
       </c>
       <c r="AP51" t="n">
         <v>0.0006898458898980748</v>
@@ -6963,7 +6963,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.004601098069520219</v>
+        <v>-0.00230054903476011</v>
       </c>
       <c r="C52" t="n">
         <v>0.0002256000631500935</v>
@@ -6984,7 +6984,7 @@
         <v>0.0003008000842001246</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.003615148483194458</v>
+        <v>-0.001807574241597229</v>
       </c>
       <c r="J52" t="n">
         <v>0.0002256000631500935</v>
@@ -7002,13 +7002,13 @@
         <v>0.0004512001263001869</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.004272448207411633</v>
+        <v>-0.002136224103705816</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.00328649862108587</v>
+        <v>-0.001643249310542935</v>
       </c>
       <c r="Q52" t="n">
-        <v>-0.002957848758977284</v>
+        <v>-0.001478924379488642</v>
       </c>
       <c r="R52" t="n">
         <v>0.0002256000631500935</v>
@@ -7068,7 +7068,7 @@
         <v>0.0008272002315503426</v>
       </c>
       <c r="AK52" t="n">
-        <v>-0.007394621897443209</v>
+        <v>-0.003697310948721604</v>
       </c>
       <c r="AL52" t="n">
         <v>0.00127840035785053</v>
@@ -7080,7 +7080,7 @@
         <v>0.001353600378900561</v>
       </c>
       <c r="AO52" t="n">
-        <v>-0.008544896414823264</v>
+        <v>-0.004272448207411632</v>
       </c>
       <c r="AP52" t="n">
         <v>0.0006768001894502803</v>
@@ -7091,7 +7091,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.004564947252000038</v>
+        <v>-0.002282473626000019</v>
       </c>
       <c r="C53" t="n">
         <v>0.0002201831913197005</v>
@@ -7112,7 +7112,7 @@
         <v>0.0002935775884262673</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.003586744269428601</v>
+        <v>-0.0017933721347143</v>
       </c>
       <c r="J53" t="n">
         <v>0.0002201831913197005</v>
@@ -7130,13 +7130,13 @@
         <v>0.0004403663826394009</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.004238879591142893</v>
+        <v>-0.002119439795571446</v>
       </c>
       <c r="P53" t="n">
-        <v>-0.003260676608571455</v>
+        <v>-0.001630338304285728</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.002934608947714309</v>
+        <v>-0.001467304473857155</v>
       </c>
       <c r="R53" t="n">
         <v>0.0002201831913197005</v>
@@ -7196,7 +7196,7 @@
         <v>0.000807338368172235</v>
       </c>
       <c r="AK53" t="n">
-        <v>-0.007336522369285775</v>
+        <v>-0.003668261184642887</v>
       </c>
       <c r="AL53" t="n">
         <v>0.001247704750811636</v>
@@ -7208,7 +7208,7 @@
         <v>0.001321099147918203</v>
       </c>
       <c r="AO53" t="n">
-        <v>-0.008477759182285783</v>
+        <v>-0.004238879591142892</v>
       </c>
       <c r="AP53" t="n">
         <v>0.0006605495739591014</v>
@@ -7219,7 +7219,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.004441438297283593</v>
+        <v>-0.002220719148641797</v>
       </c>
       <c r="C54" t="n">
         <v>0.0002124829744677763</v>
@@ -7240,7 +7240,7 @@
         <v>0.0002833106326237017</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.003489701519294252</v>
+        <v>-0.001744850759647126</v>
       </c>
       <c r="J54" t="n">
         <v>0.0002124829744677763</v>
@@ -7258,13 +7258,13 @@
         <v>0.0004249659489355526</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.004124192704620481</v>
+        <v>-0.00206209635231024</v>
       </c>
       <c r="P54" t="n">
-        <v>-0.003172455926631138</v>
+        <v>-0.001586227963315569</v>
       </c>
       <c r="Q54" t="n">
-        <v>-0.002855210333968024</v>
+        <v>-0.001427605166984012</v>
       </c>
       <c r="R54" t="n">
         <v>0.0002124829744677763</v>
@@ -7324,7 +7324,7 @@
         <v>0.0007791042397151796</v>
       </c>
       <c r="AK54" t="n">
-        <v>-0.007138025834920061</v>
+        <v>-0.003569012917460031</v>
       </c>
       <c r="AL54" t="n">
         <v>0.001204070188650732</v>
@@ -7336,7 +7336,7 @@
         <v>0.001274897846806658</v>
       </c>
       <c r="AO54" t="n">
-        <v>-0.008248385409240959</v>
+        <v>-0.00412419270462048</v>
       </c>
       <c r="AP54" t="n">
         <v>0.0006374489234033288</v>
@@ -7347,7 +7347,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.004542529545207208</v>
+        <v>-0.002271264772603604</v>
       </c>
       <c r="C55" t="n">
         <v>0.0002031667455212186</v>
@@ -7368,7 +7368,7 @@
         <v>0.0002708889940282914</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.003569130356948521</v>
+        <v>-0.00178456517847426</v>
       </c>
       <c r="J55" t="n">
         <v>0.0002031667455212186</v>
@@ -7386,13 +7386,13 @@
         <v>0.0004063334910424371</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.00421806314912098</v>
+        <v>-0.00210903157456049</v>
       </c>
       <c r="P55" t="n">
-        <v>-0.003244663960862292</v>
+        <v>-0.001622331980431146</v>
       </c>
       <c r="Q55" t="n">
-        <v>-0.002920197564776063</v>
+        <v>-0.001460098782388031</v>
       </c>
       <c r="R55" t="n">
         <v>0.0002031667455212186</v>
@@ -7452,7 +7452,7 @@
         <v>0.0007449447335778014</v>
       </c>
       <c r="AK55" t="n">
-        <v>-0.007300493911940156</v>
+        <v>-0.003650246955970078</v>
       </c>
       <c r="AL55" t="n">
         <v>0.001151278224620239</v>
@@ -7464,7 +7464,7 @@
         <v>0.001219000473127311</v>
       </c>
       <c r="AO55" t="n">
-        <v>-0.008436126298241958</v>
+        <v>-0.004218063149120979</v>
       </c>
       <c r="AP55" t="n">
         <v>0.0006095002365636556</v>
@@ -7475,7 +7475,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.004926923702896943</v>
+        <v>-0.002463461851448472</v>
       </c>
       <c r="C56" t="n">
         <v>0.000196520571356215</v>
@@ -7496,7 +7496,7 @@
         <v>0.0002620274284749533</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.003871154337990455</v>
+        <v>-0.001935577168995227</v>
       </c>
       <c r="J56" t="n">
         <v>0.000196520571356215</v>
@@ -7514,13 +7514,13 @@
         <v>0.00039304114271243</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.004575000581261448</v>
+        <v>-0.002287500290630724</v>
       </c>
       <c r="P56" t="n">
-        <v>-0.003519231216354959</v>
+        <v>-0.001759615608177479</v>
       </c>
       <c r="Q56" t="n">
-        <v>-0.003167308094719463</v>
+        <v>-0.001583654047359732</v>
       </c>
       <c r="R56" t="n">
         <v>0.000196520571356215</v>
@@ -7580,7 +7580,7 @@
         <v>0.0007205754283061216</v>
       </c>
       <c r="AK56" t="n">
-        <v>-0.007918270236798659</v>
+        <v>-0.003959135118399329</v>
       </c>
       <c r="AL56" t="n">
         <v>0.001113616571018552</v>
@@ -7592,7 +7592,7 @@
         <v>0.00117912342813729</v>
       </c>
       <c r="AO56" t="n">
-        <v>-0.009150001162522894</v>
+        <v>-0.004575000581261447</v>
       </c>
       <c r="AP56" t="n">
         <v>0.0005895617140686449</v>
@@ -7603,7 +7603,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.005349570627483966</v>
+        <v>-0.002674785313741983</v>
       </c>
       <c r="C57" t="n">
         <v>0.000181766271643871</v>
@@ -7624,7 +7624,7 @@
         <v>0.0002423550288584946</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.004203234064451687</v>
+        <v>-0.002101617032225844</v>
       </c>
       <c r="J57" t="n">
         <v>0.000181766271643871</v>
@@ -7642,13 +7642,13 @@
         <v>0.000363532543287742</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.004967458439806539</v>
+        <v>-0.00248372921990327</v>
       </c>
       <c r="P57" t="n">
-        <v>-0.003821121876774261</v>
+        <v>-0.00191056093838713</v>
       </c>
       <c r="Q57" t="n">
-        <v>-0.003439009689096835</v>
+        <v>-0.001719504844548417</v>
       </c>
       <c r="R57" t="n">
         <v>0.000181766271643871</v>
@@ -7708,7 +7708,7 @@
         <v>0.0006664763293608602</v>
       </c>
       <c r="AK57" t="n">
-        <v>-0.008597524222742087</v>
+        <v>-0.004298762111371044</v>
       </c>
       <c r="AL57" t="n">
         <v>0.001030008872648602</v>
@@ -7720,7 +7720,7 @@
         <v>0.001090597629863226</v>
       </c>
       <c r="AO57" t="n">
-        <v>-0.009934916879613077</v>
+        <v>-0.004967458439806539</v>
       </c>
       <c r="AP57" t="n">
         <v>0.0005452988149316129</v>
@@ -7731,7 +7731,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.005684000000000001</v>
+        <v>-0.002842</v>
       </c>
       <c r="C58" t="n">
         <v>0.0001594556039041026</v>
@@ -7752,7 +7752,7 @@
         <v>0.0002126074718721368</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.004466</v>
+        <v>-0.002233</v>
       </c>
       <c r="J58" t="n">
         <v>0.0001594556039041026</v>
@@ -7770,13 +7770,13 @@
         <v>0.0003189112078082052</v>
       </c>
       <c r="O58" t="n">
-        <v>-0.005278000000000001</v>
+        <v>-0.002639</v>
       </c>
       <c r="P58" t="n">
-        <v>-0.004059999999999999</v>
+        <v>-0.00203</v>
       </c>
       <c r="Q58" t="n">
-        <v>-0.003654</v>
+        <v>-0.001827</v>
       </c>
       <c r="R58" t="n">
         <v>0.0001594556039041026</v>
@@ -7836,7 +7836,7 @@
         <v>0.0005846705476483762</v>
       </c>
       <c r="AK58" t="n">
-        <v>-0.009135000000000001</v>
+        <v>-0.0045675</v>
       </c>
       <c r="AL58" t="n">
         <v>0.0009035817554565816</v>
@@ -7848,7 +7848,7 @@
         <v>0.0009567336234246156</v>
       </c>
       <c r="AO58" t="n">
-        <v>-0.010556</v>
+        <v>-0.005278</v>
       </c>
       <c r="AP58" t="n">
         <v>0.0004783668117123078</v>
@@ -7859,7 +7859,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.00558525566983</v>
+        <v>-0.002792627834915</v>
       </c>
       <c r="C59" t="n">
         <v>0.0001289496526295487</v>
@@ -7880,7 +7880,7 @@
         <v>0.0001719328701727317</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.004388415169152143</v>
+        <v>-0.002194207584576072</v>
       </c>
       <c r="J59" t="n">
         <v>0.0001289496526295487</v>
@@ -7898,13 +7898,13 @@
         <v>0.0002578993052590975</v>
       </c>
       <c r="O59" t="n">
-        <v>-0.005186308836270715</v>
+        <v>-0.002593154418135357</v>
       </c>
       <c r="P59" t="n">
-        <v>-0.003989468335592857</v>
+        <v>-0.001994734167796428</v>
       </c>
       <c r="Q59" t="n">
-        <v>-0.003590521502033572</v>
+        <v>-0.001795260751016786</v>
       </c>
       <c r="R59" t="n">
         <v>0.0001289496526295487</v>
@@ -7964,7 +7964,7 @@
         <v>0.000472815392975012</v>
       </c>
       <c r="AK59" t="n">
-        <v>-0.008976303755083929</v>
+        <v>-0.004488151877541965</v>
       </c>
       <c r="AL59" t="n">
         <v>0.0007307146982341096</v>
@@ -7976,7 +7976,7 @@
         <v>0.0007736979157772924</v>
       </c>
       <c r="AO59" t="n">
-        <v>-0.01037261767254143</v>
+        <v>-0.005186308836270715</v>
       </c>
       <c r="AP59" t="n">
         <v>0.0003868489578886462</v>
@@ -7987,7 +7987,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.005395372603772886</v>
+        <v>-0.002697686301886443</v>
       </c>
       <c r="C60" t="n">
         <v>0.0001049116868099822</v>
@@ -8008,7 +8008,7 @@
         <v>0.0001398822490799762</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.004239221331535838</v>
+        <v>-0.002119610665767919</v>
       </c>
       <c r="J60" t="n">
         <v>0.0001049116868099822</v>
@@ -8026,13 +8026,13 @@
         <v>0.0002098233736199643</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.005009988846360537</v>
+        <v>-0.002504994423180269</v>
       </c>
       <c r="P60" t="n">
-        <v>-0.003853837574123489</v>
+        <v>-0.001926918787061744</v>
       </c>
       <c r="Q60" t="n">
-        <v>-0.00346845381671114</v>
+        <v>-0.00173422690835557</v>
       </c>
       <c r="R60" t="n">
         <v>0.0001049116868099822</v>
@@ -8092,7 +8092,7 @@
         <v>0.0003846761849699345</v>
       </c>
       <c r="AK60" t="n">
-        <v>-0.00867113454177785</v>
+        <v>-0.004335567270888925</v>
       </c>
       <c r="AL60" t="n">
         <v>0.0005944995585898989</v>
@@ -8104,7 +8104,7 @@
         <v>0.0006294701208598929</v>
       </c>
       <c r="AO60" t="n">
-        <v>-0.01001997769272107</v>
+        <v>-0.005009988846360536</v>
       </c>
       <c r="AP60" t="n">
         <v>0.0003147350604299464</v>
@@ -8115,7 +8115,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.005163701719234692</v>
+        <v>-0.002581850859617346</v>
       </c>
       <c r="C61" t="n">
         <v>9.83145468640903e-05</v>
@@ -8136,7 +8136,7 @@
         <v>0.0001310860624854537</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.004057194207970115</v>
+        <v>-0.002028597103985058</v>
       </c>
       <c r="J61" t="n">
         <v>9.83145468640903e-05</v>
@@ -8154,13 +8154,13 @@
         <v>0.0001966290937281806</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.004794865882146501</v>
+        <v>-0.00239743294107325</v>
       </c>
       <c r="P61" t="n">
-        <v>-0.003688358370881922</v>
+        <v>-0.001844179185440961</v>
       </c>
       <c r="Q61" t="n">
-        <v>-0.003319522533793731</v>
+        <v>-0.001659761266896865</v>
       </c>
       <c r="R61" t="n">
         <v>9.83145468640903e-05</v>
@@ -8220,7 +8220,7 @@
         <v>0.0003604866718349978</v>
       </c>
       <c r="AK61" t="n">
-        <v>-0.008298806334484326</v>
+        <v>-0.004149403167242163</v>
       </c>
       <c r="AL61" t="n">
         <v>0.0005571157655631785</v>
@@ -8232,7 +8232,7 @@
         <v>0.0005898872811845418</v>
       </c>
       <c r="AO61" t="n">
-        <v>-0.009589731764293001</v>
+        <v>-0.004794865882146501</v>
       </c>
       <c r="AP61" t="n">
         <v>0.0002949436405922709</v>
@@ -8243,7 +8243,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.004989455043349957</v>
+        <v>-0.002494727521674978</v>
       </c>
       <c r="C62" t="n">
         <v>0.0001098124370241387</v>
@@ -8264,7 +8264,7 @@
         <v>0.0001464165826988516</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.00392028610548925</v>
+        <v>-0.001960143052744625</v>
       </c>
       <c r="J62" t="n">
         <v>0.0001098124370241387</v>
@@ -8282,13 +8282,13 @@
         <v>0.0002196248740482774</v>
       </c>
       <c r="O62" t="n">
-        <v>-0.004633065397396388</v>
+        <v>-0.002316532698698194</v>
       </c>
       <c r="P62" t="n">
-        <v>-0.003563896459535683</v>
+        <v>-0.001781948229767841</v>
       </c>
       <c r="Q62" t="n">
-        <v>-0.003207506813582115</v>
+        <v>-0.001603753406791057</v>
       </c>
       <c r="R62" t="n">
         <v>0.0001098124370241387</v>
@@ -8348,7 +8348,7 @@
         <v>0.0004026456024218418</v>
       </c>
       <c r="AK62" t="n">
-        <v>-0.008018767033955286</v>
+        <v>-0.004009383516977643</v>
       </c>
       <c r="AL62" t="n">
         <v>0.0006222704764701193</v>
@@ -8360,7 +8360,7 @@
         <v>0.000658874622144832</v>
       </c>
       <c r="AO62" t="n">
-        <v>-0.009266130794792776</v>
+        <v>-0.004633065397396388</v>
       </c>
       <c r="AP62" t="n">
         <v>0.000329437311072416</v>
@@ -8371,7 +8371,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.004834555743310221</v>
+        <v>-0.00241727787165511</v>
       </c>
       <c r="C63" t="n">
         <v>0.0001259281655185423</v>
@@ -8392,7 +8392,7 @@
         <v>0.0001679042206913897</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.003798579512600887</v>
+        <v>-0.001899289756300443</v>
       </c>
       <c r="J63" t="n">
         <v>0.0001259281655185423</v>
@@ -8410,13 +8410,13 @@
         <v>0.0002518563310370846</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.004489230333073776</v>
+        <v>-0.002244615166536888</v>
       </c>
       <c r="P63" t="n">
-        <v>-0.003453254102364442</v>
+        <v>-0.001726627051182221</v>
       </c>
       <c r="Q63" t="n">
-        <v>-0.003107928692127998</v>
+        <v>-0.001553964346063999</v>
       </c>
       <c r="R63" t="n">
         <v>0.0001259281655185423</v>
@@ -8476,7 +8476,7 @@
         <v>0.0004617366069013218</v>
       </c>
       <c r="AK63" t="n">
-        <v>-0.007769821730319996</v>
+        <v>-0.003884910865159998</v>
       </c>
       <c r="AL63" t="n">
         <v>0.0007135929379384065</v>
@@ -8488,7 +8488,7 @@
         <v>0.0007555689931112538</v>
       </c>
       <c r="AO63" t="n">
-        <v>-0.008978460666147551</v>
+        <v>-0.004489230333073775</v>
       </c>
       <c r="AP63" t="n">
         <v>0.0003777844965556269</v>
@@ -8499,7 +8499,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.004863674901906858</v>
+        <v>-0.002431837450953429</v>
       </c>
       <c r="C64" t="n">
         <v>0.0001475730751619943</v>
@@ -8520,7 +8520,7 @@
         <v>0.0001967641002159924</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.003821458851498245</v>
+        <v>-0.001910729425749123</v>
       </c>
       <c r="J64" t="n">
         <v>0.0001475730751619943</v>
@@ -8538,13 +8538,13 @@
         <v>0.0002951461503239886</v>
       </c>
       <c r="O64" t="n">
-        <v>-0.004516269551770654</v>
+        <v>-0.002258134775885327</v>
       </c>
       <c r="P64" t="n">
-        <v>-0.003474053501362041</v>
+        <v>-0.00173702675068102</v>
       </c>
       <c r="Q64" t="n">
-        <v>-0.003126648151225838</v>
+        <v>-0.001563324075612919</v>
       </c>
       <c r="R64" t="n">
         <v>0.0001475730751619943</v>
@@ -8604,7 +8604,7 @@
         <v>0.0005411012755939791</v>
       </c>
       <c r="AK64" t="n">
-        <v>-0.007816620378064593</v>
+        <v>-0.003908310189032297</v>
       </c>
       <c r="AL64" t="n">
         <v>0.0008362474259179677</v>
@@ -8616,7 +8616,7 @@
         <v>0.0008854384509719657</v>
       </c>
       <c r="AO64" t="n">
-        <v>-0.009032539103541307</v>
+        <v>-0.004516269551770653</v>
       </c>
       <c r="AP64" t="n">
         <v>0.0004427192254859829</v>
@@ -8627,7 +8627,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.005164818173151796</v>
+        <v>-0.002582409086575898</v>
       </c>
       <c r="C65" t="n">
         <v>0.0001553567090127648</v>
@@ -8648,7 +8648,7 @@
         <v>0.0002071422786836864</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.004058071421762125</v>
+        <v>-0.002029035710881063</v>
       </c>
       <c r="J65" t="n">
         <v>0.0001553567090127648</v>
@@ -8666,13 +8666,13 @@
         <v>0.0003107134180255296</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.004795902589355239</v>
+        <v>-0.002397951294677619</v>
       </c>
       <c r="P65" t="n">
-        <v>-0.003689155837965568</v>
+        <v>-0.001844577918982784</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.003320240254169011</v>
+        <v>-0.001660120127084506</v>
       </c>
       <c r="R65" t="n">
         <v>0.0001553567090127648</v>
@@ -8732,7 +8732,7 @@
         <v>0.0005696412663801375</v>
       </c>
       <c r="AK65" t="n">
-        <v>-0.008300600635422529</v>
+        <v>-0.004150300317711264</v>
       </c>
       <c r="AL65" t="n">
         <v>0.0008803546844056673</v>
@@ -8744,7 +8744,7 @@
         <v>0.0009321402540765887</v>
       </c>
       <c r="AO65" t="n">
-        <v>-0.009591805178710477</v>
+        <v>-0.004795902589355239</v>
       </c>
       <c r="AP65" t="n">
         <v>0.0004660701270382943</v>
@@ -8755,7 +8755,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.005187363448694186</v>
+        <v>-0.002593681724347093</v>
       </c>
       <c r="C66" t="n">
         <v>0.0001650712934995781</v>
@@ -8776,7 +8776,7 @@
         <v>0.0002200950579994375</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.004075785566831146</v>
+        <v>-0.002037892783415573</v>
       </c>
       <c r="J66" t="n">
         <v>0.0001650712934995781</v>
@@ -8794,13 +8794,13 @@
         <v>0.0003301425869991562</v>
       </c>
       <c r="O66" t="n">
-        <v>-0.004816837488073173</v>
+        <v>-0.002408418744036587</v>
       </c>
       <c r="P66" t="n">
-        <v>-0.003705259606210132</v>
+        <v>-0.001852629803105066</v>
       </c>
       <c r="Q66" t="n">
-        <v>-0.003334733645589119</v>
+        <v>-0.00166736682279456</v>
       </c>
       <c r="R66" t="n">
         <v>0.0001650712934995781</v>
@@ -8860,7 +8860,7 @@
         <v>0.0006052614094984531</v>
       </c>
       <c r="AK66" t="n">
-        <v>-0.008336834113972798</v>
+        <v>-0.004168417056986399</v>
       </c>
       <c r="AL66" t="n">
         <v>0.0009354039964976094</v>
@@ -8872,7 +8872,7 @@
         <v>0.0009904277609974687</v>
       </c>
       <c r="AO66" t="n">
-        <v>-0.009633674976146344</v>
+        <v>-0.004816837488073172</v>
       </c>
       <c r="AP66" t="n">
         <v>0.0004952138804987344</v>
@@ -8883,7 +8883,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.005219000746613034</v>
+        <v>-0.002609500373306517</v>
       </c>
       <c r="C67" t="n">
         <v>0.000176457928313189</v>
@@ -8904,7 +8904,7 @@
         <v>0.0002352772377509187</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.004100643443767384</v>
+        <v>-0.002050321721883692</v>
       </c>
       <c r="J67" t="n">
         <v>0.000176457928313189</v>
@@ -8922,13 +8922,13 @@
         <v>0.000352915856626378</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.004846214978997818</v>
+        <v>-0.002423107489498909</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.003727857676152167</v>
+        <v>-0.001863928838076084</v>
       </c>
       <c r="Q67" t="n">
-        <v>-0.003355071908536951</v>
+        <v>-0.001677535954268475</v>
       </c>
       <c r="R67" t="n">
         <v>0.000176457928313189</v>
@@ -8988,7 +8988,7 @@
         <v>0.0006470124038150263</v>
       </c>
       <c r="AK67" t="n">
-        <v>-0.008387679771342377</v>
+        <v>-0.004193839885671189</v>
       </c>
       <c r="AL67" t="n">
         <v>0.0009999282604414045</v>
@@ -9000,7 +9000,7 @@
         <v>0.001058747569879134</v>
       </c>
       <c r="AO67" t="n">
-        <v>-0.009692429957995635</v>
+        <v>-0.004846214978997817</v>
       </c>
       <c r="AP67" t="n">
         <v>0.000529373784939567</v>
@@ -9011,7 +9011,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.005033686014208425</v>
+        <v>-0.002516843007104213</v>
       </c>
       <c r="C68" t="n">
         <v>0.0001920376996793261</v>
@@ -9032,7 +9032,7 @@
         <v>0.0002560502662391014</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.003955039011163762</v>
+        <v>-0.001977519505581881</v>
       </c>
       <c r="J68" t="n">
         <v>0.0001920376996793261</v>
@@ -9050,13 +9050,13 @@
         <v>0.0003840753993586522</v>
       </c>
       <c r="O68" t="n">
-        <v>-0.004674137013193537</v>
+        <v>-0.002337068506596769</v>
       </c>
       <c r="P68" t="n">
-        <v>-0.003595490010148875</v>
+        <v>-0.001797745005074437</v>
       </c>
       <c r="Q68" t="n">
-        <v>-0.003235941009133987</v>
+        <v>-0.001617970504566993</v>
       </c>
       <c r="R68" t="n">
         <v>0.0001920376996793261</v>
@@ -9116,7 +9116,7 @@
         <v>0.0007041382321575289</v>
       </c>
       <c r="AK68" t="n">
-        <v>-0.00808985252283497</v>
+        <v>-0.004044926261417485</v>
       </c>
       <c r="AL68" t="n">
         <v>0.001088213631516181</v>
@@ -9128,7 +9128,7 @@
         <v>0.001152226198075956</v>
       </c>
       <c r="AO68" t="n">
-        <v>-0.009348274026387075</v>
+        <v>-0.004674137013193537</v>
       </c>
       <c r="AP68" t="n">
         <v>0.0005761130990379782</v>
@@ -9139,7 +9139,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.00485752820467827</v>
+        <v>-0.002428764102339135</v>
       </c>
       <c r="C69" t="n">
         <v>0.0002118226853842764</v>
@@ -9160,7 +9160,7 @@
         <v>0.0002824302471790351</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.003816629303675783</v>
+        <v>-0.001908314651837892</v>
       </c>
       <c r="J69" t="n">
         <v>0.0002118226853842764</v>
@@ -9178,13 +9178,13 @@
         <v>0.0004236453707685527</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.004510561904344108</v>
+        <v>-0.002255280952172054</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.00346966300334162</v>
+        <v>-0.00173483150167081</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.003122696703007459</v>
+        <v>-0.001561348351503729</v>
       </c>
       <c r="R69" t="n">
         <v>0.0002118226853842764</v>
@@ -9244,7 +9244,7 @@
         <v>0.0007766831797423466</v>
       </c>
       <c r="AK69" t="n">
-        <v>-0.007806741757518647</v>
+        <v>-0.003903370878759323</v>
       </c>
       <c r="AL69" t="n">
         <v>0.0012003285505109</v>
@@ -9256,7 +9256,7 @@
         <v>0.001270936112305658</v>
       </c>
       <c r="AO69" t="n">
-        <v>-0.009021123808688214</v>
+        <v>-0.004510561904344107</v>
       </c>
       <c r="AP69" t="n">
         <v>0.0006354680561528291</v>
@@ -9267,7 +9267,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.004612678302581595</v>
+        <v>-0.002306339151290797</v>
       </c>
       <c r="C70" t="n">
         <v>0.0002303495377122616</v>
@@ -9288,7 +9288,7 @@
         <v>0.0003071327169496821</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.003624247237742681</v>
+        <v>-0.00181212361887134</v>
       </c>
       <c r="J70" t="n">
         <v>0.0002303495377122616</v>
@@ -9306,13 +9306,13 @@
         <v>0.0004606990754245232</v>
       </c>
       <c r="O70" t="n">
-        <v>-0.004283201280968623</v>
+        <v>-0.002141600640484311</v>
       </c>
       <c r="P70" t="n">
-        <v>-0.003294770216129709</v>
+        <v>-0.001647385108064855</v>
       </c>
       <c r="Q70" t="n">
-        <v>-0.002965293194516739</v>
+        <v>-0.00148264659725837</v>
       </c>
       <c r="R70" t="n">
         <v>0.0002303495377122616</v>
@@ -9372,7 +9372,7 @@
         <v>0.0008446149716116258</v>
       </c>
       <c r="AK70" t="n">
-        <v>-0.007413232986291847</v>
+        <v>-0.003706616493145924</v>
       </c>
       <c r="AL70" t="n">
         <v>0.001305314047036149</v>
@@ -9384,7 +9384,7 @@
         <v>0.001382097226273569</v>
       </c>
       <c r="AO70" t="n">
-        <v>-0.008566402561937246</v>
+        <v>-0.004283201280968623</v>
       </c>
       <c r="AP70" t="n">
         <v>0.0006910486131367847</v>
@@ -9395,7 +9395,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.004397677917042434</v>
+        <v>-0.002198838958521217</v>
       </c>
       <c r="C71" t="n">
         <v>0.000248937912604591</v>
@@ -9416,7 +9416,7 @@
         <v>0.0003319172168061213</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.003455318363390484</v>
+        <v>-0.001727659181695242</v>
       </c>
       <c r="J71" t="n">
         <v>0.000248937912604591</v>
@@ -9434,13 +9434,13 @@
         <v>0.000497875825209182</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.004083558065825118</v>
+        <v>-0.002041779032912559</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.003141198512173167</v>
+        <v>-0.001570599256086583</v>
       </c>
       <c r="Q71" t="n">
-        <v>-0.002827078660955851</v>
+        <v>-0.001413539330477925</v>
       </c>
       <c r="R71" t="n">
         <v>0.000248937912604591</v>
@@ -9500,7 +9500,7 @@
         <v>0.0009127723462168335</v>
       </c>
       <c r="AK71" t="n">
-        <v>-0.007067696652389627</v>
+        <v>-0.003533848326194813</v>
       </c>
       <c r="AL71" t="n">
         <v>0.001410648171426016</v>
@@ -9512,7 +9512,7 @@
         <v>0.001493627475627546</v>
       </c>
       <c r="AO71" t="n">
-        <v>-0.008167116131650234</v>
+        <v>-0.004083558065825117</v>
       </c>
       <c r="AP71" t="n">
         <v>0.0007468137378137729</v>
@@ -9523,7 +9523,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.004388669314541744</v>
+        <v>-0.002194334657270872</v>
       </c>
       <c r="C72" t="n">
         <v>0.000254469593873784</v>
@@ -9544,7 +9544,7 @@
         <v>0.000339292791831712</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.003448240175711369</v>
+        <v>-0.001724120087855685</v>
       </c>
       <c r="J72" t="n">
         <v>0.000254469593873784</v>
@@ -9562,13 +9562,13 @@
         <v>0.0005089391877475681</v>
       </c>
       <c r="O72" t="n">
-        <v>-0.004075192934931619</v>
+        <v>-0.00203759646746581</v>
       </c>
       <c r="P72" t="n">
-        <v>-0.003134763796101245</v>
+        <v>-0.001567381898050622</v>
       </c>
       <c r="Q72" t="n">
-        <v>-0.002821287416491121</v>
+        <v>-0.00141064370824556</v>
       </c>
       <c r="R72" t="n">
         <v>0.000254469593873784</v>
@@ -9628,7 +9628,7 @@
         <v>0.0009330551775372079</v>
       </c>
       <c r="AK72" t="n">
-        <v>-0.007053218541227802</v>
+        <v>-0.003526609270613901</v>
       </c>
       <c r="AL72" t="n">
         <v>0.001441994365284776</v>
@@ -9640,7 +9640,7 @@
         <v>0.001526817563242704</v>
       </c>
       <c r="AO72" t="n">
-        <v>-0.008150385869863237</v>
+        <v>-0.004075192934931618</v>
       </c>
       <c r="AP72" t="n">
         <v>0.000763408781621352</v>
@@ -9651,7 +9651,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.004448436307159133</v>
+        <v>-0.002224218153579567</v>
       </c>
       <c r="C73" t="n">
         <v>0.0002492090224466506</v>
@@ -9672,7 +9672,7 @@
         <v>0.0003322786965955341</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.003495199955625033</v>
+        <v>-0.001747599977812516</v>
       </c>
       <c r="J73" t="n">
         <v>0.0002492090224466506</v>
@@ -9690,13 +9690,13 @@
         <v>0.0004984180448933011</v>
       </c>
       <c r="O73" t="n">
-        <v>-0.004130690856647767</v>
+        <v>-0.002065345428323883</v>
       </c>
       <c r="P73" t="n">
-        <v>-0.003177454505113666</v>
+        <v>-0.001588727252556833</v>
       </c>
       <c r="Q73" t="n">
-        <v>-0.002859709054602299</v>
+        <v>-0.00142985452730115</v>
       </c>
       <c r="R73" t="n">
         <v>0.0002492090224466506</v>
@@ -9756,7 +9756,7 @@
         <v>0.0009137664156377186</v>
       </c>
       <c r="AK73" t="n">
-        <v>-0.007149272636505749</v>
+        <v>-0.003574636318252875</v>
       </c>
       <c r="AL73" t="n">
         <v>0.00141218446053102</v>
@@ -9768,7 +9768,7 @@
         <v>0.001495254134679903</v>
       </c>
       <c r="AO73" t="n">
-        <v>-0.008261381713295532</v>
+        <v>-0.004130690856647766</v>
       </c>
       <c r="AP73" t="n">
         <v>0.0007476270673399516</v>
@@ -9779,7 +9779,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.004379175735835654</v>
+        <v>-0.002189587867917827</v>
       </c>
       <c r="C74" t="n">
         <v>0.0002395436866500398</v>
@@ -9800,7 +9800,7 @@
         <v>0.0003193915822000531</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.003440780935299442</v>
+        <v>-0.001720390467649721</v>
       </c>
       <c r="J74" t="n">
         <v>0.0002395436866500398</v>
@@ -9818,13 +9818,13 @@
         <v>0.0004790873733000797</v>
       </c>
       <c r="O74" t="n">
-        <v>-0.004066377468990251</v>
+        <v>-0.002033188734495125</v>
       </c>
       <c r="P74" t="n">
-        <v>-0.003127982668454038</v>
+        <v>-0.001563991334227019</v>
       </c>
       <c r="Q74" t="n">
-        <v>-0.002815184401608634</v>
+        <v>-0.001407592200804317</v>
       </c>
       <c r="R74" t="n">
         <v>0.0002395436866500398</v>
@@ -9884,7 +9884,7 @@
         <v>0.000878326851050146</v>
       </c>
       <c r="AK74" t="n">
-        <v>-0.007037961004021587</v>
+        <v>-0.003518980502010793</v>
       </c>
       <c r="AL74" t="n">
         <v>0.001357414224350226</v>
@@ -9896,7 +9896,7 @@
         <v>0.001437262119900239</v>
       </c>
       <c r="AO74" t="n">
-        <v>-0.008132754937980501</v>
+        <v>-0.004066377468990251</v>
       </c>
       <c r="AP74" t="n">
         <v>0.0007186310599501194</v>
@@ -9907,7 +9907,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.004330781294686056</v>
+        <v>-0.002165390647343028</v>
       </c>
       <c r="C75" t="n">
         <v>0.0002298610154615436</v>
@@ -9928,7 +9928,7 @@
         <v>0.0003064813539487248</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.003402756731539044</v>
+        <v>-0.001701378365769522</v>
       </c>
       <c r="J75" t="n">
         <v>0.0002298610154615436</v>
@@ -9946,13 +9946,13 @@
         <v>0.0004597220309230873</v>
       </c>
       <c r="O75" t="n">
-        <v>-0.004021439773637053</v>
+        <v>-0.002010719886818526</v>
       </c>
       <c r="P75" t="n">
-        <v>-0.003093415210490039</v>
+        <v>-0.00154670760524502</v>
       </c>
       <c r="Q75" t="n">
-        <v>-0.002784073689441036</v>
+        <v>-0.001392036844720518</v>
       </c>
       <c r="R75" t="n">
         <v>0.0002298610154615436</v>
@@ -10012,7 +10012,7 @@
         <v>0.0008428237233589933</v>
       </c>
       <c r="AK75" t="n">
-        <v>-0.006960184223602589</v>
+        <v>-0.003480092111801295</v>
       </c>
       <c r="AL75" t="n">
         <v>0.001302545754282081</v>
@@ -10024,7 +10024,7 @@
         <v>0.001379166092769262</v>
       </c>
       <c r="AO75" t="n">
-        <v>-0.008042879547274104</v>
+        <v>-0.004021439773637052</v>
       </c>
       <c r="AP75" t="n">
         <v>0.0006895830463846309</v>
@@ -10035,7 +10035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.004342440813833517</v>
+        <v>-0.002171220406916759</v>
       </c>
       <c r="C76" t="n">
         <v>0.0002275025933027272</v>
@@ -10056,7 +10056,7 @@
         <v>0.0003033367910703029</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.003411917782297763</v>
+        <v>-0.001705958891148882</v>
       </c>
       <c r="J76" t="n">
         <v>0.0002275025933027272</v>
@@ -10074,13 +10074,13 @@
         <v>0.0004550051866054544</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.004032266469988267</v>
+        <v>-0.002016133234994133</v>
       </c>
       <c r="P76" t="n">
-        <v>-0.003101743438452512</v>
+        <v>-0.001550871719226256</v>
       </c>
       <c r="Q76" t="n">
-        <v>-0.002791569094607261</v>
+        <v>-0.001395784547303631</v>
       </c>
       <c r="R76" t="n">
         <v>0.0002275025933027272</v>
@@ -10140,7 +10140,7 @@
         <v>0.000834176175443333</v>
       </c>
       <c r="AK76" t="n">
-        <v>-0.006978922736518152</v>
+        <v>-0.003489461368259076</v>
       </c>
       <c r="AL76" t="n">
         <v>0.001289181362048788</v>
@@ -10152,7 +10152,7 @@
         <v>0.001365015559816363</v>
       </c>
       <c r="AO76" t="n">
-        <v>-0.008064532939976532</v>
+        <v>-0.004032266469988266</v>
       </c>
       <c r="AP76" t="n">
         <v>0.0006825077799081815</v>
@@ -10163,7 +10163,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.004405505909210169</v>
+        <v>-0.002202752954605085</v>
       </c>
       <c r="C77" t="n">
         <v>0.0002245738373636549</v>
@@ -10184,7 +10184,7 @@
         <v>0.0002994317831515399</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.003461468928665132</v>
+        <v>-0.001730734464332566</v>
       </c>
       <c r="J77" t="n">
         <v>0.0002245738373636549</v>
@@ -10202,13 +10202,13 @@
         <v>0.0004491476747273098</v>
       </c>
       <c r="O77" t="n">
-        <v>-0.004090826915695157</v>
+        <v>-0.002045413457847579</v>
       </c>
       <c r="P77" t="n">
-        <v>-0.00314678993515012</v>
+        <v>-0.00157339496757506</v>
       </c>
       <c r="Q77" t="n">
-        <v>-0.002832110941635108</v>
+        <v>-0.001416055470817554</v>
       </c>
       <c r="R77" t="n">
         <v>0.0002245738373636549</v>
@@ -10268,7 +10268,7 @@
         <v>0.0008234374036667347</v>
       </c>
       <c r="AK77" t="n">
-        <v>-0.007080277354087771</v>
+        <v>-0.003540138677043885</v>
       </c>
       <c r="AL77" t="n">
         <v>0.001272585078394045</v>
@@ -10280,7 +10280,7 @@
         <v>0.001347443024181929</v>
       </c>
       <c r="AO77" t="n">
-        <v>-0.008181653831390313</v>
+        <v>-0.004090826915695157</v>
       </c>
       <c r="AP77" t="n">
         <v>0.0006737215120909647</v>
@@ -10291,7 +10291,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.004405336506509032</v>
+        <v>-0.002202668253254516</v>
       </c>
       <c r="C78" t="n">
         <v>0.0002152497128170816</v>
@@ -10312,7 +10312,7 @@
         <v>0.0002869996170894421</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.003461335826542811</v>
+        <v>-0.001730667913271405</v>
       </c>
       <c r="J78" t="n">
         <v>0.0002152497128170816</v>
@@ -10330,13 +10330,13 @@
         <v>0.0004304994256341632</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.004090669613186959</v>
+        <v>-0.002045334806593479</v>
       </c>
       <c r="P78" t="n">
-        <v>-0.003146668933220737</v>
+        <v>-0.001573334466610368</v>
       </c>
       <c r="Q78" t="n">
-        <v>-0.002832002039898663</v>
+        <v>-0.001416001019949332</v>
       </c>
       <c r="R78" t="n">
         <v>0.0002152497128170816</v>
@@ -10396,7 +10396,7 @@
         <v>0.0007892489469959658</v>
       </c>
       <c r="AK78" t="n">
-        <v>-0.007080005099746658</v>
+        <v>-0.003540002549873329</v>
       </c>
       <c r="AL78" t="n">
         <v>0.001219748372630129</v>
@@ -10408,7 +10408,7 @@
         <v>0.001291498276902489</v>
       </c>
       <c r="AO78" t="n">
-        <v>-0.008181339226373915</v>
+        <v>-0.004090669613186958</v>
       </c>
       <c r="AP78" t="n">
         <v>0.0006457491384512447</v>
@@ -10419,7 +10419,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.004458212885106799</v>
+        <v>-0.0022291064425534</v>
       </c>
       <c r="C79" t="n">
         <v>0.0002054790380122679</v>
@@ -10440,7 +10440,7 @@
         <v>0.0002739720506830238</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.003502881552583914</v>
+        <v>-0.001751440776291957</v>
       </c>
       <c r="J79" t="n">
         <v>0.0002054790380122679</v>
@@ -10458,13 +10458,13 @@
         <v>0.0004109580760245357</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.004139769107599171</v>
+        <v>-0.002069884553799585</v>
       </c>
       <c r="P79" t="n">
-        <v>-0.003184437775076285</v>
+        <v>-0.001592218887538142</v>
       </c>
       <c r="Q79" t="n">
-        <v>-0.002865993997568656</v>
+        <v>-0.001432996998784328</v>
       </c>
       <c r="R79" t="n">
         <v>0.0002054790380122679</v>
@@ -10524,7 +10524,7 @@
         <v>0.0007534231393783154</v>
       </c>
       <c r="AK79" t="n">
-        <v>-0.007164984993921641</v>
+        <v>-0.003582492496960821</v>
       </c>
       <c r="AL79" t="n">
         <v>0.001164381215402851</v>
@@ -10536,7 +10536,7 @@
         <v>0.001232874228073607</v>
       </c>
       <c r="AO79" t="n">
-        <v>-0.008279538215198341</v>
+        <v>-0.004139769107599171</v>
       </c>
       <c r="AP79" t="n">
         <v>0.0006164371140368036</v>
@@ -10547,7 +10547,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.004740711111373573</v>
+        <v>-0.002370355555686787</v>
       </c>
       <c r="C80" t="n">
         <v>0.0001957992009060435</v>
@@ -10568,7 +10568,7 @@
         <v>0.000261065601208058</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.003724844444650665</v>
+        <v>-0.001862422222325332</v>
       </c>
       <c r="J80" t="n">
         <v>0.0001957992009060435</v>
@@ -10586,13 +10586,13 @@
         <v>0.000391598401812087</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.004402088889132605</v>
+        <v>-0.002201044444566302</v>
       </c>
       <c r="P80" t="n">
-        <v>-0.003386222222409695</v>
+        <v>-0.001693111111204848</v>
       </c>
       <c r="Q80" t="n">
-        <v>-0.003047600000168725</v>
+        <v>-0.001523800000084363</v>
       </c>
       <c r="R80" t="n">
         <v>0.0001957992009060435</v>
@@ -10652,7 +10652,7 @@
         <v>0.0007179304033221594</v>
       </c>
       <c r="AK80" t="n">
-        <v>-0.007619000000421814</v>
+        <v>-0.003809500000210907</v>
       </c>
       <c r="AL80" t="n">
         <v>0.001109528805134247</v>
@@ -10664,7 +10664,7 @@
         <v>0.001174795205436261</v>
       </c>
       <c r="AO80" t="n">
-        <v>-0.008804177778265207</v>
+        <v>-0.004402088889132604</v>
       </c>
       <c r="AP80" t="n">
         <v>0.0005873976027181304</v>
@@ -10675,7 +10675,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.005043430431272373</v>
+        <v>-0.002521715215636186</v>
       </c>
       <c r="C81" t="n">
         <v>0.0001835721549952261</v>
@@ -10696,7 +10696,7 @@
         <v>0.0002447628733269682</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.003962695338856864</v>
+        <v>-0.001981347669428432</v>
       </c>
       <c r="J81" t="n">
         <v>0.0001835721549952261</v>
@@ -10714,13 +10714,13 @@
         <v>0.0003671443099904523</v>
       </c>
       <c r="O81" t="n">
-        <v>-0.004683185400467203</v>
+        <v>-0.002341592700233602</v>
       </c>
       <c r="P81" t="n">
-        <v>-0.003602450308051694</v>
+        <v>-0.001801225154025847</v>
       </c>
       <c r="Q81" t="n">
-        <v>-0.003242205277246525</v>
+        <v>-0.001621102638623262</v>
       </c>
       <c r="R81" t="n">
         <v>0.0001835721549952261</v>
@@ -10780,7 +10780,7 @@
         <v>0.0006730979016491624</v>
       </c>
       <c r="AK81" t="n">
-        <v>-0.008105513193116311</v>
+        <v>-0.004052756596558156</v>
       </c>
       <c r="AL81" t="n">
         <v>0.001040242211639615</v>
@@ -10792,7 +10792,7 @@
         <v>0.001101432929971357</v>
       </c>
       <c r="AO81" t="n">
-        <v>-0.009366370800934404</v>
+        <v>-0.004683185400467202</v>
       </c>
       <c r="AP81" t="n">
         <v>0.0005507164649856784</v>
@@ -10803,7 +10803,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.005098445219272234</v>
+        <v>-0.002549222609636117</v>
       </c>
       <c r="C82" t="n">
         <v>0.0001583363007281118</v>
@@ -10824,7 +10824,7 @@
         <v>0.0002111150676374824</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.004005921243713898</v>
+        <v>-0.002002960621856949</v>
       </c>
       <c r="J82" t="n">
         <v>0.0001583363007281118</v>
@@ -10842,13 +10842,13 @@
         <v>0.0003166726014562235</v>
       </c>
       <c r="O82" t="n">
-        <v>-0.004734270560752789</v>
+        <v>-0.002367135280376395</v>
       </c>
       <c r="P82" t="n">
-        <v>-0.003641746585194452</v>
+        <v>-0.001820873292597226</v>
       </c>
       <c r="Q82" t="n">
-        <v>-0.003277571926675007</v>
+        <v>-0.001638785963337504</v>
       </c>
       <c r="R82" t="n">
         <v>0.0001583363007281118</v>
@@ -10908,7 +10908,7 @@
         <v>0.0005805664360030764</v>
       </c>
       <c r="AK82" t="n">
-        <v>-0.008193929816687519</v>
+        <v>-0.004096964908343759</v>
       </c>
       <c r="AL82" t="n">
         <v>0.0008972390374593001</v>
@@ -10920,7 +10920,7 @@
         <v>0.0009500178043686706</v>
       </c>
       <c r="AO82" t="n">
-        <v>-0.009468541121505577</v>
+        <v>-0.004734270560752788</v>
       </c>
       <c r="AP82" t="n">
         <v>0.0004750089021843353</v>
@@ -10931,7 +10931,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.004937956456852938</v>
+        <v>-0.002468978228426469</v>
       </c>
       <c r="C83" t="n">
         <v>0.0001250134738909593</v>
@@ -10952,7 +10952,7 @@
         <v>0.0001666846318546125</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.003879822930384451</v>
+        <v>-0.001939911465192226</v>
       </c>
       <c r="J83" t="n">
         <v>0.0001250134738909593</v>
@@ -10970,13 +10970,13 @@
         <v>0.0002500269477819187</v>
       </c>
       <c r="O83" t="n">
-        <v>-0.004585245281363443</v>
+        <v>-0.002292622640681721</v>
       </c>
       <c r="P83" t="n">
-        <v>-0.003527111754894955</v>
+        <v>-0.001763555877447477</v>
       </c>
       <c r="Q83" t="n">
-        <v>-0.00317440057940546</v>
+        <v>-0.00158720028970273</v>
       </c>
       <c r="R83" t="n">
         <v>0.0001250134738909593</v>
@@ -11036,7 +11036,7 @@
         <v>0.0004583827376001842</v>
       </c>
       <c r="AK83" t="n">
-        <v>-0.00793600144851365</v>
+        <v>-0.003968000724256825</v>
       </c>
       <c r="AL83" t="n">
         <v>0.000708409685382103</v>
@@ -11048,7 +11048,7 @@
         <v>0.0007500808433457561</v>
       </c>
       <c r="AO83" t="n">
-        <v>-0.009170490562726884</v>
+        <v>-0.004585245281363442</v>
       </c>
       <c r="AP83" t="n">
         <v>0.000375040421672878</v>
@@ -11059,7 +11059,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.004776333630572497</v>
+        <v>-0.002388166815286248</v>
       </c>
       <c r="C84" t="n">
         <v>0.0001011393838999681</v>
@@ -11080,7 +11080,7 @@
         <v>0.0001348525118666242</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.00375283356687839</v>
+        <v>-0.001876416783439195</v>
       </c>
       <c r="J84" t="n">
         <v>0.0001011393838999681</v>
@@ -11098,13 +11098,13 @@
         <v>0.0002022787677999363</v>
       </c>
       <c r="O84" t="n">
-        <v>-0.004435166942674462</v>
+        <v>-0.002217583471337231</v>
       </c>
       <c r="P84" t="n">
-        <v>-0.003411666878980354</v>
+        <v>-0.001705833439490177</v>
       </c>
       <c r="Q84" t="n">
-        <v>-0.00307050019108232</v>
+        <v>-0.00153525009554116</v>
       </c>
       <c r="R84" t="n">
         <v>0.0001011393838999681</v>
@@ -11164,7 +11164,7 @@
         <v>0.0003708444076332165</v>
       </c>
       <c r="AK84" t="n">
-        <v>-0.007676250477705799</v>
+        <v>-0.0038381252388529</v>
       </c>
       <c r="AL84" t="n">
         <v>0.0005731231754331527</v>
@@ -11176,7 +11176,7 @@
         <v>0.0006068363033998087</v>
       </c>
       <c r="AO84" t="n">
-        <v>-0.008870333885348924</v>
+        <v>-0.004435166942674462</v>
       </c>
       <c r="AP84" t="n">
         <v>0.0003034181516999043</v>
@@ -11187,7 +11187,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.004643072404591712</v>
+        <v>-0.002321536202295856</v>
       </c>
       <c r="C85" t="n">
         <v>9.094564035748842e-05</v>
@@ -11208,7 +11208,7 @@
         <v>0.0001212608538099846</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.003648128317893488</v>
+        <v>-0.001824064158946744</v>
       </c>
       <c r="J85" t="n">
         <v>9.094564035748842e-05</v>
@@ -11226,13 +11226,13 @@
         <v>0.0001818912807149768</v>
       </c>
       <c r="O85" t="n">
-        <v>-0.004311424375692305</v>
+        <v>-0.002155712187846152</v>
       </c>
       <c r="P85" t="n">
-        <v>-0.00331648028899408</v>
+        <v>-0.00165824014449704</v>
       </c>
       <c r="Q85" t="n">
-        <v>-0.002984832260094672</v>
+        <v>-0.001492416130047336</v>
       </c>
       <c r="R85" t="n">
         <v>9.094564035748842e-05</v>
@@ -11292,7 +11292,7 @@
         <v>0.0003334673479774575</v>
       </c>
       <c r="AK85" t="n">
-        <v>-0.007462080650236681</v>
+        <v>-0.00373104032511834</v>
       </c>
       <c r="AL85" t="n">
         <v>0.0005153586286924344</v>
@@ -11304,7 +11304,7 @@
         <v>0.0005456738421449305</v>
       </c>
       <c r="AO85" t="n">
-        <v>-0.008622848751384608</v>
+        <v>-0.004311424375692304</v>
       </c>
       <c r="AP85" t="n">
         <v>0.0002728369210724652</v>
@@ -11315,7 +11315,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.00449292266354411</v>
+        <v>-0.002246461331772055</v>
       </c>
       <c r="C86" t="n">
         <v>9.835517075256834e-05</v>
@@ -11336,7 +11336,7 @@
         <v>0.0001311402276700911</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.003530153521356086</v>
+        <v>-0.001765076760678043</v>
       </c>
       <c r="J86" t="n">
         <v>9.835517075256834e-05</v>
@@ -11354,13 +11354,13 @@
         <v>0.0001967103415051367</v>
       </c>
       <c r="O86" t="n">
-        <v>-0.004171999616148102</v>
+        <v>-0.002085999808074051</v>
       </c>
       <c r="P86" t="n">
-        <v>-0.003209230473960078</v>
+        <v>-0.001604615236980039</v>
       </c>
       <c r="Q86" t="n">
-        <v>-0.00288830742656407</v>
+        <v>-0.001444153713282035</v>
       </c>
       <c r="R86" t="n">
         <v>9.835517075256834e-05</v>
@@ -11420,7 +11420,7 @@
         <v>0.0003606356260927506</v>
       </c>
       <c r="AK86" t="n">
-        <v>-0.007220768566410176</v>
+        <v>-0.003610384283205088</v>
       </c>
       <c r="AL86" t="n">
         <v>0.0005573459675978873</v>
@@ -11432,7 +11432,7 @@
         <v>0.00059013102451541</v>
       </c>
       <c r="AO86" t="n">
-        <v>-0.008343999232296204</v>
+        <v>-0.004171999616148102</v>
       </c>
       <c r="AP86" t="n">
         <v>0.000295065512257705</v>
@@ -11443,7 +11443,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.004326300514698998</v>
+        <v>-0.002163150257349499</v>
       </c>
       <c r="C87" t="n">
         <v>0.0001196965118862983</v>
@@ -11464,7 +11464,7 @@
         <v>0.0001595953491817311</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.003399236118692069</v>
+        <v>-0.001699618059346035</v>
       </c>
       <c r="J87" t="n">
         <v>0.0001196965118862983</v>
@@ -11482,13 +11482,13 @@
         <v>0.0002393930237725966</v>
       </c>
       <c r="O87" t="n">
-        <v>-0.004017279049363355</v>
+        <v>-0.002008639524681677</v>
       </c>
       <c r="P87" t="n">
-        <v>-0.003090214653356427</v>
+        <v>-0.001545107326678213</v>
       </c>
       <c r="Q87" t="n">
-        <v>-0.002781193188020784</v>
+        <v>-0.001390596594010392</v>
       </c>
       <c r="R87" t="n">
         <v>0.0001196965118862983</v>
@@ -11548,7 +11548,7 @@
         <v>0.0004388872102497604</v>
       </c>
       <c r="AK87" t="n">
-        <v>-0.006952982970051961</v>
+        <v>-0.00347649148502598</v>
       </c>
       <c r="AL87" t="n">
         <v>0.0006782802340223571</v>
@@ -11560,7 +11560,7 @@
         <v>0.0007181790713177898</v>
       </c>
       <c r="AO87" t="n">
-        <v>-0.00803455809872671</v>
+        <v>-0.004017279049363355</v>
       </c>
       <c r="AP87" t="n">
         <v>0.0003590895356588949</v>
@@ -11571,7 +11571,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.004324021639123536</v>
+        <v>-0.002162010819561768</v>
       </c>
       <c r="C88" t="n">
         <v>0.0001417143959483412</v>
@@ -11592,7 +11592,7 @@
         <v>0.0001889525279311216</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.003397445573597064</v>
+        <v>-0.001698722786798532</v>
       </c>
       <c r="J88" t="n">
         <v>0.0001417143959483412</v>
@@ -11610,13 +11610,13 @@
         <v>0.0002834287918966825</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.004015162950614712</v>
+        <v>-0.002007581475307356</v>
       </c>
       <c r="P88" t="n">
-        <v>-0.00308858688508824</v>
+        <v>-0.00154429344254412</v>
       </c>
       <c r="Q88" t="n">
-        <v>-0.002779728196579416</v>
+        <v>-0.001389864098289708</v>
       </c>
       <c r="R88" t="n">
         <v>0.0001417143959483412</v>
@@ -11676,7 +11676,7 @@
         <v>0.0005196194518105844</v>
       </c>
       <c r="AK88" t="n">
-        <v>-0.006949320491448541</v>
+        <v>-0.00347466024572427</v>
       </c>
       <c r="AL88" t="n">
         <v>0.000803048243707267</v>
@@ -11688,7 +11688,7 @@
         <v>0.0008502863756900473</v>
       </c>
       <c r="AO88" t="n">
-        <v>-0.008030325901229424</v>
+        <v>-0.004015162950614712</v>
       </c>
       <c r="AP88" t="n">
         <v>0.0004251431878450237</v>
@@ -11699,7 +11699,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.00464393959099104</v>
+        <v>-0.00232196979549552</v>
       </c>
       <c r="C89" t="n">
         <v>0.0001497761742929509</v>
@@ -11720,7 +11720,7 @@
         <v>0.0001997015657239345</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.003648809678635816</v>
+        <v>-0.001824404839317908</v>
       </c>
       <c r="J89" t="n">
         <v>0.0001497761742929509</v>
@@ -11738,13 +11738,13 @@
         <v>0.0002995523485859018</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.004312229620205965</v>
+        <v>-0.002156114810102983</v>
       </c>
       <c r="P89" t="n">
-        <v>-0.003317099707850742</v>
+        <v>-0.001658549853925371</v>
       </c>
       <c r="Q89" t="n">
-        <v>-0.002985389737065668</v>
+        <v>-0.001492694868532834</v>
       </c>
       <c r="R89" t="n">
         <v>0.0001497761742929509</v>
@@ -11804,7 +11804,7 @@
         <v>0.0005491793057408199</v>
       </c>
       <c r="AK89" t="n">
-        <v>-0.00746347434266417</v>
+        <v>-0.003731737171332085</v>
       </c>
       <c r="AL89" t="n">
         <v>0.0008487316543267217</v>
@@ -11816,7 +11816,7 @@
         <v>0.0008986570457577053</v>
       </c>
       <c r="AO89" t="n">
-        <v>-0.008624459240411929</v>
+        <v>-0.004312229620205965</v>
       </c>
       <c r="AP89" t="n">
         <v>0.0004493285228788527</v>
@@ -11827,7 +11827,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.004721662773874113</v>
+        <v>-0.002360831386937056</v>
       </c>
       <c r="C90" t="n">
         <v>0.0001591911733045864</v>
@@ -11848,7 +11848,7 @@
         <v>0.0002122548977394485</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.00370987789375823</v>
+        <v>-0.001854938946879115</v>
       </c>
       <c r="J90" t="n">
         <v>0.0001591911733045864</v>
@@ -11866,13 +11866,13 @@
         <v>0.0003183823466091728</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.004384401147168818</v>
+        <v>-0.002192200573584409</v>
       </c>
       <c r="P90" t="n">
-        <v>-0.003372616267052937</v>
+        <v>-0.001686308133526468</v>
       </c>
       <c r="Q90" t="n">
-        <v>-0.003035354640347643</v>
+        <v>-0.001517677320173822</v>
       </c>
       <c r="R90" t="n">
         <v>0.0001591911733045864</v>
@@ -11932,7 +11932,7 @@
         <v>0.0005837009687834834</v>
       </c>
       <c r="AK90" t="n">
-        <v>-0.00758838660086911</v>
+        <v>-0.003794193300434555</v>
       </c>
       <c r="AL90" t="n">
         <v>0.0009020833153926564</v>
@@ -11944,7 +11944,7 @@
         <v>0.0009551470398275183</v>
       </c>
       <c r="AO90" t="n">
-        <v>-0.008768802294337637</v>
+        <v>-0.004384401147168818</v>
       </c>
       <c r="AP90" t="n">
         <v>0.0004775735199137591</v>
@@ -11955,7 +11955,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.004874118838860661</v>
+        <v>-0.00243705941943033</v>
       </c>
       <c r="C91" t="n">
         <v>0.0001701024482647115</v>
@@ -11976,7 +11976,7 @@
         <v>0.0002268032643529487</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.003829664801961948</v>
+        <v>-0.001914832400980974</v>
       </c>
       <c r="J91" t="n">
         <v>0.0001701024482647115</v>
@@ -11994,13 +11994,13 @@
         <v>0.0003402048965294231</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.004525967493227757</v>
+        <v>-0.002262983746613878</v>
       </c>
       <c r="P91" t="n">
-        <v>-0.003481513456329043</v>
+        <v>-0.001740756728164522</v>
       </c>
       <c r="Q91" t="n">
-        <v>-0.003133362110696139</v>
+        <v>-0.001566681055348069</v>
       </c>
       <c r="R91" t="n">
         <v>0.0001701024482647115</v>
@@ -12060,7 +12060,7 @@
         <v>0.0006237089769706088</v>
       </c>
       <c r="AK91" t="n">
-        <v>-0.007833405276740348</v>
+        <v>-0.003916702638370174</v>
       </c>
       <c r="AL91" t="n">
         <v>0.000963913873500032</v>
@@ -12072,7 +12072,7 @@
         <v>0.001020614689588269</v>
       </c>
       <c r="AO91" t="n">
-        <v>-0.009051934986455512</v>
+        <v>-0.004525967493227756</v>
       </c>
       <c r="AP91" t="n">
         <v>0.0005103073447941345</v>
@@ -12083,7 +12083,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.00478767774156728</v>
+        <v>-0.00239383887078364</v>
       </c>
       <c r="C92" t="n">
         <v>0.0001892933153454319</v>
@@ -12104,7 +12104,7 @@
         <v>0.0002523910871272425</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.003761746796945721</v>
+        <v>-0.00188087339847286</v>
       </c>
       <c r="J92" t="n">
         <v>0.0001892933153454319</v>
@@ -12122,13 +12122,13 @@
         <v>0.0003785866306908638</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.004445700760026761</v>
+        <v>-0.002222850380013381</v>
       </c>
       <c r="P92" t="n">
-        <v>-0.0034197698154052</v>
+        <v>-0.0017098849077026</v>
       </c>
       <c r="Q92" t="n">
-        <v>-0.00307779283386468</v>
+        <v>-0.00153889641693234</v>
       </c>
       <c r="R92" t="n">
         <v>0.0001892933153454319</v>
@@ -12188,7 +12188,7 @@
         <v>0.0006940754895999169</v>
       </c>
       <c r="AK92" t="n">
-        <v>-0.0076944820846617</v>
+        <v>-0.00384724104233085</v>
       </c>
       <c r="AL92" t="n">
         <v>0.001072662120290781</v>
@@ -12200,7 +12200,7 @@
         <v>0.001135759892072591</v>
       </c>
       <c r="AO92" t="n">
-        <v>-0.008891401520053521</v>
+        <v>-0.004445700760026761</v>
       </c>
       <c r="AP92" t="n">
         <v>0.0005678799460362956</v>
@@ -12211,7 +12211,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.004727666111276557</v>
+        <v>-0.002363833055638278</v>
       </c>
       <c r="C93" t="n">
         <v>0.0002108373684264794</v>
@@ -12232,7 +12232,7 @@
         <v>0.0002811164912353059</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.003714594801717295</v>
+        <v>-0.001857297400858647</v>
       </c>
       <c r="J93" t="n">
         <v>0.0002108373684264794</v>
@@ -12250,13 +12250,13 @@
         <v>0.0004216747368529589</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.004389975674756803</v>
+        <v>-0.002194987837378402</v>
       </c>
       <c r="P93" t="n">
-        <v>-0.00337690436519754</v>
+        <v>-0.00168845218259877</v>
       </c>
       <c r="Q93" t="n">
-        <v>-0.003039213928677786</v>
+        <v>-0.001519606964338893</v>
       </c>
       <c r="R93" t="n">
         <v>0.0002108373684264794</v>
@@ -12316,7 +12316,7 @@
         <v>0.0007730703508970912</v>
       </c>
       <c r="AK93" t="n">
-        <v>-0.007598034821694467</v>
+        <v>-0.003799017410847233</v>
       </c>
       <c r="AL93" t="n">
         <v>0.00119474508775005</v>
@@ -12328,7 +12328,7 @@
         <v>0.001265024210558877</v>
       </c>
       <c r="AO93" t="n">
-        <v>-0.008779951349513607</v>
+        <v>-0.004389975674756803</v>
       </c>
       <c r="AP93" t="n">
         <v>0.0006325121052794383</v>
@@ -12339,7 +12339,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.004612748411654588</v>
+        <v>-0.002306374205827294</v>
       </c>
       <c r="C94" t="n">
         <v>0.0002359218030395872</v>
@@ -12360,7 +12360,7 @@
         <v>0.000314562404052783</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.00362430232344289</v>
+        <v>-0.001812151161721445</v>
       </c>
       <c r="J94" t="n">
         <v>0.0002359218030395872</v>
@@ -12378,13 +12378,13 @@
         <v>0.0004718436060791745</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.004283266382250689</v>
+        <v>-0.002141633191125344</v>
       </c>
       <c r="P94" t="n">
-        <v>-0.003294820294038991</v>
+        <v>-0.001647410147019496</v>
       </c>
       <c r="Q94" t="n">
-        <v>-0.002965338264635092</v>
+        <v>-0.001482669132317546</v>
       </c>
       <c r="R94" t="n">
         <v>0.0002359218030395872</v>
@@ -12444,7 +12444,7 @@
         <v>0.0008650466111451531</v>
       </c>
       <c r="AK94" t="n">
-        <v>-0.007413345661587729</v>
+        <v>-0.003706672830793865</v>
       </c>
       <c r="AL94" t="n">
         <v>0.001336890217224328</v>
@@ -12456,7 +12456,7 @@
         <v>0.001415530818237523</v>
       </c>
       <c r="AO94" t="n">
-        <v>-0.008566532764501377</v>
+        <v>-0.004283266382250689</v>
       </c>
       <c r="AP94" t="n">
         <v>0.0007077654091187616</v>
@@ -12467,7 +12467,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.004533587992775148</v>
+        <v>-0.002266793996387574</v>
       </c>
       <c r="C95" t="n">
         <v>0.0002550181373912103</v>
@@ -12488,7 +12488,7 @@
         <v>0.0003400241831882803</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.003562104851466187</v>
+        <v>-0.001781052425733094</v>
       </c>
       <c r="J95" t="n">
         <v>0.0002550181373912103</v>
@@ -12506,13 +12506,13 @@
         <v>0.0005100362747824205</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.004209760279005495</v>
+        <v>-0.002104880139502747</v>
       </c>
       <c r="P95" t="n">
-        <v>-0.003238277137696534</v>
+        <v>-0.001619138568848267</v>
       </c>
       <c r="Q95" t="n">
-        <v>-0.002914449423926881</v>
+        <v>-0.00145722471196344</v>
       </c>
       <c r="R95" t="n">
         <v>0.0002550181373912103</v>
@@ -12572,7 +12572,7 @@
         <v>0.0009350665037677708</v>
       </c>
       <c r="AK95" t="n">
-        <v>-0.007286123559817202</v>
+        <v>-0.003643061779908601</v>
       </c>
       <c r="AL95" t="n">
         <v>0.001445102778550192</v>
@@ -12584,7 +12584,7 @@
         <v>0.001530108824347261</v>
       </c>
       <c r="AO95" t="n">
-        <v>-0.00841952055801099</v>
+        <v>-0.004209760279005495</v>
       </c>
       <c r="AP95" t="n">
         <v>0.0007650544121736307</v>
@@ -12595,7 +12595,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.004417750028894346</v>
+        <v>-0.002208875014447173</v>
       </c>
       <c r="C96" t="n">
         <v>0.0002594551827237318</v>
@@ -12616,7 +12616,7 @@
         <v>0.0003459402436316425</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.003471089308416985</v>
+        <v>-0.001735544654208493</v>
       </c>
       <c r="J96" t="n">
         <v>0.0002594551827237318</v>
@@ -12634,13 +12634,13 @@
         <v>0.0005189103654474637</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.004102196455401892</v>
+        <v>-0.002051098227700946</v>
       </c>
       <c r="P96" t="n">
-        <v>-0.003155535734924532</v>
+        <v>-0.001577767867462266</v>
       </c>
       <c r="Q96" t="n">
-        <v>-0.002839982161432079</v>
+        <v>-0.00141999108071604</v>
       </c>
       <c r="R96" t="n">
         <v>0.0002594551827237318</v>
@@ -12700,7 +12700,7 @@
         <v>0.0009513356699870167</v>
       </c>
       <c r="AK96" t="n">
-        <v>-0.007099955403580199</v>
+        <v>-0.003549977701790099</v>
       </c>
       <c r="AL96" t="n">
         <v>0.001470246035434481</v>
@@ -12712,7 +12712,7 @@
         <v>0.001556731096342391</v>
       </c>
       <c r="AO96" t="n">
-        <v>-0.008204392910803784</v>
+        <v>-0.004102196455401892</v>
       </c>
       <c r="AP96" t="n">
         <v>0.0007783655481711954</v>
@@ -12723,7 +12723,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.004429834749648419</v>
+        <v>-0.002214917374824209</v>
       </c>
       <c r="C97" t="n">
         <v>0.0002521343284650329</v>
@@ -12744,7 +12744,7 @@
         <v>0.0003361791046200438</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.003480584446152328</v>
+        <v>-0.001740292223076164</v>
       </c>
       <c r="J97" t="n">
         <v>0.0002521343284650329</v>
@@ -12762,13 +12762,13 @@
         <v>0.0005042686569300658</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.004113417981816389</v>
+        <v>-0.002056708990908194</v>
       </c>
       <c r="P97" t="n">
-        <v>-0.003164167678320298</v>
+        <v>-0.001582083839160149</v>
       </c>
       <c r="Q97" t="n">
-        <v>-0.002847750910488269</v>
+        <v>-0.001423875455244134</v>
       </c>
       <c r="R97" t="n">
         <v>0.0002521343284650329</v>
@@ -12828,7 +12828,7 @@
         <v>0.0009244925377051205</v>
       </c>
       <c r="AK97" t="n">
-        <v>-0.007119377276220673</v>
+        <v>-0.003559688638110336</v>
       </c>
       <c r="AL97" t="n">
         <v>0.001428761194635186</v>
@@ -12840,7 +12840,7 @@
         <v>0.001512805970790197</v>
       </c>
       <c r="AO97" t="n">
-        <v>-0.008226835963632776</v>
+        <v>-0.004113417981816388</v>
       </c>
       <c r="AP97" t="n">
         <v>0.0007564029853950986</v>
@@ -12851,7 +12851,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.00421252547722071</v>
+        <v>-0.002106262738610355</v>
       </c>
       <c r="C98" t="n">
         <v>0.0002426499756303648</v>
@@ -12872,7 +12872,7 @@
         <v>0.0003235333008404865</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.0033098414463877</v>
+        <v>-0.00165492072319385</v>
       </c>
       <c r="J98" t="n">
         <v>0.0002426499756303648</v>
@@ -12890,13 +12890,13 @@
         <v>0.0004852999512607297</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.003911630800276374</v>
+        <v>-0.001955815400138187</v>
       </c>
       <c r="P98" t="n">
-        <v>-0.003008946769443364</v>
+        <v>-0.001504473384721682</v>
       </c>
       <c r="Q98" t="n">
-        <v>-0.002708052092499027</v>
+        <v>-0.001354026046249514</v>
       </c>
       <c r="R98" t="n">
         <v>0.0002426499756303648</v>
@@ -12956,7 +12956,7 @@
         <v>0.0008897165773113377</v>
       </c>
       <c r="AK98" t="n">
-        <v>-0.00677013023124757</v>
+        <v>-0.003385065115623785</v>
       </c>
       <c r="AL98" t="n">
         <v>0.001375016528572067</v>
@@ -12968,7 +12968,7 @@
         <v>0.001455899853782189</v>
       </c>
       <c r="AO98" t="n">
-        <v>-0.007823261600552746</v>
+        <v>-0.003911630800276373</v>
       </c>
       <c r="AP98" t="n">
         <v>0.0007279499268910945</v>
@@ -12979,7 +12979,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.00417012461772991</v>
+        <v>-0.002085062308864955</v>
       </c>
       <c r="C99" t="n">
         <v>0.0002322464977442788</v>
@@ -13000,7 +13000,7 @@
         <v>0.0003096619969923718</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.003276526485359215</v>
+        <v>-0.001638263242679607</v>
       </c>
       <c r="J99" t="n">
         <v>0.0002322464977442788</v>
@@ -13018,13 +13018,13 @@
         <v>0.0004644929954885577</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.003872258573606345</v>
+        <v>-0.001936129286803173</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.002978660441235649</v>
+        <v>-0.001489330220617825</v>
       </c>
       <c r="Q99" t="n">
-        <v>-0.002680794397112084</v>
+        <v>-0.001340397198556042</v>
       </c>
       <c r="R99" t="n">
         <v>0.0002322464977442788</v>
@@ -13084,7 +13084,7 @@
         <v>0.0008515704917290224</v>
       </c>
       <c r="AK99" t="n">
-        <v>-0.006701985992780212</v>
+        <v>-0.003350992996390106</v>
       </c>
       <c r="AL99" t="n">
         <v>0.00131606348721758</v>
@@ -13096,7 +13096,7 @@
         <v>0.001393478986465673</v>
       </c>
       <c r="AO99" t="n">
-        <v>-0.007744517147212688</v>
+        <v>-0.003872258573606344</v>
       </c>
       <c r="AP99" t="n">
         <v>0.0006967394932328364</v>
@@ -13107,7 +13107,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.004164613614678497</v>
+        <v>-0.002082306807339248</v>
       </c>
       <c r="C100" t="n">
         <v>0.0002270473630930532</v>
@@ -13128,7 +13128,7 @@
         <v>0.0003027298174574042</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.003272196411533104</v>
+        <v>-0.001636098205766552</v>
       </c>
       <c r="J100" t="n">
         <v>0.0002270473630930532</v>
@@ -13146,13 +13146,13 @@
         <v>0.0004540947261861064</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.003867141213630033</v>
+        <v>-0.001933570606815016</v>
       </c>
       <c r="P100" t="n">
-        <v>-0.00297472401048464</v>
+        <v>-0.00148736200524232</v>
       </c>
       <c r="Q100" t="n">
-        <v>-0.002677251609436176</v>
+        <v>-0.001338625804718088</v>
       </c>
       <c r="R100" t="n">
         <v>0.0002270473630930532</v>
@@ -13212,7 +13212,7 @@
         <v>0.0008325069980078616</v>
       </c>
       <c r="AK100" t="n">
-        <v>-0.006693129023590441</v>
+        <v>-0.003346564511795221</v>
       </c>
       <c r="AL100" t="n">
         <v>0.001286601724193968</v>
@@ -13224,7 +13224,7 @@
         <v>0.001362284178558319</v>
       </c>
       <c r="AO100" t="n">
-        <v>-0.007734282427260064</v>
+        <v>-0.003867141213630032</v>
       </c>
       <c r="AP100" t="n">
         <v>0.0006811420892791595</v>
@@ -13235,7 +13235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.004200029527069151</v>
+        <v>-0.002100014763534576</v>
       </c>
       <c r="C101" t="n">
         <v>0.0002270695884258098</v>
@@ -13256,7 +13256,7 @@
         <v>0.0003027594512344131</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.003300023199840048</v>
+        <v>-0.001650011599920024</v>
       </c>
       <c r="J101" t="n">
         <v>0.0002270695884258098</v>
@@ -13274,13 +13274,13 @@
         <v>0.0004541391768516196</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.003900027417992784</v>
+        <v>-0.001950013708996392</v>
       </c>
       <c r="P101" t="n">
-        <v>-0.003000021090763679</v>
+        <v>-0.00150001054538184</v>
       </c>
       <c r="Q101" t="n">
-        <v>-0.002700018981687312</v>
+        <v>-0.001350009490843656</v>
       </c>
       <c r="R101" t="n">
         <v>0.0002270695884258098</v>
@@ -13340,7 +13340,7 @@
         <v>0.0008325884908946359</v>
       </c>
       <c r="AK101" t="n">
-        <v>-0.00675004745421828</v>
+        <v>-0.00337502372710914</v>
       </c>
       <c r="AL101" t="n">
         <v>0.001286727667746256</v>
@@ -13352,7 +13352,7 @@
         <v>0.001362417530554859</v>
       </c>
       <c r="AO101" t="n">
-        <v>-0.007800054835985567</v>
+        <v>-0.003900027417992784</v>
       </c>
       <c r="AP101" t="n">
         <v>0.0006812087652774293</v>
@@ -13363,7 +13363,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.00427612292203251</v>
+        <v>-0.002138061461016255</v>
       </c>
       <c r="C102" t="n">
         <v>0.0002212866389543327</v>
@@ -13384,7 +13384,7 @@
         <v>0.0002950488519391103</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.003359810867311257</v>
+        <v>-0.001679905433655629</v>
       </c>
       <c r="J102" t="n">
         <v>0.0002212866389543327</v>
@@ -13402,13 +13402,13 @@
         <v>0.0004425732779086655</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.003970685570458759</v>
+        <v>-0.00198534278522938</v>
       </c>
       <c r="P102" t="n">
-        <v>-0.003054373515737507</v>
+        <v>-0.001527186757868753</v>
       </c>
       <c r="Q102" t="n">
-        <v>-0.002748936164163756</v>
+        <v>-0.001374468082081878</v>
       </c>
       <c r="R102" t="n">
         <v>0.0002212866389543327</v>
@@ -13468,7 +13468,7 @@
         <v>0.0008113843428325532</v>
       </c>
       <c r="AK102" t="n">
-        <v>-0.00687234041040939</v>
+        <v>-0.003436170205204695</v>
       </c>
       <c r="AL102" t="n">
         <v>0.001253957620741219</v>
@@ -13480,7 +13480,7 @@
         <v>0.001327719833725996</v>
       </c>
       <c r="AO102" t="n">
-        <v>-0.007941371140917518</v>
+        <v>-0.003970685570458759</v>
       </c>
       <c r="AP102" t="n">
         <v>0.0006638599168629981</v>
@@ -13491,7 +13491,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.004365347878648809</v>
+        <v>-0.002182673939324404</v>
       </c>
       <c r="C103" t="n">
         <v>0.0002117976290331207</v>
@@ -13512,7 +13512,7 @@
         <v>0.0002823968387108275</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.00342991619036692</v>
+        <v>-0.00171495809518346</v>
       </c>
       <c r="J103" t="n">
         <v>0.0002117976290331207</v>
@@ -13530,13 +13530,13 @@
         <v>0.0004235952580662413</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.004053537315888179</v>
+        <v>-0.002026768657944089</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.003118105627606291</v>
+        <v>-0.001559052813803145</v>
       </c>
       <c r="Q103" t="n">
-        <v>-0.002806295064845662</v>
+        <v>-0.001403147532422831</v>
       </c>
       <c r="R103" t="n">
         <v>0.0002117976290331207</v>
@@ -13596,7 +13596,7 @@
         <v>0.0007765913064547757</v>
       </c>
       <c r="AK103" t="n">
-        <v>-0.007015737662114154</v>
+        <v>-0.003507868831057077</v>
       </c>
       <c r="AL103" t="n">
         <v>0.001200186564521017</v>
@@ -13608,7 +13608,7 @@
         <v>0.001270785774198724</v>
       </c>
       <c r="AO103" t="n">
-        <v>-0.008107074631776357</v>
+        <v>-0.004053537315888179</v>
       </c>
       <c r="AP103" t="n">
         <v>0.0006353928870993619</v>
@@ -13619,7 +13619,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.004491277167223603</v>
+        <v>-0.002245638583611802</v>
       </c>
       <c r="C104" t="n">
         <v>0.0002010904600824036</v>
@@ -13640,7 +13640,7 @@
         <v>0.0002681206134432048</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.003528860631389974</v>
+        <v>-0.001764430315694987</v>
       </c>
       <c r="J104" t="n">
         <v>0.0002010904600824036</v>
@@ -13658,13 +13658,13 @@
         <v>0.0004021809201648072</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.004170471655279061</v>
+        <v>-0.002085235827639531</v>
       </c>
       <c r="P104" t="n">
-        <v>-0.003208055119445431</v>
+        <v>-0.001604027559722715</v>
       </c>
       <c r="Q104" t="n">
-        <v>-0.002887249607500888</v>
+        <v>-0.001443624803750444</v>
       </c>
       <c r="R104" t="n">
         <v>0.0002010904600824036</v>
@@ -13724,7 +13724,7 @@
         <v>0.0007373316869688132</v>
       </c>
       <c r="AK104" t="n">
-        <v>-0.00721812401875222</v>
+        <v>-0.00360906200937611</v>
       </c>
       <c r="AL104" t="n">
         <v>0.001139512607133621</v>
@@ -13736,7 +13736,7 @@
         <v>0.001206542760494422</v>
       </c>
       <c r="AO104" t="n">
-        <v>-0.008340943310558121</v>
+        <v>-0.00417047165527906</v>
       </c>
       <c r="AP104" t="n">
         <v>0.0006032713802472108</v>
@@ -13747,7 +13747,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.004657611604306903</v>
+        <v>-0.002328805802153451</v>
       </c>
       <c r="C105" t="n">
         <v>0.0001818272764137244</v>
@@ -13768,7 +13768,7 @@
         <v>0.0002424363685516325</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.003659551974812567</v>
+        <v>-0.001829775987406283</v>
       </c>
       <c r="J105" t="n">
         <v>0.0001818272764137244</v>
@@ -13786,13 +13786,13 @@
         <v>0.0003636545528274488</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.004324925061142125</v>
+        <v>-0.002162462530571062</v>
       </c>
       <c r="P105" t="n">
-        <v>-0.003326865431647788</v>
+        <v>-0.001663432715823894</v>
       </c>
       <c r="Q105" t="n">
-        <v>-0.002994178888483009</v>
+        <v>-0.001497089444241505</v>
       </c>
       <c r="R105" t="n">
         <v>0.0001818272764137244</v>
@@ -13852,7 +13852,7 @@
         <v>0.0006667000135169894</v>
       </c>
       <c r="AK105" t="n">
-        <v>-0.007485447221207523</v>
+        <v>-0.003742723610603761</v>
       </c>
       <c r="AL105" t="n">
         <v>0.001030354566344438</v>
@@ -13864,7 +13864,7 @@
         <v>0.001090963658482346</v>
       </c>
       <c r="AO105" t="n">
-        <v>-0.008649850122284248</v>
+        <v>-0.004324925061142124</v>
       </c>
       <c r="AP105" t="n">
         <v>0.0005454818292411731</v>
@@ -13875,7 +13875,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.004783384304928574</v>
+        <v>-0.002391692152464287</v>
       </c>
       <c r="C106" t="n">
         <v>0.0001477664085948967</v>
@@ -13896,7 +13896,7 @@
         <v>0.0001970218781265289</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.00375837338244388</v>
+        <v>-0.00187918669122194</v>
       </c>
       <c r="J106" t="n">
         <v>0.0001477664085948967</v>
@@ -13914,13 +13914,13 @@
         <v>0.0002955328171897934</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.004441713997433676</v>
+        <v>-0.002220856998716838</v>
       </c>
       <c r="P106" t="n">
-        <v>-0.003416703074948981</v>
+        <v>-0.001708351537474491</v>
       </c>
       <c r="Q106" t="n">
-        <v>-0.003075032767454083</v>
+        <v>-0.001537516383727042</v>
       </c>
       <c r="R106" t="n">
         <v>0.0001477664085948967</v>
@@ -13980,7 +13980,7 @@
         <v>0.0005418101648479545</v>
       </c>
       <c r="AK106" t="n">
-        <v>-0.007687581918635208</v>
+        <v>-0.003843790959317604</v>
       </c>
       <c r="AL106" t="n">
         <v>0.0008373429820377479</v>
@@ -13992,7 +13992,7 @@
         <v>0.00088659845156938</v>
       </c>
       <c r="AO106" t="n">
-        <v>-0.008883427994867353</v>
+        <v>-0.004441713997433676</v>
       </c>
       <c r="AP106" t="n">
         <v>0.00044329922578469</v>
@@ -14003,7 +14003,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.00468098504327403</v>
+        <v>-0.002340492521637015</v>
       </c>
       <c r="C107" t="n">
         <v>0.0001099335182104094</v>
@@ -14024,7 +14024,7 @@
         <v>0.0001465780242805459</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.003677916819715309</v>
+        <v>-0.001838958409857654</v>
       </c>
       <c r="J107" t="n">
         <v>0.0001099335182104094</v>
@@ -14042,13 +14042,13 @@
         <v>0.0002198670364208188</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.004346628968754456</v>
+        <v>-0.002173314484377228</v>
       </c>
       <c r="P107" t="n">
-        <v>-0.003343560745195735</v>
+        <v>-0.001671780372597867</v>
       </c>
       <c r="Q107" t="n">
-        <v>-0.003009204670676161</v>
+        <v>-0.001504602335338081</v>
       </c>
       <c r="R107" t="n">
         <v>0.0001099335182104094</v>
@@ -14108,7 +14108,7 @@
         <v>0.0004030895667715012</v>
       </c>
       <c r="AK107" t="n">
-        <v>-0.007523011676690403</v>
+        <v>-0.003761505838345201</v>
       </c>
       <c r="AL107" t="n">
         <v>0.0006229566031923201</v>
@@ -14120,7 +14120,7 @@
         <v>0.0006596011092624565</v>
       </c>
       <c r="AO107" t="n">
-        <v>-0.008693257937508912</v>
+        <v>-0.004346628968754456</v>
       </c>
       <c r="AP107" t="n">
         <v>0.0003298005546312283</v>
@@ -14131,7 +14131,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.004546220771365155</v>
+        <v>-0.002273110385682578</v>
       </c>
       <c r="C108" t="n">
         <v>8.574879901499839e-05</v>
@@ -14152,7 +14152,7 @@
         <v>0.0001143317320199979</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.003572030606072622</v>
+        <v>-0.001786015303036311</v>
       </c>
       <c r="J108" t="n">
         <v>8.574879901499839e-05</v>
@@ -14170,13 +14170,13 @@
         <v>0.0001714975980299968</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.004221490716267645</v>
+        <v>-0.002110745358133822</v>
       </c>
       <c r="P108" t="n">
-        <v>-0.003247300550975111</v>
+        <v>-0.001623650275487555</v>
       </c>
       <c r="Q108" t="n">
-        <v>-0.0029225704958776</v>
+        <v>-0.0014612852479388</v>
       </c>
       <c r="R108" t="n">
         <v>8.574879901499839e-05</v>
@@ -14236,7 +14236,7 @@
         <v>0.0003144122630549941</v>
       </c>
       <c r="AK108" t="n">
-        <v>-0.007306426239693999</v>
+        <v>-0.003653213119846999</v>
       </c>
       <c r="AL108" t="n">
         <v>0.0004859098610849909</v>
@@ -14248,7 +14248,7 @@
         <v>0.0005144927940899903</v>
       </c>
       <c r="AO108" t="n">
-        <v>-0.008442981432535289</v>
+        <v>-0.004221490716267645</v>
       </c>
       <c r="AP108" t="n">
         <v>0.0002572463970449952</v>
@@ -14259,7 +14259,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.004379709077380325</v>
+        <v>-0.002189854538690163</v>
       </c>
       <c r="C109" t="n">
         <v>7.916558743452033e-05</v>
@@ -14280,7 +14280,7 @@
         <v>0.0001055541165793604</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.003441199989370255</v>
+        <v>-0.001720599994685128</v>
       </c>
       <c r="J109" t="n">
         <v>7.916558743452033e-05</v>
@@ -14298,13 +14298,13 @@
         <v>0.0001583311748690407</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.004066872714710302</v>
+        <v>-0.002033436357355151</v>
       </c>
       <c r="P109" t="n">
-        <v>-0.003128363626700232</v>
+        <v>-0.001564181813350116</v>
       </c>
       <c r="Q109" t="n">
-        <v>-0.002815527264030209</v>
+        <v>-0.001407763632015104</v>
       </c>
       <c r="R109" t="n">
         <v>7.916558743452033e-05</v>
@@ -14364,7 +14364,7 @@
         <v>0.0002902738205932412</v>
       </c>
       <c r="AK109" t="n">
-        <v>-0.007038818160075523</v>
+        <v>-0.003519409080037761</v>
       </c>
       <c r="AL109" t="n">
         <v>0.0004486049954622819</v>
@@ -14376,7 +14376,7 @@
         <v>0.000474993524607122</v>
       </c>
       <c r="AO109" t="n">
-        <v>-0.008133745429420604</v>
+        <v>-0.004066872714710302</v>
       </c>
       <c r="AP109" t="n">
         <v>0.000237496762303561</v>
@@ -14387,7 +14387,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.004362432482138233</v>
+        <v>-0.002181216241069117</v>
       </c>
       <c r="C110" t="n">
         <v>9.030423851740978e-05</v>
@@ -14408,7 +14408,7 @@
         <v>0.0001204056513565464</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.00342762552168004</v>
+        <v>-0.00171381276084002</v>
       </c>
       <c r="J110" t="n">
         <v>9.030423851740978e-05</v>
@@ -14426,13 +14426,13 @@
         <v>0.0001806084770348196</v>
       </c>
       <c r="O110" t="n">
-        <v>-0.004050830161985502</v>
+        <v>-0.002025415080992751</v>
       </c>
       <c r="P110" t="n">
-        <v>-0.003116023201527309</v>
+        <v>-0.001558011600763655</v>
       </c>
       <c r="Q110" t="n">
-        <v>-0.002804420881374578</v>
+        <v>-0.001402210440687289</v>
       </c>
       <c r="R110" t="n">
         <v>9.030423851740978e-05</v>
@@ -14492,7 +14492,7 @@
         <v>0.0003311155412305025</v>
       </c>
       <c r="AK110" t="n">
-        <v>-0.007011052203436446</v>
+        <v>-0.003505526101718223</v>
       </c>
       <c r="AL110" t="n">
         <v>0.0005117240182653222</v>
@@ -14504,7 +14504,7 @@
         <v>0.0005418254311044587</v>
       </c>
       <c r="AO110" t="n">
-        <v>-0.008101660323971005</v>
+        <v>-0.004050830161985502</v>
       </c>
       <c r="AP110" t="n">
         <v>0.0002709127155522293</v>
@@ -14515,7 +14515,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.004387113356105734</v>
+        <v>-0.002193556678052867</v>
       </c>
       <c r="C111" t="n">
         <v>0.0001115310949828488</v>
@@ -14536,7 +14536,7 @@
         <v>0.0001487081266437983</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.003447017636940219</v>
+        <v>-0.00172350881847011</v>
       </c>
       <c r="J111" t="n">
         <v>0.0001115310949828488</v>
@@ -14554,13 +14554,13 @@
         <v>0.0002230621899656975</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.004073748116383897</v>
+        <v>-0.002036874058191948</v>
       </c>
       <c r="P111" t="n">
-        <v>-0.003133652397218381</v>
+        <v>-0.00156682619860919</v>
       </c>
       <c r="Q111" t="n">
-        <v>-0.002820287157496543</v>
+        <v>-0.001410143578748272</v>
       </c>
       <c r="R111" t="n">
         <v>0.0001115310949828488</v>
@@ -14620,7 +14620,7 @@
         <v>0.0004089473482704454</v>
       </c>
       <c r="AK111" t="n">
-        <v>-0.007050717893741357</v>
+        <v>-0.003525358946870678</v>
       </c>
       <c r="AL111" t="n">
         <v>0.000632009538236143</v>
@@ -14632,7 +14632,7 @@
         <v>0.0006691865698970925</v>
       </c>
       <c r="AO111" t="n">
-        <v>-0.008147496232767792</v>
+        <v>-0.004073748116383896</v>
       </c>
       <c r="AP111" t="n">
         <v>0.0003345932849485463</v>
@@ -14643,7 +14643,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.004477515450671657</v>
+        <v>-0.002238757725335828</v>
       </c>
       <c r="C112" t="n">
         <v>0.000139885576445757</v>
@@ -14664,7 +14664,7 @@
         <v>0.0001865141019276759</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.003518047854099159</v>
+        <v>-0.00175902392704958</v>
       </c>
       <c r="J112" t="n">
         <v>0.000139885576445757</v>
@@ -14682,13 +14682,13 @@
         <v>0.000279771152891514</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.004157692918480825</v>
+        <v>-0.002078846459240412</v>
       </c>
       <c r="P112" t="n">
-        <v>-0.003198225321908326</v>
+        <v>-0.001599112660954163</v>
       </c>
       <c r="Q112" t="n">
-        <v>-0.002878402789717494</v>
+        <v>-0.001439201394858747</v>
       </c>
       <c r="R112" t="n">
         <v>0.000139885576445757</v>
@@ -14748,7 +14748,7 @@
         <v>0.0005129137803011088</v>
       </c>
       <c r="AK112" t="n">
-        <v>-0.007196006974293735</v>
+        <v>-0.003598003487146867</v>
       </c>
       <c r="AL112" t="n">
         <v>0.0007926849331926229</v>
@@ -14760,7 +14760,7 @@
         <v>0.0008393134586745418</v>
       </c>
       <c r="AO112" t="n">
-        <v>-0.008315385836961649</v>
+        <v>-0.004157692918480825</v>
       </c>
       <c r="AP112" t="n">
         <v>0.0004196567293372709</v>
@@ -14771,7 +14771,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.004545363092682095</v>
+        <v>-0.002272681546341047</v>
       </c>
       <c r="C113" t="n">
         <v>0.0001507958066252824</v>
@@ -14792,7 +14792,7 @@
         <v>0.0002010610755003766</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.003571356715678789</v>
+        <v>-0.001785678357839394</v>
       </c>
       <c r="J113" t="n">
         <v>0.0001507958066252824</v>
@@ -14810,13 +14810,13 @@
         <v>0.0003015916132505648</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.00422069430034766</v>
+        <v>-0.00211034715017383</v>
       </c>
       <c r="P113" t="n">
-        <v>-0.003246687923344353</v>
+        <v>-0.001623343961672177</v>
       </c>
       <c r="Q113" t="n">
-        <v>-0.002922019131009918</v>
+        <v>-0.001461009565504959</v>
       </c>
       <c r="R113" t="n">
         <v>0.0001507958066252824</v>
@@ -14876,7 +14876,7 @@
         <v>0.0005529179576260355</v>
       </c>
       <c r="AK113" t="n">
-        <v>-0.007305047827524795</v>
+        <v>-0.003652523913762397</v>
       </c>
       <c r="AL113" t="n">
         <v>0.0008545095708766004</v>
@@ -14888,7 +14888,7 @@
         <v>0.0009047748397516944</v>
       </c>
       <c r="AO113" t="n">
-        <v>-0.008441388600695319</v>
+        <v>-0.00422069430034766</v>
       </c>
       <c r="AP113" t="n">
         <v>0.0004523874198758472</v>
@@ -14899,7 +14899,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.0046566676120953</v>
+        <v>-0.00232833380604765</v>
       </c>
       <c r="C114" t="n">
         <v>0.0001585412462386468</v>
@@ -14920,7 +14920,7 @@
         <v>0.0002113883283181958</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.003658810266646308</v>
+        <v>-0.001829405133323154</v>
       </c>
       <c r="J114" t="n">
         <v>0.0001585412462386468</v>
@@ -14938,13 +14938,13 @@
         <v>0.0003170824924772937</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.004324048496945637</v>
+        <v>-0.002162024248472819</v>
       </c>
       <c r="P114" t="n">
-        <v>-0.003326191151496643</v>
+        <v>-0.001663095575748321</v>
       </c>
       <c r="Q114" t="n">
-        <v>-0.002993572036346979</v>
+        <v>-0.001496786018173489</v>
       </c>
       <c r="R114" t="n">
         <v>0.0001585412462386468</v>
@@ -15004,7 +15004,7 @@
         <v>0.0005813179028750384</v>
       </c>
       <c r="AK114" t="n">
-        <v>-0.007483930090867446</v>
+        <v>-0.003741965045433723</v>
       </c>
       <c r="AL114" t="n">
         <v>0.0008984003953523322</v>
@@ -15016,7 +15016,7 @@
         <v>0.0009512474774318809</v>
       </c>
       <c r="AO114" t="n">
-        <v>-0.008648096993891272</v>
+        <v>-0.004324048496945636</v>
       </c>
       <c r="AP114" t="n">
         <v>0.0004756237387159405</v>
@@ -15027,7 +15027,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.004590607007364052</v>
+        <v>-0.002295303503682026</v>
       </c>
       <c r="C115" t="n">
         <v>0.0001683557803815376</v>
@@ -15048,7 +15048,7 @@
         <v>0.0002244743738420501</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.00360690550578604</v>
+        <v>-0.00180345275289302</v>
       </c>
       <c r="J115" t="n">
         <v>0.0001683557803815376</v>
@@ -15066,13 +15066,13 @@
         <v>0.0003367115607630752</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.004262706506838048</v>
+        <v>-0.002131353253419024</v>
       </c>
       <c r="P115" t="n">
-        <v>-0.003279005005260037</v>
+        <v>-0.001639502502630018</v>
       </c>
       <c r="Q115" t="n">
-        <v>-0.002951104504734033</v>
+        <v>-0.001475552252367017</v>
       </c>
       <c r="R115" t="n">
         <v>0.0001683557803815376</v>
@@ -15132,7 +15132,7 @@
         <v>0.0006173045280656378</v>
       </c>
       <c r="AK115" t="n">
-        <v>-0.007377761261835082</v>
+        <v>-0.003688880630917541</v>
       </c>
       <c r="AL115" t="n">
         <v>0.0009540160888287131</v>
@@ -15144,7 +15144,7 @@
         <v>0.001010134682289226</v>
       </c>
       <c r="AO115" t="n">
-        <v>-0.008525413013676096</v>
+        <v>-0.004262706506838048</v>
       </c>
       <c r="AP115" t="n">
         <v>0.0005050673411446128</v>
@@ -15155,7 +15155,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.004612602654230427</v>
+        <v>-0.002306301327115214</v>
       </c>
       <c r="C116" t="n">
         <v>0.0001872027859623124</v>
@@ -15176,7 +15176,7 @@
         <v>0.0002496037146164164</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.003624187799752478</v>
+        <v>-0.001812093899876239</v>
       </c>
       <c r="J116" t="n">
         <v>0.0001872027859623124</v>
@@ -15194,13 +15194,13 @@
         <v>0.0003744055719246247</v>
       </c>
       <c r="O116" t="n">
-        <v>-0.004283131036071111</v>
+        <v>-0.002141565518035556</v>
       </c>
       <c r="P116" t="n">
-        <v>-0.003294716181593162</v>
+        <v>-0.001647358090796581</v>
       </c>
       <c r="Q116" t="n">
-        <v>-0.002965244563433846</v>
+        <v>-0.001482622281716923</v>
       </c>
       <c r="R116" t="n">
         <v>0.0001872027859623124</v>
@@ -15260,7 +15260,7 @@
         <v>0.0006864102151951452</v>
       </c>
       <c r="AK116" t="n">
-        <v>-0.007413111408584614</v>
+        <v>-0.003706555704292307</v>
       </c>
       <c r="AL116" t="n">
         <v>0.00106081578711977</v>
@@ -15272,7 +15272,7 @@
         <v>0.001123216715773874</v>
       </c>
       <c r="AO116" t="n">
-        <v>-0.008566262072142221</v>
+        <v>-0.00428313103607111</v>
       </c>
       <c r="AP116" t="n">
         <v>0.000561608357886937</v>
@@ -15283,7 +15283,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.004326174268762133</v>
+        <v>-0.002163087134381066</v>
       </c>
       <c r="C117" t="n">
         <v>0.0002123191798318282</v>
@@ -15304,7 +15304,7 @@
         <v>0.0002830922397757709</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.003399136925455962</v>
+        <v>-0.001699568462727981</v>
       </c>
       <c r="J117" t="n">
         <v>0.0002123191798318282</v>
@@ -15322,13 +15322,13 @@
         <v>0.0004246383596636564</v>
       </c>
       <c r="O117" t="n">
-        <v>-0.00401716182099341</v>
+        <v>-0.002008580910496705</v>
       </c>
       <c r="P117" t="n">
-        <v>-0.003090124477687238</v>
+        <v>-0.001545062238843619</v>
       </c>
       <c r="Q117" t="n">
-        <v>-0.002781112029918514</v>
+        <v>-0.001390556014959257</v>
       </c>
       <c r="R117" t="n">
         <v>0.0002123191798318282</v>
@@ -15388,7 +15388,7 @@
         <v>0.00077850365938337</v>
       </c>
       <c r="AK117" t="n">
-        <v>-0.006952780074796285</v>
+        <v>-0.003476390037398143</v>
       </c>
       <c r="AL117" t="n">
         <v>0.001203142019047026</v>
@@ -15400,7 +15400,7 @@
         <v>0.001273915078990969</v>
       </c>
       <c r="AO117" t="n">
-        <v>-0.008034323641986817</v>
+        <v>-0.004017161820993409</v>
       </c>
       <c r="AP117" t="n">
         <v>0.0006369575394954845</v>
@@ -15411,7 +15411,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.004311232024553024</v>
+        <v>-0.002155616012276512</v>
       </c>
       <c r="C118" t="n">
         <v>0.0002396321345279027</v>
@@ -15432,7 +15432,7 @@
         <v>0.0003195095127038702</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.003387396590720233</v>
+        <v>-0.001693698295360117</v>
       </c>
       <c r="J118" t="n">
         <v>0.0002396321345279027</v>
@@ -15450,13 +15450,13 @@
         <v>0.0004792642690558054</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.004003286879942094</v>
+        <v>-0.002001643439971047</v>
       </c>
       <c r="P118" t="n">
-        <v>-0.003079451446109303</v>
+        <v>-0.001539725723054651</v>
       </c>
       <c r="Q118" t="n">
-        <v>-0.002771506301498372</v>
+        <v>-0.001385753150749186</v>
       </c>
       <c r="R118" t="n">
         <v>0.0002396321345279027</v>
@@ -15516,7 +15516,7 @@
         <v>0.0008786511599356431</v>
       </c>
       <c r="AK118" t="n">
-        <v>-0.006928765753745932</v>
+        <v>-0.003464382876872966</v>
       </c>
       <c r="AL118" t="n">
         <v>0.001357915428991449</v>
@@ -15528,7 +15528,7 @@
         <v>0.001437792807167416</v>
       </c>
       <c r="AO118" t="n">
-        <v>-0.008006573759884188</v>
+        <v>-0.004003286879942094</v>
       </c>
       <c r="AP118" t="n">
         <v>0.000718896403583708</v>
@@ -15539,7 +15539,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.004277767674270871</v>
+        <v>-0.002138883837135435</v>
       </c>
       <c r="C119" t="n">
         <v>0.0002567341879942302</v>
@@ -15560,7 +15560,7 @@
         <v>0.0003423122506589737</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.003361103172641398</v>
+        <v>-0.001680551586320699</v>
       </c>
       <c r="J119" t="n">
         <v>0.0002567341879942302</v>
@@ -15578,13 +15578,13 @@
         <v>0.0005134683759884604</v>
       </c>
       <c r="O119" t="n">
-        <v>-0.003972212840394381</v>
+        <v>-0.00198610642019719</v>
       </c>
       <c r="P119" t="n">
-        <v>-0.003055548338764907</v>
+        <v>-0.001527774169382454</v>
       </c>
       <c r="Q119" t="n">
-        <v>-0.002749993504888417</v>
+        <v>-0.001374996752444208</v>
       </c>
       <c r="R119" t="n">
         <v>0.0002567341879942302</v>
@@ -15644,7 +15644,7 @@
         <v>0.0009413586893121774</v>
       </c>
       <c r="AK119" t="n">
-        <v>-0.006874983762221042</v>
+        <v>-0.003437491881110521</v>
       </c>
       <c r="AL119" t="n">
         <v>0.001454827065300638</v>
@@ -15656,7 +15656,7 @@
         <v>0.001540405127965381</v>
       </c>
       <c r="AO119" t="n">
-        <v>-0.00794442568078876</v>
+        <v>-0.00397221284039438</v>
       </c>
       <c r="AP119" t="n">
         <v>0.0007702025639826906</v>
@@ -15667,7 +15667,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.004377102557634731</v>
+        <v>-0.002188551278817365</v>
       </c>
       <c r="C120" t="n">
         <v>0.0002600536060891423</v>
@@ -15688,7 +15688,7 @@
         <v>0.0003467381414521897</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.003439152009570145</v>
+        <v>-0.001719576004785073</v>
       </c>
       <c r="J120" t="n">
         <v>0.0002600536060891423</v>
@@ -15706,13 +15706,13 @@
         <v>0.0005201072121782845</v>
       </c>
       <c r="O120" t="n">
-        <v>-0.004064452374946536</v>
+        <v>-0.002032226187473268</v>
       </c>
       <c r="P120" t="n">
-        <v>-0.003126501826881949</v>
+        <v>-0.001563250913440975</v>
       </c>
       <c r="Q120" t="n">
-        <v>-0.002813851644193755</v>
+        <v>-0.001406925822096878</v>
       </c>
       <c r="R120" t="n">
         <v>0.0002600536060891423</v>
@@ -15772,7 +15772,7 @@
         <v>0.0009535298889935215</v>
       </c>
       <c r="AK120" t="n">
-        <v>-0.007034629110484388</v>
+        <v>-0.003517314555242194</v>
       </c>
       <c r="AL120" t="n">
         <v>0.001473637101171806</v>
@@ -15784,7 +15784,7 @@
         <v>0.001560321636534853</v>
       </c>
       <c r="AO120" t="n">
-        <v>-0.008128904749893071</v>
+        <v>-0.004064452374946535</v>
       </c>
       <c r="AP120" t="n">
         <v>0.0007801608182674267</v>
@@ -15795,7 +15795,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.004321887611538505</v>
+        <v>-0.002160943805769252</v>
       </c>
       <c r="C121" t="n">
         <v>0.0002525310141946527</v>
@@ -15816,7 +15816,7 @@
         <v>0.0003367080189262036</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.003395768837637396</v>
+        <v>-0.001697884418818698</v>
       </c>
       <c r="J121" t="n">
         <v>0.0002525310141946527</v>
@@ -15834,13 +15834,13 @@
         <v>0.0005050620283893055</v>
       </c>
       <c r="O121" t="n">
-        <v>-0.004013181353571469</v>
+        <v>-0.002006590676785735</v>
       </c>
       <c r="P121" t="n">
-        <v>-0.00308706257967036</v>
+        <v>-0.00154353128983518</v>
       </c>
       <c r="Q121" t="n">
-        <v>-0.002778356321703324</v>
+        <v>-0.001389178160851662</v>
       </c>
       <c r="R121" t="n">
         <v>0.0002525310141946527</v>
@@ -15900,7 +15900,7 @@
         <v>0.0009259470520470599</v>
       </c>
       <c r="AK121" t="n">
-        <v>-0.006945890804258311</v>
+        <v>-0.003472945402129155</v>
       </c>
       <c r="AL121" t="n">
         <v>0.001431009080436365</v>
@@ -15912,7 +15912,7 @@
         <v>0.001515186085167916</v>
       </c>
       <c r="AO121" t="n">
-        <v>-0.008026362707142937</v>
+        <v>-0.004013181353571468</v>
       </c>
       <c r="AP121" t="n">
         <v>0.000757593042583958</v>
@@ -15923,7 +15923,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.004484034188971555</v>
+        <v>-0.002242017094485778</v>
       </c>
       <c r="C122" t="n">
         <v>0.0002525688223840953</v>
@@ -15944,7 +15944,7 @@
         <v>0.0003367584298454603</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.003523169719906222</v>
+        <v>-0.001761584859953111</v>
       </c>
       <c r="J122" t="n">
         <v>0.0002525688223840953</v>
@@ -15962,13 +15962,13 @@
         <v>0.0005051376447681906</v>
       </c>
       <c r="O122" t="n">
-        <v>-0.004163746032616444</v>
+        <v>-0.002081873016308222</v>
       </c>
       <c r="P122" t="n">
-        <v>-0.00320288156355111</v>
+        <v>-0.001601440781775555</v>
       </c>
       <c r="Q122" t="n">
-        <v>-0.002882593407195999</v>
+        <v>-0.001441296703598</v>
       </c>
       <c r="R122" t="n">
         <v>0.0002525688223840953</v>
@@ -16028,7 +16028,7 @@
         <v>0.0009260856820750159</v>
       </c>
       <c r="AK122" t="n">
-        <v>-0.007206483517989998</v>
+        <v>-0.003603241758994999</v>
       </c>
       <c r="AL122" t="n">
         <v>0.001431223326843206</v>
@@ -16040,7 +16040,7 @@
         <v>0.001515412934304571</v>
       </c>
       <c r="AO122" t="n">
-        <v>-0.008327492065232887</v>
+        <v>-0.004163746032616444</v>
       </c>
       <c r="AP122" t="n">
         <v>0.0007577064671522857</v>
@@ -16051,7 +16051,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.004385997067540219</v>
+        <v>-0.00219299853377011</v>
       </c>
       <c r="C123" t="n">
         <v>0.0002430623606438342</v>
@@ -16072,7 +16072,7 @@
         <v>0.0003240831475251123</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.003446140553067314</v>
+        <v>-0.001723070276533657</v>
       </c>
       <c r="J123" t="n">
         <v>0.0002430623606438342</v>
@@ -16090,13 +16090,13 @@
         <v>0.0004861247212876685</v>
       </c>
       <c r="O123" t="n">
-        <v>-0.004072711562715918</v>
+        <v>-0.002036355781357959</v>
       </c>
       <c r="P123" t="n">
-        <v>-0.003132855048243013</v>
+        <v>-0.001566427524121506</v>
       </c>
       <c r="Q123" t="n">
-        <v>-0.002819569543418712</v>
+        <v>-0.001409784771709356</v>
       </c>
       <c r="R123" t="n">
         <v>0.0002430623606438342</v>
@@ -16156,7 +16156,7 @@
         <v>0.0008912286556940588</v>
       </c>
       <c r="AK123" t="n">
-        <v>-0.00704892385854678</v>
+        <v>-0.00352446192927339</v>
       </c>
       <c r="AL123" t="n">
         <v>0.001377353376981727</v>
@@ -16168,7 +16168,7 @@
         <v>0.001458374163863005</v>
       </c>
       <c r="AO123" t="n">
-        <v>-0.008145423125431834</v>
+        <v>-0.004072711562715917</v>
       </c>
       <c r="AP123" t="n">
         <v>0.0007291870819315027</v>
@@ -16179,7 +16179,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.00437360355269696</v>
+        <v>-0.00218680177634848</v>
       </c>
       <c r="C124" t="n">
         <v>0.0002410216498312443</v>
@@ -16200,7 +16200,7 @@
         <v>0.0003213621997749925</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.003436402791404755</v>
+        <v>-0.001718201395702377</v>
       </c>
       <c r="J124" t="n">
         <v>0.0002410216498312443</v>
@@ -16218,13 +16218,13 @@
         <v>0.0004820432996624886</v>
       </c>
       <c r="O124" t="n">
-        <v>-0.004061203298932893</v>
+        <v>-0.002030601649466446</v>
       </c>
       <c r="P124" t="n">
-        <v>-0.003124002537640686</v>
+        <v>-0.001562001268820343</v>
       </c>
       <c r="Q124" t="n">
-        <v>-0.002811602283876617</v>
+        <v>-0.001405801141938309</v>
       </c>
       <c r="R124" t="n">
         <v>0.0002410216498312443</v>
@@ -16284,7 +16284,7 @@
         <v>0.0008837460493812291</v>
       </c>
       <c r="AK124" t="n">
-        <v>-0.007029005709691544</v>
+        <v>-0.003514502854845772</v>
       </c>
       <c r="AL124" t="n">
         <v>0.001365789349043718</v>
@@ -16296,7 +16296,7 @@
         <v>0.001446129898987466</v>
       </c>
       <c r="AO124" t="n">
-        <v>-0.008122406597865783</v>
+        <v>-0.004061203298932892</v>
       </c>
       <c r="AP124" t="n">
         <v>0.0007230649494937329</v>
@@ -16307,7 +16307,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.00440647908597692</v>
+        <v>-0.00220323954298846</v>
       </c>
       <c r="C125" t="n">
         <v>0.0002389620104129514</v>
@@ -16328,7 +16328,7 @@
         <v>0.0003186160138839352</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.003462233567553294</v>
+        <v>-0.001731116783776647</v>
       </c>
       <c r="J125" t="n">
         <v>0.0002389620104129514</v>
@@ -16346,13 +16346,13 @@
         <v>0.0004779240208259027</v>
       </c>
       <c r="O125" t="n">
-        <v>-0.004091730579835712</v>
+        <v>-0.002045865289917856</v>
       </c>
       <c r="P125" t="n">
-        <v>-0.003147485061412085</v>
+        <v>-0.001573742530706043</v>
       </c>
       <c r="Q125" t="n">
-        <v>-0.002832736555270877</v>
+        <v>-0.001416368277635438</v>
       </c>
       <c r="R125" t="n">
         <v>0.0002389620104129514</v>
@@ -16412,7 +16412,7 @@
         <v>0.0008761940381808215</v>
       </c>
       <c r="AK125" t="n">
-        <v>-0.007081841388177192</v>
+        <v>-0.003540920694088596</v>
       </c>
       <c r="AL125" t="n">
         <v>0.001354118059006724</v>
@@ -16424,7 +16424,7 @@
         <v>0.001433772062477708</v>
       </c>
       <c r="AO125" t="n">
-        <v>-0.008183461159671423</v>
+        <v>-0.004091730579835712</v>
       </c>
       <c r="AP125" t="n">
         <v>0.000716886031238854</v>
@@ -16435,7 +16435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.004500159193084254</v>
+        <v>-0.002250079596542127</v>
       </c>
       <c r="C126" t="n">
         <v>0.0002364746604898121</v>
@@ -16456,7 +16456,7 @@
         <v>0.0003152995473197494</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.003535839365994771</v>
+        <v>-0.001767919682997385</v>
       </c>
       <c r="J126" t="n">
         <v>0.0002364746604898121</v>
@@ -16474,13 +16474,13 @@
         <v>0.0004729493209796241</v>
       </c>
       <c r="O126" t="n">
-        <v>-0.004178719250721093</v>
+        <v>-0.002089359625360547</v>
       </c>
       <c r="P126" t="n">
-        <v>-0.00321439942363161</v>
+        <v>-0.001607199711815805</v>
       </c>
       <c r="Q126" t="n">
-        <v>-0.002892959481268449</v>
+        <v>-0.001446479740634225</v>
       </c>
       <c r="R126" t="n">
         <v>0.0002364746604898121</v>
@@ -16540,7 +16540,7 @@
         <v>0.0008670737551293109</v>
       </c>
       <c r="AK126" t="n">
-        <v>-0.007232398703171122</v>
+        <v>-0.003616199351585561</v>
       </c>
       <c r="AL126" t="n">
         <v>0.001340023076108935</v>
@@ -16552,7 +16552,7 @@
         <v>0.001418847962938872</v>
       </c>
       <c r="AO126" t="n">
-        <v>-0.008357438501442185</v>
+        <v>-0.004178719250721092</v>
       </c>
       <c r="AP126" t="n">
         <v>0.0007094239814694361</v>
@@ -16563,7 +16563,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.004595541264079139</v>
+        <v>-0.00229777063203957</v>
       </c>
       <c r="C127" t="n">
         <v>0.0002299476433990071</v>
@@ -16584,7 +16584,7 @@
         <v>0.0003065968578653428</v>
       </c>
       <c r="I127" t="n">
-        <v>-0.003610782421776466</v>
+        <v>-0.001805391210888233</v>
       </c>
       <c r="J127" t="n">
         <v>0.0002299476433990071</v>
@@ -16602,13 +16602,13 @@
         <v>0.0004598952867980142</v>
       </c>
       <c r="O127" t="n">
-        <v>-0.004267288316644915</v>
+        <v>-0.002133644158322458</v>
       </c>
       <c r="P127" t="n">
-        <v>-0.003282529474342242</v>
+        <v>-0.001641264737171121</v>
       </c>
       <c r="Q127" t="n">
-        <v>-0.002954276526908018</v>
+        <v>-0.001477138263454009</v>
       </c>
       <c r="R127" t="n">
         <v>0.0002299476433990071</v>
@@ -16668,7 +16668,7 @@
         <v>0.0008431413591296926</v>
       </c>
       <c r="AK127" t="n">
-        <v>-0.007385691317270046</v>
+        <v>-0.003692845658635023</v>
       </c>
       <c r="AL127" t="n">
         <v>0.001303036645927707</v>
@@ -16680,7 +16680,7 @@
         <v>0.001379685860394043</v>
       </c>
       <c r="AO127" t="n">
-        <v>-0.008534576633289829</v>
+        <v>-0.004267288316644914</v>
       </c>
       <c r="AP127" t="n">
         <v>0.0006898429301970213</v>
@@ -16691,7 +16691,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.004899415068760109</v>
+        <v>-0.002449707534380054</v>
       </c>
       <c r="C128" t="n">
         <v>0.000223897003367433</v>
@@ -16712,7 +16712,7 @@
         <v>0.0002985293378232441</v>
       </c>
       <c r="I128" t="n">
-        <v>-0.003849540411168657</v>
+        <v>-0.001924770205584329</v>
       </c>
       <c r="J128" t="n">
         <v>0.000223897003367433</v>
@@ -16730,13 +16730,13 @@
         <v>0.0004477940067348661</v>
       </c>
       <c r="O128" t="n">
-        <v>-0.004549456849562959</v>
+        <v>-0.002274728424781479</v>
       </c>
       <c r="P128" t="n">
-        <v>-0.003499582191971506</v>
+        <v>-0.001749791095985753</v>
       </c>
       <c r="Q128" t="n">
-        <v>-0.003149623972774355</v>
+        <v>-0.001574811986387178</v>
       </c>
       <c r="R128" t="n">
         <v>0.000223897003367433</v>
@@ -16796,7 +16796,7 @@
         <v>0.000820955679013921</v>
       </c>
       <c r="AK128" t="n">
-        <v>-0.007874059931935889</v>
+        <v>-0.003937029965967944</v>
       </c>
       <c r="AL128" t="n">
         <v>0.001268749685748787</v>
@@ -16808,7 +16808,7 @@
         <v>0.001343382020204598</v>
       </c>
       <c r="AO128" t="n">
-        <v>-0.009098913699125915</v>
+        <v>-0.004549456849562958</v>
       </c>
       <c r="AP128" t="n">
         <v>0.0006716910101022991</v>
@@ -16819,7 +16819,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.005156176403147418</v>
+        <v>-0.002578088201573709</v>
       </c>
       <c r="C129" t="n">
         <v>0.0001998258098481497</v>
@@ -16840,7 +16840,7 @@
         <v>0.0002664344131308663</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.004051281459615827</v>
+        <v>-0.002025640729807914</v>
       </c>
       <c r="J129" t="n">
         <v>0.0001998258098481497</v>
@@ -16858,13 +16858,13 @@
         <v>0.0003996516196962995</v>
       </c>
       <c r="O129" t="n">
-        <v>-0.004787878088636888</v>
+        <v>-0.002393939044318444</v>
       </c>
       <c r="P129" t="n">
-        <v>-0.003682983145105297</v>
+        <v>-0.001841491572552649</v>
       </c>
       <c r="Q129" t="n">
-        <v>-0.003314684830594768</v>
+        <v>-0.001657342415297384</v>
       </c>
       <c r="R129" t="n">
         <v>0.0001998258098481497</v>
@@ -16924,7 +16924,7 @@
         <v>0.0007326946361098823</v>
       </c>
       <c r="AK129" t="n">
-        <v>-0.008286712076486919</v>
+        <v>-0.00414335603824346</v>
       </c>
       <c r="AL129" t="n">
         <v>0.001132346255806182</v>
@@ -16936,7 +16936,7 @@
         <v>0.001198954859088898</v>
       </c>
       <c r="AO129" t="n">
-        <v>-0.009575756177273773</v>
+        <v>-0.004787878088636887</v>
       </c>
       <c r="AP129" t="n">
         <v>0.0005994774295444491</v>
@@ -16947,7 +16947,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.005244503417969162</v>
+        <v>-0.002622251708984581</v>
       </c>
       <c r="C130" t="n">
         <v>0.0001678692894784372</v>
@@ -16968,7 +16968,7 @@
         <v>0.0002238257193045829</v>
       </c>
       <c r="I130" t="n">
-        <v>-0.00412068125697577</v>
+        <v>-0.002060340628487885</v>
       </c>
       <c r="J130" t="n">
         <v>0.0001678692894784372</v>
@@ -16986,13 +16986,13 @@
         <v>0.0003357385789568743</v>
       </c>
       <c r="O130" t="n">
-        <v>-0.004869896030971366</v>
+        <v>-0.002434948015485683</v>
       </c>
       <c r="P130" t="n">
-        <v>-0.003746073869977972</v>
+        <v>-0.001873036934988986</v>
       </c>
       <c r="Q130" t="n">
-        <v>-0.003371466482980175</v>
+        <v>-0.001685733241490088</v>
       </c>
       <c r="R130" t="n">
         <v>0.0001678692894784372</v>
@@ -17052,7 +17052,7 @@
         <v>0.0006155207280876029</v>
       </c>
       <c r="AK130" t="n">
-        <v>-0.008428666207450438</v>
+        <v>-0.004214333103725219</v>
       </c>
       <c r="AL130" t="n">
         <v>0.0009512593070444774</v>
@@ -17064,7 +17064,7 @@
         <v>0.001007215736870623</v>
       </c>
       <c r="AO130" t="n">
-        <v>-0.009739792061942729</v>
+        <v>-0.004869896030971365</v>
       </c>
       <c r="AP130" t="n">
         <v>0.0005036078684353115</v>
@@ -17075,7 +17075,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.005240778129384244</v>
+        <v>-0.002620389064692122</v>
       </c>
       <c r="C131" t="n">
         <v>0.0001140112754438085</v>
@@ -17096,7 +17096,7 @@
         <v>0.000152015033925078</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.004117754244516191</v>
+        <v>-0.002058877122258095</v>
       </c>
       <c r="J131" t="n">
         <v>0.0001140112754438085</v>
@@ -17114,13 +17114,13 @@
         <v>0.000228022550887617</v>
       </c>
       <c r="O131" t="n">
-        <v>-0.004866436834428226</v>
+        <v>-0.002433218417214113</v>
       </c>
       <c r="P131" t="n">
-        <v>-0.003743412949560173</v>
+        <v>-0.001871706474780086</v>
       </c>
       <c r="Q131" t="n">
-        <v>-0.003369071654604156</v>
+        <v>-0.001684535827302078</v>
       </c>
       <c r="R131" t="n">
         <v>0.0001140112754438085</v>
@@ -17180,7 +17180,7 @@
         <v>0.0004180413432939644</v>
       </c>
       <c r="AK131" t="n">
-        <v>-0.00842267913651039</v>
+        <v>-0.004211339568255195</v>
       </c>
       <c r="AL131" t="n">
         <v>0.0006460638941815814</v>
@@ -17192,7 +17192,7 @@
         <v>0.0006840676526628509</v>
       </c>
       <c r="AO131" t="n">
-        <v>-0.009732873668856451</v>
+        <v>-0.004866436834428225</v>
       </c>
       <c r="AP131" t="n">
         <v>0.0003420338263314254</v>
@@ -17203,7 +17203,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.005138674847070874</v>
+        <v>-0.002569337423535437</v>
       </c>
       <c r="C132" t="n">
         <v>8.084264872516177e-05</v>
@@ -17224,7 +17224,7 @@
         <v>0.0001077901983002157</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.004037530236984258</v>
+        <v>-0.002018765118492129</v>
       </c>
       <c r="J132" t="n">
         <v>8.084264872516177e-05</v>
@@ -17242,13 +17242,13 @@
         <v>0.0001616852974503235</v>
       </c>
       <c r="O132" t="n">
-        <v>-0.004771626643708669</v>
+        <v>-0.002385813321854334</v>
       </c>
       <c r="P132" t="n">
-        <v>-0.003670482033622052</v>
+        <v>-0.001835241016811026</v>
       </c>
       <c r="Q132" t="n">
-        <v>-0.003303433830259847</v>
+        <v>-0.001651716915129924</v>
       </c>
       <c r="R132" t="n">
         <v>8.084264872516177e-05</v>
@@ -17308,7 +17308,7 @@
         <v>0.0002964230453255931</v>
       </c>
       <c r="AK132" t="n">
-        <v>-0.008258584575649618</v>
+        <v>-0.004129292287824809</v>
       </c>
       <c r="AL132" t="n">
         <v>0.0004581083427759167</v>
@@ -17320,7 +17320,7 @@
         <v>0.0004850558923509706</v>
       </c>
       <c r="AO132" t="n">
-        <v>-0.009543253287417336</v>
+        <v>-0.004771626643708668</v>
       </c>
       <c r="AP132" t="n">
         <v>0.0002425279461754853</v>
@@ -17331,7 +17331,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.00516046016671827</v>
+        <v>-0.002580230083359135</v>
       </c>
       <c r="C133" t="n">
         <v>7.631924660791296e-05</v>
@@ -17352,7 +17352,7 @@
         <v>0.0001017589954772173</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.004054647273850068</v>
+        <v>-0.002027323636925034</v>
       </c>
       <c r="J133" t="n">
         <v>7.631924660791296e-05</v>
@@ -17370,13 +17370,13 @@
         <v>0.0001526384932158259</v>
       </c>
       <c r="O133" t="n">
-        <v>-0.004791855869095536</v>
+        <v>-0.002395927934547768</v>
       </c>
       <c r="P133" t="n">
-        <v>-0.003686042976227335</v>
+        <v>-0.001843021488113667</v>
       </c>
       <c r="Q133" t="n">
-        <v>-0.003317438678604602</v>
+        <v>-0.001658719339302301</v>
       </c>
       <c r="R133" t="n">
         <v>7.631924660791296e-05</v>
@@ -17436,7 +17436,7 @@
         <v>0.0002798372375623475</v>
       </c>
       <c r="AK133" t="n">
-        <v>-0.008293596696511505</v>
+        <v>-0.004146798348255753</v>
       </c>
       <c r="AL133" t="n">
         <v>0.0004324757307781735</v>
@@ -17448,7 +17448,7 @@
         <v>0.0004579154796474778</v>
       </c>
       <c r="AO133" t="n">
-        <v>-0.009583711738191071</v>
+        <v>-0.004791855869095535</v>
       </c>
       <c r="AP133" t="n">
         <v>0.0002289577398237389</v>
@@ -17459,7 +17459,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.005048910017522208</v>
+        <v>-0.002524455008761104</v>
       </c>
       <c r="C134" t="n">
         <v>8.601413498890525e-05</v>
@@ -17480,7 +17480,7 @@
         <v>0.0001146855133185403</v>
       </c>
       <c r="I134" t="n">
-        <v>-0.003967000728053163</v>
+        <v>-0.001983500364026581</v>
       </c>
       <c r="J134" t="n">
         <v>8.601413498890525e-05</v>
@@ -17498,13 +17498,13 @@
         <v>0.0001720282699778105</v>
       </c>
       <c r="O134" t="n">
-        <v>-0.004688273587699193</v>
+        <v>-0.002344136793849596</v>
       </c>
       <c r="P134" t="n">
-        <v>-0.003606364298230147</v>
+        <v>-0.001803182149115074</v>
       </c>
       <c r="Q134" t="n">
-        <v>-0.003245727868407133</v>
+        <v>-0.001622863934203566</v>
       </c>
       <c r="R134" t="n">
         <v>8.601413498890525e-05</v>
@@ -17564,7 +17564,7 @@
         <v>0.0003153851616259859</v>
       </c>
       <c r="AK134" t="n">
-        <v>-0.008114319671017832</v>
+        <v>-0.004057159835508916</v>
       </c>
       <c r="AL134" t="n">
         <v>0.0004874134316037964</v>
@@ -17576,7 +17576,7 @@
         <v>0.0005160848099334314</v>
       </c>
       <c r="AO134" t="n">
-        <v>-0.009376547175398384</v>
+        <v>-0.004688273587699192</v>
       </c>
       <c r="AP134" t="n">
         <v>0.0002580424049667157</v>
@@ -17587,7 +17587,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.005107417775126904</v>
+        <v>-0.002553708887563452</v>
       </c>
       <c r="C135" t="n">
         <v>0.0001112236751851098</v>
@@ -17608,7 +17608,7 @@
         <v>0.0001482982335801464</v>
       </c>
       <c r="I135" t="n">
-        <v>-0.004012971109028281</v>
+        <v>-0.00200648555451414</v>
       </c>
       <c r="J135" t="n">
         <v>0.0001112236751851098</v>
@@ -17626,13 +17626,13 @@
         <v>0.0002224473503702196</v>
       </c>
       <c r="O135" t="n">
-        <v>-0.004742602219760697</v>
+        <v>-0.002371301109880348</v>
       </c>
       <c r="P135" t="n">
-        <v>-0.003648155553662074</v>
+        <v>-0.001824077776831037</v>
       </c>
       <c r="Q135" t="n">
-        <v>-0.003283339998295866</v>
+        <v>-0.001641669999147933</v>
       </c>
       <c r="R135" t="n">
         <v>0.0001112236751851098</v>
@@ -17692,7 +17692,7 @@
         <v>0.0004078201423454025</v>
       </c>
       <c r="AK135" t="n">
-        <v>-0.008208349995739668</v>
+        <v>-0.004104174997869834</v>
       </c>
       <c r="AL135" t="n">
         <v>0.0006302674927156221</v>
@@ -17704,7 +17704,7 @@
         <v>0.0006673420511106587</v>
       </c>
       <c r="AO135" t="n">
-        <v>-0.009485204439521392</v>
+        <v>-0.004742602219760696</v>
       </c>
       <c r="AP135" t="n">
         <v>0.0003336710255553293</v>
@@ -17715,7 +17715,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.005107150814989291</v>
+        <v>-0.002553575407494645</v>
       </c>
       <c r="C136" t="n">
         <v>0.0001430820780946352</v>
@@ -17736,7 +17736,7 @@
         <v>0.0001907761041261803</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.004012761354634442</v>
+        <v>-0.002006380677317221</v>
       </c>
       <c r="J136" t="n">
         <v>0.0001430820780946352</v>
@@ -17754,13 +17754,13 @@
         <v>0.0002861641561892704</v>
       </c>
       <c r="O136" t="n">
-        <v>-0.004742354328204341</v>
+        <v>-0.002371177164102171</v>
       </c>
       <c r="P136" t="n">
-        <v>-0.003647964867849492</v>
+        <v>-0.001823982433924746</v>
       </c>
       <c r="Q136" t="n">
-        <v>-0.003283168381064544</v>
+        <v>-0.001641584190532272</v>
       </c>
       <c r="R136" t="n">
         <v>0.0001430820780946352</v>
@@ -17820,7 +17820,7 @@
         <v>0.0005246342863469958</v>
       </c>
       <c r="AK136" t="n">
-        <v>-0.00820792095266136</v>
+        <v>-0.00410396047633068</v>
       </c>
       <c r="AL136" t="n">
         <v>0.0008107984425362663</v>
@@ -17832,7 +17832,7 @@
         <v>0.0008584924685678113</v>
       </c>
       <c r="AO136" t="n">
-        <v>-0.009484708656408681</v>
+        <v>-0.00474235432820434</v>
       </c>
       <c r="AP136" t="n">
         <v>0.0004292462342839056</v>
@@ -17843,7 +17843,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.005241111395508343</v>
+        <v>-0.002620555697754171</v>
       </c>
       <c r="C137" t="n">
         <v>0.0001642471362471847</v>
@@ -17864,7 +17864,7 @@
         <v>0.0002189961816629129</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.00411801609647084</v>
+        <v>-0.00205900804823542</v>
       </c>
       <c r="J137" t="n">
         <v>0.0001642471362471847</v>
@@ -17882,13 +17882,13 @@
         <v>0.0003284942724943694</v>
       </c>
       <c r="O137" t="n">
-        <v>-0.004866746295829175</v>
+        <v>-0.002433373147914588</v>
       </c>
       <c r="P137" t="n">
-        <v>-0.003743650996791672</v>
+        <v>-0.001871825498395836</v>
       </c>
       <c r="Q137" t="n">
-        <v>-0.003369285897112506</v>
+        <v>-0.001684642948556253</v>
       </c>
       <c r="R137" t="n">
         <v>0.0001642471362471847</v>
@@ -17948,7 +17948,7 @@
         <v>0.0006022394995730104</v>
       </c>
       <c r="AK137" t="n">
-        <v>-0.008423214742781264</v>
+        <v>-0.004211607371390632</v>
       </c>
       <c r="AL137" t="n">
         <v>0.0009307337720673799</v>
@@ -17960,7 +17960,7 @@
         <v>0.0009854828174831081</v>
       </c>
       <c r="AO137" t="n">
-        <v>-0.009733492591658351</v>
+        <v>-0.004866746295829175</v>
       </c>
       <c r="AP137" t="n">
         <v>0.000492741408741554</v>
@@ -17971,7 +17971,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.005177694845332995</v>
+        <v>-0.002588847422666497</v>
       </c>
       <c r="C138" t="n">
         <v>0.0001757055851736274</v>
@@ -17992,7 +17992,7 @@
         <v>0.0002342741135648365</v>
       </c>
       <c r="I138" t="n">
-        <v>-0.004068188807047353</v>
+        <v>-0.002034094403523676</v>
       </c>
       <c r="J138" t="n">
         <v>0.0001757055851736274</v>
@@ -18010,13 +18010,13 @@
         <v>0.0003514111703472547</v>
       </c>
       <c r="O138" t="n">
-        <v>-0.004807859499237782</v>
+        <v>-0.002403929749618891</v>
       </c>
       <c r="P138" t="n">
-        <v>-0.003698353460952139</v>
+        <v>-0.00184917673047607</v>
       </c>
       <c r="Q138" t="n">
-        <v>-0.003328518114856925</v>
+        <v>-0.001664259057428462</v>
       </c>
       <c r="R138" t="n">
         <v>0.0001757055851736274</v>
@@ -18076,7 +18076,7 @@
         <v>0.0006442538123033003</v>
       </c>
       <c r="AK138" t="n">
-        <v>-0.008321295287142313</v>
+        <v>-0.004160647643571156</v>
       </c>
       <c r="AL138" t="n">
         <v>0.0009956649826505552</v>
@@ -18088,7 +18088,7 @@
         <v>0.001054233511041764</v>
       </c>
       <c r="AO138" t="n">
-        <v>-0.009615718998475561</v>
+        <v>-0.004807859499237781</v>
       </c>
       <c r="AP138" t="n">
         <v>0.0005271167555208821</v>
@@ -18099,7 +18099,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.005161408375395347</v>
+        <v>-0.002580704187697673</v>
       </c>
       <c r="C139" t="n">
         <v>0.0001896544203210811</v>
@@ -18120,7 +18120,7 @@
         <v>0.0002528725604281081</v>
       </c>
       <c r="I139" t="n">
-        <v>-0.004055392294953487</v>
+        <v>-0.002027696147476743</v>
       </c>
       <c r="J139" t="n">
         <v>0.0001896544203210811</v>
@@ -18138,13 +18138,13 @@
         <v>0.0003793088406421622</v>
       </c>
       <c r="O139" t="n">
-        <v>-0.004792736348581394</v>
+        <v>-0.002396368174290697</v>
       </c>
       <c r="P139" t="n">
-        <v>-0.003686720268139534</v>
+        <v>-0.001843360134069767</v>
       </c>
       <c r="Q139" t="n">
-        <v>-0.003318048241325581</v>
+        <v>-0.00165902412066279</v>
       </c>
       <c r="R139" t="n">
         <v>0.0001896544203210811</v>
@@ -18204,7 +18204,7 @@
         <v>0.0006953995411772973</v>
       </c>
       <c r="AK139" t="n">
-        <v>-0.00829512060331395</v>
+        <v>-0.004147560301656975</v>
       </c>
       <c r="AL139" t="n">
         <v>0.00107470838181946</v>
@@ -18216,7 +18216,7 @@
         <v>0.001137926521926486</v>
       </c>
       <c r="AO139" t="n">
-        <v>-0.009585472697162787</v>
+        <v>-0.004792736348581393</v>
       </c>
       <c r="AP139" t="n">
         <v>0.0005689632609632432</v>
@@ -18227,7 +18227,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.005291840931773067</v>
+        <v>-0.002645920465886534</v>
       </c>
       <c r="C140" t="n">
         <v>0.000215043832825365</v>
@@ -18248,7 +18248,7 @@
         <v>0.00028672511043382</v>
       </c>
       <c r="I140" t="n">
-        <v>-0.004157875017821696</v>
+        <v>-0.002078937508910848</v>
       </c>
       <c r="J140" t="n">
         <v>0.000215043832825365</v>
@@ -18266,13 +18266,13 @@
         <v>0.00043008766565073</v>
       </c>
       <c r="O140" t="n">
-        <v>-0.004913852293789277</v>
+        <v>-0.002456926146894639</v>
       </c>
       <c r="P140" t="n">
-        <v>-0.003779886379837905</v>
+        <v>-0.001889943189918953</v>
       </c>
       <c r="Q140" t="n">
-        <v>-0.003401897741854114</v>
+        <v>-0.001700948870927057</v>
       </c>
       <c r="R140" t="n">
         <v>0.000215043832825365</v>
@@ -18332,7 +18332,7 @@
         <v>0.0007884940536930049</v>
       </c>
       <c r="AK140" t="n">
-        <v>-0.008504744354635286</v>
+        <v>-0.004252372177317643</v>
       </c>
       <c r="AL140" t="n">
         <v>0.001218581719343735</v>
@@ -18344,7 +18344,7 @@
         <v>0.00129026299695219</v>
       </c>
       <c r="AO140" t="n">
-        <v>-0.009827704587578553</v>
+        <v>-0.004913852293789277</v>
       </c>
       <c r="AP140" t="n">
         <v>0.0006451314984760949</v>
@@ -18355,7 +18355,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.005191139252189012</v>
+        <v>-0.002595569626094506</v>
       </c>
       <c r="C141" t="n">
         <v>0.0002437864395574957</v>
@@ -18376,7 +18376,7 @@
         <v>0.0003250485860766609</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.00407875226957708</v>
+        <v>-0.00203937613478854</v>
       </c>
       <c r="J141" t="n">
         <v>0.0002437864395574957</v>
@@ -18394,13 +18394,13 @@
         <v>0.0004875728791149914</v>
       </c>
       <c r="O141" t="n">
-        <v>-0.004820343591318368</v>
+        <v>-0.002410171795659184</v>
       </c>
       <c r="P141" t="n">
-        <v>-0.003707956608706436</v>
+        <v>-0.001853978304353218</v>
       </c>
       <c r="Q141" t="n">
-        <v>-0.003337160947835793</v>
+        <v>-0.001668580473917896</v>
       </c>
       <c r="R141" t="n">
         <v>0.0002437864395574957</v>
@@ -18460,7 +18460,7 @@
         <v>0.0008938836117108175</v>
       </c>
       <c r="AK141" t="n">
-        <v>-0.008342902369589482</v>
+        <v>-0.004171451184794741</v>
       </c>
       <c r="AL141" t="n">
         <v>0.001381456490825809</v>
@@ -18472,7 +18472,7 @@
         <v>0.001462718637344974</v>
       </c>
       <c r="AO141" t="n">
-        <v>-0.009640687182636734</v>
+        <v>-0.004820343591318367</v>
       </c>
       <c r="AP141" t="n">
         <v>0.0007313593186724871</v>
@@ -18483,7 +18483,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.005042990430698703</v>
+        <v>-0.002521495215349352</v>
       </c>
       <c r="C142" t="n">
         <v>0.0002668000025948959</v>
@@ -18504,7 +18504,7 @@
         <v>0.0003557333367931945</v>
       </c>
       <c r="I142" t="n">
-        <v>-0.003962349624120409</v>
+        <v>-0.001981174812060205</v>
       </c>
       <c r="J142" t="n">
         <v>0.0002668000025948959</v>
@@ -18522,13 +18522,13 @@
         <v>0.0005336000051897918</v>
       </c>
       <c r="O142" t="n">
-        <v>-0.00468277682850594</v>
+        <v>-0.00234138841425297</v>
       </c>
       <c r="P142" t="n">
-        <v>-0.003602136021927645</v>
+        <v>-0.001801068010963823</v>
       </c>
       <c r="Q142" t="n">
-        <v>-0.00324192241973488</v>
+        <v>-0.00162096120986744</v>
       </c>
       <c r="R142" t="n">
         <v>0.0002668000025948959</v>
@@ -18588,7 +18588,7 @@
         <v>0.0009782666761812848</v>
       </c>
       <c r="AK142" t="n">
-        <v>-0.008104806049337202</v>
+        <v>-0.004052403024668601</v>
       </c>
       <c r="AL142" t="n">
         <v>0.001511866681371077</v>
@@ -18600,7 +18600,7 @@
         <v>0.001600800015569375</v>
       </c>
       <c r="AO142" t="n">
-        <v>-0.009365553657011878</v>
+        <v>-0.004682776828505939</v>
       </c>
       <c r="AP142" t="n">
         <v>0.0008004000077846877</v>
@@ -18611,7 +18611,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.004851439628532598</v>
+        <v>-0.002425719814266299</v>
       </c>
       <c r="C143" t="n">
         <v>0.0002778462197015056</v>
@@ -18632,7 +18632,7 @@
         <v>0.0003704616262686741</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.00381184542241847</v>
+        <v>-0.001905922711209235</v>
       </c>
       <c r="J143" t="n">
         <v>0.0002778462197015056</v>
@@ -18650,13 +18650,13 @@
         <v>0.0005556924394030111</v>
       </c>
       <c r="O143" t="n">
-        <v>-0.004504908226494556</v>
+        <v>-0.002252454113247278</v>
       </c>
       <c r="P143" t="n">
-        <v>-0.003465314020380427</v>
+        <v>-0.001732657010190213</v>
       </c>
       <c r="Q143" t="n">
-        <v>-0.003118782618342384</v>
+        <v>-0.001559391309171192</v>
       </c>
       <c r="R143" t="n">
         <v>0.0002778462197015056</v>
@@ -18716,7 +18716,7 @@
         <v>0.001018769472238854</v>
       </c>
       <c r="AK143" t="n">
-        <v>-0.007796956545855961</v>
+        <v>-0.00389847827292798</v>
       </c>
       <c r="AL143" t="n">
         <v>0.001574461911641865</v>
@@ -18728,7 +18728,7 @@
         <v>0.001667077318209033</v>
       </c>
       <c r="AO143" t="n">
-        <v>-0.009009816452989112</v>
+        <v>-0.004504908226494556</v>
       </c>
       <c r="AP143" t="n">
         <v>0.0008335386591045166</v>
@@ -18739,7 +18739,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.004629761684493987</v>
+        <v>-0.002314880842246994</v>
       </c>
       <c r="C144" t="n">
         <v>0.0002768895744646814</v>
@@ -18760,7 +18760,7 @@
         <v>0.0003691860992862419</v>
       </c>
       <c r="I144" t="n">
-        <v>-0.003637669894959561</v>
+        <v>-0.00181883494747978</v>
       </c>
       <c r="J144" t="n">
         <v>0.0002768895744646814</v>
@@ -18778,13 +18778,13 @@
         <v>0.0005537791489293628</v>
       </c>
       <c r="O144" t="n">
-        <v>-0.004299064421315846</v>
+        <v>-0.002149532210657923</v>
       </c>
       <c r="P144" t="n">
-        <v>-0.003306972631781419</v>
+        <v>-0.00165348631589071</v>
       </c>
       <c r="Q144" t="n">
-        <v>-0.002976275368603277</v>
+        <v>-0.001488137684301639</v>
       </c>
       <c r="R144" t="n">
         <v>0.0002768895744646814</v>
@@ -18844,7 +18844,7 @@
         <v>0.001015261773037165</v>
       </c>
       <c r="AK144" t="n">
-        <v>-0.007440688421508193</v>
+        <v>-0.003720344210754096</v>
       </c>
       <c r="AL144" t="n">
         <v>0.001569040921966528</v>
@@ -18856,7 +18856,7 @@
         <v>0.001661337446788088</v>
       </c>
       <c r="AO144" t="n">
-        <v>-0.00859812884263169</v>
+        <v>-0.004299064421315845</v>
       </c>
       <c r="AP144" t="n">
         <v>0.0008306687233940441</v>
@@ -18867,7 +18867,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.004509169118397643</v>
+        <v>-0.002254584559198821</v>
       </c>
       <c r="C145" t="n">
         <v>0.0002676590696131329</v>
@@ -18888,7 +18888,7 @@
         <v>0.0003568787594841771</v>
       </c>
       <c r="I145" t="n">
-        <v>-0.003542918593026719</v>
+        <v>-0.00177145929651336</v>
       </c>
       <c r="J145" t="n">
         <v>0.0002676590696131329</v>
@@ -18906,13 +18906,13 @@
         <v>0.0005353181392262657</v>
       </c>
       <c r="O145" t="n">
-        <v>-0.004187085609940669</v>
+        <v>-0.002093542804970335</v>
       </c>
       <c r="P145" t="n">
-        <v>-0.003220835084569744</v>
+        <v>-0.001610417542284872</v>
       </c>
       <c r="Q145" t="n">
-        <v>-0.00289875157611277</v>
+        <v>-0.001449375788056385</v>
       </c>
       <c r="R145" t="n">
         <v>0.0002676590696131329</v>
@@ -18972,7 +18972,7 @@
         <v>0.0009814165885814871</v>
       </c>
       <c r="AK145" t="n">
-        <v>-0.007246878940281926</v>
+        <v>-0.003623439470140963</v>
       </c>
       <c r="AL145" t="n">
         <v>0.001516734727807753</v>
@@ -18984,7 +18984,7 @@
         <v>0.001605954417678797</v>
       </c>
       <c r="AO145" t="n">
-        <v>-0.008374171219881337</v>
+        <v>-0.004187085609940668</v>
       </c>
       <c r="AP145" t="n">
         <v>0.0008029772088393985</v>
@@ -18995,7 +18995,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.004469991788100254</v>
+        <v>-0.002234995894050127</v>
       </c>
       <c r="C146" t="n">
         <v>0.0002541874602176552</v>
@@ -19016,7 +19016,7 @@
         <v>0.0003389166136235403</v>
       </c>
       <c r="I146" t="n">
-        <v>-0.003512136404935914</v>
+        <v>-0.001756068202467957</v>
       </c>
       <c r="J146" t="n">
         <v>0.0002541874602176552</v>
@@ -19034,13 +19034,13 @@
         <v>0.0005083749204353103</v>
       </c>
       <c r="O146" t="n">
-        <v>-0.004150706660378808</v>
+        <v>-0.002075353330189404</v>
       </c>
       <c r="P146" t="n">
-        <v>-0.003192851277214466</v>
+        <v>-0.001596425638607233</v>
       </c>
       <c r="Q146" t="n">
-        <v>-0.00287356614949302</v>
+        <v>-0.00143678307474651</v>
       </c>
       <c r="R146" t="n">
         <v>0.0002541874602176552</v>
@@ -19100,7 +19100,7 @@
         <v>0.0009320206874647356</v>
       </c>
       <c r="AK146" t="n">
-        <v>-0.007183915373732551</v>
+        <v>-0.003591957686866275</v>
       </c>
       <c r="AL146" t="n">
         <v>0.001440395607900046</v>
@@ -19112,7 +19112,7 @@
         <v>0.001525124761305931</v>
       </c>
       <c r="AO146" t="n">
-        <v>-0.008301413320757614</v>
+        <v>-0.004150706660378807</v>
       </c>
       <c r="AP146" t="n">
         <v>0.0007625623806529655</v>
@@ -19123,7 +19123,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.004578489381644118</v>
+        <v>-0.002289244690822059</v>
       </c>
       <c r="C147" t="n">
         <v>0.0002418981809240212</v>
@@ -19144,7 +19144,7 @@
         <v>0.0003225309078986949</v>
       </c>
       <c r="I147" t="n">
-        <v>-0.003597384514148949</v>
+        <v>-0.001798692257074475</v>
       </c>
       <c r="J147" t="n">
         <v>0.0002418981809240212</v>
@@ -19162,13 +19162,13 @@
         <v>0.0004837963618480423</v>
       </c>
       <c r="O147" t="n">
-        <v>-0.004251454425812396</v>
+        <v>-0.002125727212906198</v>
       </c>
       <c r="P147" t="n">
-        <v>-0.003270349558317227</v>
+        <v>-0.001635174779158613</v>
       </c>
       <c r="Q147" t="n">
-        <v>-0.002943314602485504</v>
+        <v>-0.001471657301242752</v>
       </c>
       <c r="R147" t="n">
         <v>0.0002418981809240212</v>
@@ -19228,7 +19228,7 @@
         <v>0.0008869599967214108</v>
       </c>
       <c r="AK147" t="n">
-        <v>-0.007358286506213761</v>
+        <v>-0.003679143253106881</v>
       </c>
       <c r="AL147" t="n">
         <v>0.001370756358569453</v>
@@ -19240,7 +19240,7 @@
         <v>0.001451389085544127</v>
       </c>
       <c r="AO147" t="n">
-        <v>-0.008502908851624792</v>
+        <v>-0.004251454425812396</v>
       </c>
       <c r="AP147" t="n">
         <v>0.0007256945427720634</v>
@@ -19251,7 +19251,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.004561656259359026</v>
+        <v>-0.002280828129679513</v>
       </c>
       <c r="C148" t="n">
         <v>0.0002421934647218913</v>
@@ -19272,7 +19272,7 @@
         <v>0.0003229246196291883</v>
       </c>
       <c r="I148" t="n">
-        <v>-0.003584158489496378</v>
+        <v>-0.001792079244748189</v>
       </c>
       <c r="J148" t="n">
         <v>0.0002421934647218913</v>
@@ -19290,13 +19290,13 @@
         <v>0.0004843869294437825</v>
       </c>
       <c r="O148" t="n">
-        <v>-0.004235823669404811</v>
+        <v>-0.002117911834702405</v>
       </c>
       <c r="P148" t="n">
-        <v>-0.003258325899542161</v>
+        <v>-0.001629162949771081</v>
       </c>
       <c r="Q148" t="n">
-        <v>-0.002932493309587945</v>
+        <v>-0.001466246654793973</v>
       </c>
       <c r="R148" t="n">
         <v>0.0002421934647218913</v>
@@ -19356,7 +19356,7 @@
         <v>0.0008880427039802679</v>
       </c>
       <c r="AK148" t="n">
-        <v>-0.007331233273969863</v>
+        <v>-0.003665616636984931</v>
       </c>
       <c r="AL148" t="n">
         <v>0.001372429633424051</v>
@@ -19368,7 +19368,7 @@
         <v>0.001453160788331347</v>
       </c>
       <c r="AO148" t="n">
-        <v>-0.008471647338809622</v>
+        <v>-0.004235823669404811</v>
       </c>
       <c r="AP148" t="n">
         <v>0.0007265803941656737</v>
@@ -19379,7 +19379,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.004543995304352374</v>
+        <v>-0.002271997652176187</v>
       </c>
       <c r="C149" t="n">
         <v>0.0002355113053717172</v>
@@ -19400,7 +19400,7 @@
         <v>0.0003140150738289564</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.003570282024848294</v>
+        <v>-0.001785141012424147</v>
       </c>
       <c r="J149" t="n">
         <v>0.0002355113053717172</v>
@@ -19418,13 +19418,13 @@
         <v>0.0004710226107434345</v>
       </c>
       <c r="O149" t="n">
-        <v>-0.004219424211184348</v>
+        <v>-0.002109712105592174</v>
       </c>
       <c r="P149" t="n">
-        <v>-0.003245710931680267</v>
+        <v>-0.001622855465840133</v>
       </c>
       <c r="Q149" t="n">
-        <v>-0.00292113983851224</v>
+        <v>-0.00146056991925612</v>
       </c>
       <c r="R149" t="n">
         <v>0.0002355113053717172</v>
@@ -19484,7 +19484,7 @@
         <v>0.0008635414530296299</v>
       </c>
       <c r="AK149" t="n">
-        <v>-0.007302849596280601</v>
+        <v>-0.0036514247981403</v>
       </c>
       <c r="AL149" t="n">
         <v>0.001334564063773064</v>
@@ -19496,7 +19496,7 @@
         <v>0.001413067832230303</v>
       </c>
       <c r="AO149" t="n">
-        <v>-0.008438848422368694</v>
+        <v>-0.004219424211184347</v>
       </c>
       <c r="AP149" t="n">
         <v>0.0007065339161151517</v>
@@ -19507,7 +19507,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.004588395347208807</v>
+        <v>-0.002294197673604404</v>
       </c>
       <c r="C150" t="n">
         <v>0.0002346192833384362</v>
@@ -19528,7 +19528,7 @@
         <v>0.000312825711117915</v>
       </c>
       <c r="I150" t="n">
-        <v>-0.003605167772806919</v>
+        <v>-0.001802583886403459</v>
       </c>
       <c r="J150" t="n">
         <v>0.0002346192833384362</v>
@@ -19546,13 +19546,13 @@
         <v>0.0004692385666768724</v>
       </c>
       <c r="O150" t="n">
-        <v>-0.004260652822408178</v>
+        <v>-0.002130326411204089</v>
       </c>
       <c r="P150" t="n">
-        <v>-0.00327742524800629</v>
+        <v>-0.001638712624003145</v>
       </c>
       <c r="Q150" t="n">
-        <v>-0.002949682723205662</v>
+        <v>-0.001474841361602831</v>
       </c>
       <c r="R150" t="n">
         <v>0.0002346192833384362</v>
@@ -19612,7 +19612,7 @@
         <v>0.0008602707055742661</v>
       </c>
       <c r="AK150" t="n">
-        <v>-0.007374206808014153</v>
+        <v>-0.003687103404007077</v>
       </c>
       <c r="AL150" t="n">
         <v>0.001329509272251139</v>
@@ -19624,7 +19624,7 @@
         <v>0.001407715700030617</v>
       </c>
       <c r="AO150" t="n">
-        <v>-0.008521305644816355</v>
+        <v>-0.004260652822408177</v>
       </c>
       <c r="AP150" t="n">
         <v>0.0007038578500153086</v>
@@ -19635,7 +19635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.004717088156861291</v>
+        <v>-0.002358544078430645</v>
       </c>
       <c r="C151" t="n">
         <v>0.0002302893448686807</v>
@@ -19656,7 +19656,7 @@
         <v>0.0003070524598249076</v>
       </c>
       <c r="I151" t="n">
-        <v>-0.003706283551819586</v>
+        <v>-0.001853141775909793</v>
       </c>
       <c r="J151" t="n">
         <v>0.0002302893448686807</v>
@@ -19674,13 +19674,13 @@
         <v>0.0004605786897373614</v>
       </c>
       <c r="O151" t="n">
-        <v>-0.004380153288514056</v>
+        <v>-0.002190076644257028</v>
       </c>
       <c r="P151" t="n">
-        <v>-0.00336934868347235</v>
+        <v>-0.001684674341736175</v>
       </c>
       <c r="Q151" t="n">
-        <v>-0.003032413815125115</v>
+        <v>-0.001516206907562558</v>
       </c>
       <c r="R151" t="n">
         <v>0.0002302893448686807</v>
@@ -19740,7 +19740,7 @@
         <v>0.0008443942645184958</v>
       </c>
       <c r="AK151" t="n">
-        <v>-0.007581034537812788</v>
+        <v>-0.003790517268906394</v>
       </c>
       <c r="AL151" t="n">
         <v>0.001304972954255857</v>
@@ -19752,7 +19752,7 @@
         <v>0.001381736069212084</v>
       </c>
       <c r="AO151" t="n">
-        <v>-0.00876030657702811</v>
+        <v>-0.004380153288514055</v>
       </c>
       <c r="AP151" t="n">
         <v>0.0006908680346060421</v>
@@ -19763,7 +19763,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.005013728160303303</v>
+        <v>-0.002506864080151652</v>
       </c>
       <c r="C152" t="n">
         <v>0.0002216503267746903</v>
@@ -19784,7 +19784,7 @@
         <v>0.0002955337690329204</v>
       </c>
       <c r="I152" t="n">
-        <v>-0.003939357840238309</v>
+        <v>-0.001969678920119154</v>
       </c>
       <c r="J152" t="n">
         <v>0.0002216503267746903</v>
@@ -19802,13 +19802,13 @@
         <v>0.0004433006535493805</v>
       </c>
       <c r="O152" t="n">
-        <v>-0.004655604720281639</v>
+        <v>-0.002327802360140819</v>
       </c>
       <c r="P152" t="n">
-        <v>-0.003581234400216645</v>
+        <v>-0.001790617200108322</v>
       </c>
       <c r="Q152" t="n">
-        <v>-0.00322311096019498</v>
+        <v>-0.00161155548009749</v>
       </c>
       <c r="R152" t="n">
         <v>0.0002216503267746903</v>
@@ -19868,7 +19868,7 @@
         <v>0.0008127178648405309</v>
       </c>
       <c r="AK152" t="n">
-        <v>-0.008057777400487451</v>
+        <v>-0.004028888700243725</v>
       </c>
       <c r="AL152" t="n">
         <v>0.001256018518389912</v>
@@ -19880,7 +19880,7 @@
         <v>0.001329901960648141</v>
       </c>
       <c r="AO152" t="n">
-        <v>-0.009311209440563276</v>
+        <v>-0.004655604720281638</v>
       </c>
       <c r="AP152" t="n">
         <v>0.0006649509803240707</v>
@@ -19891,7 +19891,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.005303700195637924</v>
+        <v>-0.002651850097818962</v>
       </c>
       <c r="C153" t="n">
         <v>0.0001972917082910798</v>
@@ -19912,7 +19912,7 @@
         <v>0.0002630556110547731</v>
       </c>
       <c r="I153" t="n">
-        <v>-0.004167193010858368</v>
+        <v>-0.002083596505429184</v>
       </c>
       <c r="J153" t="n">
         <v>0.0001972917082910798</v>
@@ -19930,13 +19930,13 @@
         <v>0.0003945834165821596</v>
       </c>
       <c r="O153" t="n">
-        <v>-0.004924864467378073</v>
+        <v>-0.002462432233689037</v>
       </c>
       <c r="P153" t="n">
-        <v>-0.003788357282598516</v>
+        <v>-0.001894178641299258</v>
       </c>
       <c r="Q153" t="n">
-        <v>-0.003409521554338665</v>
+        <v>-0.001704760777169333</v>
       </c>
       <c r="R153" t="n">
         <v>0.0001972917082910798</v>
@@ -19996,7 +19996,7 @@
         <v>0.0007234029304006258</v>
       </c>
       <c r="AK153" t="n">
-        <v>-0.008523803885846663</v>
+        <v>-0.004261901942923332</v>
       </c>
       <c r="AL153" t="n">
         <v>0.001117986346982785</v>
@@ -20008,7 +20008,7 @@
         <v>0.001183750249746479</v>
       </c>
       <c r="AO153" t="n">
-        <v>-0.009849728934756144</v>
+        <v>-0.004924864467378072</v>
       </c>
       <c r="AP153" t="n">
         <v>0.0005918751248732393</v>
@@ -20019,7 +20019,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.005388103417294259</v>
+        <v>-0.00269405170864713</v>
       </c>
       <c r="C154" t="n">
         <v>0.0001590893577500187</v>
@@ -20040,7 +20040,7 @@
         <v>0.0002121191436666916</v>
       </c>
       <c r="I154" t="n">
-        <v>-0.00423350982787406</v>
+        <v>-0.00211675491393703</v>
       </c>
       <c r="J154" t="n">
         <v>0.0001590893577500187</v>
@@ -20058,13 +20058,13 @@
         <v>0.0003181787155000373</v>
       </c>
       <c r="O154" t="n">
-        <v>-0.005003238887487526</v>
+        <v>-0.002501619443743763</v>
       </c>
       <c r="P154" t="n">
-        <v>-0.003848645298067327</v>
+        <v>-0.001924322649033663</v>
       </c>
       <c r="Q154" t="n">
-        <v>-0.003463780768260594</v>
+        <v>-0.001731890384130297</v>
       </c>
       <c r="R154" t="n">
         <v>0.0001590893577500187</v>
@@ -20124,7 +20124,7 @@
         <v>0.0005833276450834018</v>
       </c>
       <c r="AK154" t="n">
-        <v>-0.008659451920651486</v>
+        <v>-0.004329725960325743</v>
       </c>
       <c r="AL154" t="n">
         <v>0.0009015063605834391</v>
@@ -20136,7 +20136,7 @@
         <v>0.0009545361465001119</v>
       </c>
       <c r="AO154" t="n">
-        <v>-0.01000647777497505</v>
+        <v>-0.005003238887487525</v>
       </c>
       <c r="AP154" t="n">
         <v>0.000477268073250056</v>
@@ -20147,7 +20147,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.005325431941371052</v>
+        <v>-0.002662715970685526</v>
       </c>
       <c r="C155" t="n">
         <v>0.0001012002722426579</v>
@@ -20168,7 +20168,7 @@
         <v>0.0001349336963235439</v>
       </c>
       <c r="I155" t="n">
-        <v>-0.004184267953934398</v>
+        <v>-0.002092133976967199</v>
       </c>
       <c r="J155" t="n">
         <v>0.0001012002722426579</v>
@@ -20186,13 +20186,13 @@
         <v>0.0002024005444853158</v>
       </c>
       <c r="O155" t="n">
-        <v>-0.004945043945558834</v>
+        <v>-0.002472521972779417</v>
       </c>
       <c r="P155" t="n">
-        <v>-0.003803879958122179</v>
+        <v>-0.00190193997906109</v>
       </c>
       <c r="Q155" t="n">
-        <v>-0.003423491962309961</v>
+        <v>-0.001711745981154981</v>
       </c>
       <c r="R155" t="n">
         <v>0.0001012002722426579</v>
@@ -20252,7 +20252,7 @@
         <v>0.0003710676648897456</v>
       </c>
       <c r="AK155" t="n">
-        <v>-0.008558729905774904</v>
+        <v>-0.004279364952887452</v>
       </c>
       <c r="AL155" t="n">
         <v>0.0005734682093750615</v>
@@ -20264,7 +20264,7 @@
         <v>0.0006072016334559474</v>
       </c>
       <c r="AO155" t="n">
-        <v>-0.009890087891117666</v>
+        <v>-0.004945043945558833</v>
       </c>
       <c r="AP155" t="n">
         <v>0.0003036008167279737</v>
@@ -20275,7 +20275,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.005383495151233431</v>
+        <v>-0.002691747575616715</v>
       </c>
       <c r="C156" t="n">
         <v>7.511908629873863e-05</v>
@@ -20296,7 +20296,7 @@
         <v>0.0001001587817316515</v>
       </c>
       <c r="I156" t="n">
-        <v>-0.004229889047397695</v>
+        <v>-0.002114944523698847</v>
       </c>
       <c r="J156" t="n">
         <v>7.511908629873863e-05</v>
@@ -20314,13 +20314,13 @@
         <v>0.0001502381725974773</v>
       </c>
       <c r="O156" t="n">
-        <v>-0.004998959783288186</v>
+        <v>-0.002499479891644093</v>
       </c>
       <c r="P156" t="n">
-        <v>-0.00384535367945245</v>
+        <v>-0.001922676839726225</v>
       </c>
       <c r="Q156" t="n">
-        <v>-0.003460818311507205</v>
+        <v>-0.001730409155753603</v>
       </c>
       <c r="R156" t="n">
         <v>7.511908629873863e-05</v>
@@ -20380,7 +20380,7 @@
         <v>0.0002754366497620416</v>
       </c>
       <c r="AK156" t="n">
-        <v>-0.008652045778768014</v>
+        <v>-0.004326022889384007</v>
       </c>
       <c r="AL156" t="n">
         <v>0.0004256748223595189</v>
@@ -20392,7 +20392,7 @@
         <v>0.0004507145177924317</v>
       </c>
       <c r="AO156" t="n">
-        <v>-0.00999791956657637</v>
+        <v>-0.004998959783288185</v>
       </c>
       <c r="AP156" t="n">
         <v>0.0002253572588962159</v>
@@ -20403,7 +20403,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.005151053232243897</v>
+        <v>-0.002575526616121948</v>
       </c>
       <c r="C157" t="n">
         <v>7.507847313381514e-05</v>
@@ -20424,7 +20424,7 @@
         <v>0.0001001046308450869</v>
       </c>
       <c r="I157" t="n">
-        <v>-0.004047256111048776</v>
+        <v>-0.002023628055524388</v>
       </c>
       <c r="J157" t="n">
         <v>7.507847313381514e-05</v>
@@ -20442,13 +20442,13 @@
         <v>0.0001501569462676303</v>
       </c>
       <c r="O157" t="n">
-        <v>-0.00478312085851219</v>
+        <v>-0.002391560429256095</v>
       </c>
       <c r="P157" t="n">
-        <v>-0.003679323737317068</v>
+        <v>-0.001839661868658534</v>
       </c>
       <c r="Q157" t="n">
-        <v>-0.003311391363585362</v>
+        <v>-0.001655695681792681</v>
       </c>
       <c r="R157" t="n">
         <v>7.507847313381514e-05</v>
@@ -20508,7 +20508,7 @@
         <v>0.0002752877348239889</v>
       </c>
       <c r="AK157" t="n">
-        <v>-0.008278478408963405</v>
+        <v>-0.004139239204481703</v>
       </c>
       <c r="AL157" t="n">
         <v>0.0004254446810916192</v>
@@ -20520,7 +20520,7 @@
         <v>0.0004504708388028908</v>
       </c>
       <c r="AO157" t="n">
-        <v>-0.009566241717024379</v>
+        <v>-0.004783120858512189</v>
       </c>
       <c r="AP157" t="n">
         <v>0.0002252354194014454</v>
@@ -20531,7 +20531,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.005078080021731923</v>
+        <v>-0.002539040010865962</v>
       </c>
       <c r="C158" t="n">
         <v>9.1567654010955e-05</v>
@@ -20552,7 +20552,7 @@
         <v>0.00012209020534794</v>
       </c>
       <c r="I158" t="n">
-        <v>-0.003989920017075082</v>
+        <v>-0.001994960008537541</v>
       </c>
       <c r="J158" t="n">
         <v>9.1567654010955e-05</v>
@@ -20570,13 +20570,13 @@
         <v>0.00018313530802191</v>
       </c>
       <c r="O158" t="n">
-        <v>-0.004715360020179644</v>
+        <v>-0.002357680010089822</v>
       </c>
       <c r="P158" t="n">
-        <v>-0.003627200015522801</v>
+        <v>-0.001813600007761401</v>
       </c>
       <c r="Q158" t="n">
-        <v>-0.003264480013970522</v>
+        <v>-0.001632240006985261</v>
       </c>
       <c r="R158" t="n">
         <v>9.1567654010955e-05</v>
@@ -20636,7 +20636,7 @@
         <v>0.000335748064706835</v>
       </c>
       <c r="AK158" t="n">
-        <v>-0.008161200034926304</v>
+        <v>-0.004080600017463152</v>
       </c>
       <c r="AL158" t="n">
         <v>0.000518883372728745</v>
@@ -20648,7 +20648,7 @@
         <v>0.00054940592406573</v>
       </c>
       <c r="AO158" t="n">
-        <v>-0.009430720040359285</v>
+        <v>-0.004715360020179643</v>
       </c>
       <c r="AP158" t="n">
         <v>0.000274702962032865</v>
@@ -20659,7 +20659,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.005010560189243204</v>
+        <v>-0.002505280094621602</v>
       </c>
       <c r="C159" t="n">
         <v>0.0001157601462514726</v>
@@ -20680,7 +20680,7 @@
         <v>0.0001543468616686302</v>
       </c>
       <c r="I159" t="n">
-        <v>-0.003936868720119661</v>
+        <v>-0.00196843436005983</v>
       </c>
       <c r="J159" t="n">
         <v>0.0001157601462514726</v>
@@ -20698,13 +20698,13 @@
         <v>0.0002315202925029453</v>
       </c>
       <c r="O159" t="n">
-        <v>-0.00465266303286869</v>
+        <v>-0.002326331516434345</v>
       </c>
       <c r="P159" t="n">
-        <v>-0.003578971563745146</v>
+        <v>-0.001789485781872573</v>
       </c>
       <c r="Q159" t="n">
-        <v>-0.003221074407370632</v>
+        <v>-0.001610537203685316</v>
       </c>
       <c r="R159" t="n">
         <v>0.0001157601462514726</v>
@@ -20764,7 +20764,7 @@
         <v>0.000424453869588733</v>
       </c>
       <c r="AK159" t="n">
-        <v>-0.00805268601842658</v>
+        <v>-0.00402634300921329</v>
       </c>
       <c r="AL159" t="n">
         <v>0.0006559741620916783</v>
@@ -20776,7 +20776,7 @@
         <v>0.0006945608775088358</v>
       </c>
       <c r="AO159" t="n">
-        <v>-0.00930532606573738</v>
+        <v>-0.00465266303286869</v>
       </c>
       <c r="AP159" t="n">
         <v>0.0003472804387544179</v>
@@ -20787,7 +20787,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.004916017277553607</v>
+        <v>-0.002458008638776803</v>
       </c>
       <c r="C160" t="n">
         <v>0.0001480204741129798</v>
@@ -20808,7 +20808,7 @@
         <v>0.0001973606321506398</v>
       </c>
       <c r="I160" t="n">
-        <v>-0.003862585003792119</v>
+        <v>-0.00193129250189606</v>
       </c>
       <c r="J160" t="n">
         <v>0.0001480204741129798</v>
@@ -20826,13 +20826,13 @@
         <v>0.0002960409482259596</v>
       </c>
       <c r="O160" t="n">
-        <v>-0.004564873186299778</v>
+        <v>-0.002282436593149889</v>
       </c>
       <c r="P160" t="n">
-        <v>-0.00351144091253829</v>
+        <v>-0.001755720456269145</v>
       </c>
       <c r="Q160" t="n">
-        <v>-0.003160296821284461</v>
+        <v>-0.00158014841064223</v>
       </c>
       <c r="R160" t="n">
         <v>0.0001480204741129798</v>
@@ -20892,7 +20892,7 @@
         <v>0.0005427417384142593</v>
       </c>
       <c r="AK160" t="n">
-        <v>-0.007900742053211153</v>
+        <v>-0.003950371026605577</v>
       </c>
       <c r="AL160" t="n">
         <v>0.000838782686640219</v>
@@ -20904,7 +20904,7 @@
         <v>0.0008881228446778788</v>
       </c>
       <c r="AO160" t="n">
-        <v>-0.009129746372599555</v>
+        <v>-0.004564873186299777</v>
       </c>
       <c r="AP160" t="n">
         <v>0.0004440614223389394</v>
@@ -20915,7 +20915,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.004950284079088678</v>
+        <v>-0.002475142039544339</v>
       </c>
       <c r="C161" t="n">
         <v>0.0001730133173148075</v>
@@ -20936,7 +20936,7 @@
         <v>0.0002306844230864101</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.00388950891928396</v>
+        <v>-0.00194475445964198</v>
       </c>
       <c r="J161" t="n">
         <v>0.0001730133173148075</v>
@@ -20954,13 +20954,13 @@
         <v>0.0003460266346296151</v>
       </c>
       <c r="O161" t="n">
-        <v>-0.004596692359153772</v>
+        <v>-0.002298346179576886</v>
       </c>
       <c r="P161" t="n">
-        <v>-0.003535917199349055</v>
+        <v>-0.001767958599674527</v>
       </c>
       <c r="Q161" t="n">
-        <v>-0.003182325479414149</v>
+        <v>-0.001591162739707075</v>
       </c>
       <c r="R161" t="n">
         <v>0.0001730133173148075</v>
@@ -21020,7 +21020,7 @@
         <v>0.0006343821634876276</v>
       </c>
       <c r="AK161" t="n">
-        <v>-0.007955813698535374</v>
+        <v>-0.003977906849267687</v>
       </c>
       <c r="AL161" t="n">
         <v>0.0009804087981172428</v>
@@ -21032,7 +21032,7 @@
         <v>0.001038079903888845</v>
       </c>
       <c r="AO161" t="n">
-        <v>-0.009193384718307543</v>
+        <v>-0.004596692359153771</v>
       </c>
       <c r="AP161" t="n">
         <v>0.0005190399519444226</v>
@@ -21043,7 +21043,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.005191825791979268</v>
+        <v>-0.002595912895989634</v>
       </c>
       <c r="C162" t="n">
         <v>0.0001795012914754612</v>
@@ -21064,7 +21064,7 @@
         <v>0.000239335055300615</v>
       </c>
       <c r="I162" t="n">
-        <v>-0.004079291693697996</v>
+        <v>-0.002039645846848998</v>
       </c>
       <c r="J162" t="n">
         <v>0.0001795012914754612</v>
@@ -21082,13 +21082,13 @@
         <v>0.0003590025829509225</v>
       </c>
       <c r="O162" t="n">
-        <v>-0.004820981092552178</v>
+        <v>-0.002410490546276089</v>
       </c>
       <c r="P162" t="n">
-        <v>-0.003708446994270905</v>
+        <v>-0.001854223497135453</v>
       </c>
       <c r="Q162" t="n">
-        <v>-0.003337602294843815</v>
+        <v>-0.001668801147421907</v>
       </c>
       <c r="R162" t="n">
         <v>0.0001795012914754612</v>
@@ -21148,7 +21148,7 @@
         <v>0.0006581714020766912</v>
       </c>
       <c r="AK162" t="n">
-        <v>-0.008344005737109538</v>
+        <v>-0.004172002868554769</v>
       </c>
       <c r="AL162" t="n">
         <v>0.001017173985027614</v>
@@ -21160,7 +21160,7 @@
         <v>0.001077007748852767</v>
       </c>
       <c r="AO162" t="n">
-        <v>-0.009641962185104354</v>
+        <v>-0.004820981092552177</v>
       </c>
       <c r="AP162" t="n">
         <v>0.0005385038744263837</v>
@@ -21171,7 +21171,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.005249844026209915</v>
+        <v>-0.002624922013104958</v>
       </c>
       <c r="C163" t="n">
         <v>0.0001916908325202359</v>
@@ -21192,7 +21192,7 @@
         <v>0.0002555877766936479</v>
       </c>
       <c r="I163" t="n">
-        <v>-0.004124877449164933</v>
+        <v>-0.002062438724582466</v>
       </c>
       <c r="J163" t="n">
         <v>0.0001916908325202359</v>
@@ -21210,13 +21210,13 @@
         <v>0.0003833816650404719</v>
       </c>
       <c r="O163" t="n">
-        <v>-0.004874855167194921</v>
+        <v>-0.002437427583597461</v>
       </c>
       <c r="P163" t="n">
-        <v>-0.003749888590149938</v>
+        <v>-0.001874944295074969</v>
       </c>
       <c r="Q163" t="n">
-        <v>-0.003374899731134945</v>
+        <v>-0.001687449865567473</v>
       </c>
       <c r="R163" t="n">
         <v>0.0001916908325202359</v>
@@ -21276,7 +21276,7 @@
         <v>0.0007028663859075317</v>
       </c>
       <c r="AK163" t="n">
-        <v>-0.008437249327837362</v>
+        <v>-0.004218624663918681</v>
       </c>
       <c r="AL163" t="n">
         <v>0.001086248050948004</v>
@@ -21288,7 +21288,7 @@
         <v>0.001150144995121415</v>
       </c>
       <c r="AO163" t="n">
-        <v>-0.00974971033438984</v>
+        <v>-0.00487485516719492</v>
       </c>
       <c r="AP163" t="n">
         <v>0.0005750724975607077</v>
@@ -21299,7 +21299,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.005154019391691758</v>
+        <v>-0.002577009695845879</v>
       </c>
       <c r="C164" t="n">
         <v>0.0002125083188229683</v>
@@ -21320,7 +21320,7 @@
         <v>0.000283344425097291</v>
       </c>
       <c r="I164" t="n">
-        <v>-0.004049586664900667</v>
+        <v>-0.002024793332450333</v>
       </c>
       <c r="J164" t="n">
         <v>0.0002125083188229683</v>
@@ -21338,13 +21338,13 @@
         <v>0.0004250166376459366</v>
       </c>
       <c r="O164" t="n">
-        <v>-0.004785875149428061</v>
+        <v>-0.002392937574714031</v>
       </c>
       <c r="P164" t="n">
-        <v>-0.003681442422636969</v>
+        <v>-0.001840721211318484</v>
       </c>
       <c r="Q164" t="n">
-        <v>-0.003313298180373272</v>
+        <v>-0.001656649090186636</v>
       </c>
       <c r="R164" t="n">
         <v>0.0002125083188229683</v>
@@ -21404,7 +21404,7 @@
         <v>0.0007791971690175503</v>
       </c>
       <c r="AK164" t="n">
-        <v>-0.008283245450933183</v>
+        <v>-0.004141622725466591</v>
       </c>
       <c r="AL164" t="n">
         <v>0.001204213806663487</v>
@@ -21416,7 +21416,7 @@
         <v>0.001275049912937809</v>
       </c>
       <c r="AO164" t="n">
-        <v>-0.009571750298856121</v>
+        <v>-0.00478587514942806</v>
       </c>
       <c r="AP164" t="n">
         <v>0.0006375249564689047</v>
@@ -21427,7 +21427,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.004967240305630475</v>
+        <v>-0.002483620152815238</v>
       </c>
       <c r="C165" t="n">
         <v>0.0002381734492338921</v>
@@ -21448,7 +21448,7 @@
         <v>0.0003175645989785228</v>
       </c>
       <c r="I165" t="n">
-        <v>-0.003902831668709659</v>
+        <v>-0.00195141583435483</v>
       </c>
       <c r="J165" t="n">
         <v>0.0002381734492338921</v>
@@ -21466,13 +21466,13 @@
         <v>0.0004763468984677842</v>
       </c>
       <c r="O165" t="n">
-        <v>-0.004612437426656871</v>
+        <v>-0.002306218713328435</v>
       </c>
       <c r="P165" t="n">
-        <v>-0.003548028789736054</v>
+        <v>-0.001774014394868027</v>
       </c>
       <c r="Q165" t="n">
-        <v>-0.003193225910762448</v>
+        <v>-0.001596612955381224</v>
       </c>
       <c r="R165" t="n">
         <v>0.0002381734492338921</v>
@@ -21532,7 +21532,7 @@
         <v>0.0008733026471909376</v>
       </c>
       <c r="AK165" t="n">
-        <v>-0.007983064776906121</v>
+        <v>-0.00399153238845306</v>
       </c>
       <c r="AL165" t="n">
         <v>0.001349649545658722</v>
@@ -21544,7 +21544,7 @@
         <v>0.001429040695403352</v>
       </c>
       <c r="AO165" t="n">
-        <v>-0.00922487485331374</v>
+        <v>-0.00461243742665687</v>
       </c>
       <c r="AP165" t="n">
         <v>0.0007145203477016762</v>
@@ -21555,7 +21555,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.004822230518672498</v>
+        <v>-0.002411115259336249</v>
       </c>
       <c r="C166" t="n">
         <v>0.0002609001479956741</v>
@@ -21576,7 +21576,7 @@
         <v>0.0003478668639942321</v>
       </c>
       <c r="I166" t="n">
-        <v>-0.00378889540752839</v>
+        <v>-0.001894447703764195</v>
       </c>
       <c r="J166" t="n">
         <v>0.0002609001479956741</v>
@@ -21594,13 +21594,13 @@
         <v>0.0005218002959913482</v>
       </c>
       <c r="O166" t="n">
-        <v>-0.004477785481624461</v>
+        <v>-0.002238892740812231</v>
       </c>
       <c r="P166" t="n">
-        <v>-0.003444450370480354</v>
+        <v>-0.001722225185240177</v>
       </c>
       <c r="Q166" t="n">
-        <v>-0.003100005333432319</v>
+        <v>-0.00155000266671616</v>
       </c>
       <c r="R166" t="n">
         <v>0.0002609001479956741</v>
@@ -21660,7 +21660,7 @@
         <v>0.0009566338759841382</v>
       </c>
       <c r="AK166" t="n">
-        <v>-0.007750013333580798</v>
+        <v>-0.003875006666790399</v>
       </c>
       <c r="AL166" t="n">
         <v>0.001478434171975487</v>
@@ -21672,7 +21672,7 @@
         <v>0.001565400887974044</v>
       </c>
       <c r="AO166" t="n">
-        <v>-0.008955570963248921</v>
+        <v>-0.004477785481624461</v>
       </c>
       <c r="AP166" t="n">
         <v>0.0007827004439870222</v>
@@ -21683,7 +21683,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.004663993348816766</v>
+        <v>-0.002331996674408383</v>
       </c>
       <c r="C167" t="n">
         <v>0.0002730870755570133</v>
@@ -21704,7 +21704,7 @@
         <v>0.0003641161007426844</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.003664566202641745</v>
+        <v>-0.001832283101320872</v>
       </c>
       <c r="J167" t="n">
         <v>0.0002730870755570133</v>
@@ -21722,13 +21722,13 @@
         <v>0.0005461741511140265</v>
       </c>
       <c r="O167" t="n">
-        <v>-0.004330850966758427</v>
+        <v>-0.002165425483379213</v>
       </c>
       <c r="P167" t="n">
-        <v>-0.003331423820583404</v>
+        <v>-0.001665711910291702</v>
       </c>
       <c r="Q167" t="n">
-        <v>-0.002998281438525064</v>
+        <v>-0.001499140719262532</v>
       </c>
       <c r="R167" t="n">
         <v>0.0002730870755570133</v>
@@ -21788,7 +21788,7 @@
         <v>0.001001319277042382</v>
       </c>
       <c r="AK167" t="n">
-        <v>-0.007495703596312661</v>
+        <v>-0.00374785179815633</v>
       </c>
       <c r="AL167" t="n">
         <v>0.001547493428156409</v>
@@ -21800,7 +21800,7 @@
         <v>0.001638522453342079</v>
       </c>
       <c r="AO167" t="n">
-        <v>-0.008661701933516851</v>
+        <v>-0.004330850966758426</v>
       </c>
       <c r="AP167" t="n">
         <v>0.0008192612266710397</v>
@@ -21811,7 +21811,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.00449301666592146</v>
+        <v>-0.00224650833296073</v>
       </c>
       <c r="C168" t="n">
         <v>0.0002732276215267142</v>
@@ -21832,7 +21832,7 @@
         <v>0.0003643034953689523</v>
       </c>
       <c r="I168" t="n">
-        <v>-0.003530227380366861</v>
+        <v>-0.00176511369018343</v>
       </c>
       <c r="J168" t="n">
         <v>0.0002732276215267142</v>
@@ -21850,13 +21850,13 @@
         <v>0.0005464552430534283</v>
       </c>
       <c r="O168" t="n">
-        <v>-0.004172086904069927</v>
+        <v>-0.002086043452034963</v>
       </c>
       <c r="P168" t="n">
-        <v>-0.003209297618515328</v>
+        <v>-0.001604648809257664</v>
       </c>
       <c r="Q168" t="n">
-        <v>-0.002888367856663796</v>
+        <v>-0.001444183928331898</v>
       </c>
       <c r="R168" t="n">
         <v>0.0002732276215267142</v>
@@ -21916,7 +21916,7 @@
         <v>0.001001834612264619</v>
       </c>
       <c r="AK168" t="n">
-        <v>-0.007220919641659489</v>
+        <v>-0.003610459820829744</v>
       </c>
       <c r="AL168" t="n">
         <v>0.001548289855318047</v>
@@ -21928,7 +21928,7 @@
         <v>0.001639365729160285</v>
       </c>
       <c r="AO168" t="n">
-        <v>-0.008344173808139854</v>
+        <v>-0.004172086904069927</v>
       </c>
       <c r="AP168" t="n">
         <v>0.0008196828645801425</v>
@@ -21939,7 +21939,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.004497018587711846</v>
+        <v>-0.002248509293855923</v>
       </c>
       <c r="C169" t="n">
         <v>0.0002643202633316088</v>
@@ -21960,7 +21960,7 @@
         <v>0.0003524270177754783</v>
       </c>
       <c r="I169" t="n">
-        <v>-0.003533371747487878</v>
+        <v>-0.001766685873743939</v>
       </c>
       <c r="J169" t="n">
         <v>0.0002643202633316088</v>
@@ -21978,13 +21978,13 @@
         <v>0.0005286405266632175</v>
       </c>
       <c r="O169" t="n">
-        <v>-0.004175802974303857</v>
+        <v>-0.002087901487151928</v>
       </c>
       <c r="P169" t="n">
-        <v>-0.003212156134079889</v>
+        <v>-0.001606078067039945</v>
       </c>
       <c r="Q169" t="n">
-        <v>-0.002890940520671901</v>
+        <v>-0.00144547026033595</v>
       </c>
       <c r="R169" t="n">
         <v>0.0002643202633316088</v>
@@ -22044,7 +22044,7 @@
         <v>0.0009691742988825655</v>
       </c>
       <c r="AK169" t="n">
-        <v>-0.007227351301679751</v>
+        <v>-0.003613675650839876</v>
       </c>
       <c r="AL169" t="n">
         <v>0.001497814825545783</v>
@@ -22056,7 +22056,7 @@
         <v>0.001585921579989653</v>
       </c>
       <c r="AO169" t="n">
-        <v>-0.008351605948607713</v>
+        <v>-0.004175802974303857</v>
       </c>
       <c r="AP169" t="n">
         <v>0.0007929607899948263</v>
